--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF91518-0FCF-4900-998E-E23661C0AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15ED0A1-6005-4A5E-97F5-E6DE16D9700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="28680" yWindow="-5400" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="ldsc" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -533,6 +533,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -542,7 +543,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -13965,9 +13965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15882,11 +15882,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA881F6-B6FA-4986-9BB3-48DF6D47805B}">
   <dimension ref="A3:I33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16174,13 +16174,13 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -16203,13 +16203,13 @@
         <v>5</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -16232,13 +16232,13 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -16261,13 +16261,13 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -16319,13 +16319,13 @@
         <v>5</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -16435,16 +16435,16 @@
         <v>5</v>
       </c>
       <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
         <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -16464,16 +16464,16 @@
         <v>5</v>
       </c>
       <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
         <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -16502,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -16560,7 +16560,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -16574,10 +16574,10 @@
         <v>10</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>5</v>
@@ -16676,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -16705,7 +16705,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
@@ -16844,24 +16844,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -19284,7 +19284,7 @@
       <c r="H64" s="11">
         <v>40484</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="32">
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="J64" s="4">
@@ -19328,7 +19328,7 @@
       <c r="H65" s="11">
         <v>41329</v>
       </c>
-      <c r="I65" s="35">
+      <c r="I65" s="32">
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="J65" s="4">
@@ -19372,7 +19372,7 @@
       <c r="H66" s="11">
         <v>39640</v>
       </c>
-      <c r="I66" s="35">
+      <c r="I66" s="32">
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="J66" s="4">
@@ -21653,128 +21653,128 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="expression" dxfId="35" priority="33">
+    <cfRule type="expression" dxfId="1579" priority="33">
       <formula>$B59="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="1578" priority="34">
       <formula>$B59="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35">
+    <cfRule type="expression" dxfId="1577" priority="35">
       <formula>$B59="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="36">
+    <cfRule type="expression" dxfId="1576" priority="36">
       <formula>$B59="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="1575" priority="29">
       <formula>$B62="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="30">
+    <cfRule type="expression" dxfId="1574" priority="30">
       <formula>$B62="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="1573" priority="31">
       <formula>$B62="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="1572" priority="32">
       <formula>$B62="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63">
-    <cfRule type="expression" dxfId="27" priority="25">
+    <cfRule type="expression" dxfId="1571" priority="25">
       <formula>$B63="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
+    <cfRule type="expression" dxfId="1570" priority="26">
       <formula>$B63="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="1569" priority="27">
       <formula>$B63="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="1568" priority="28">
       <formula>$B63="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I66">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="1567" priority="21">
       <formula>$B65="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="1566" priority="22">
       <formula>$B65="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="23">
+    <cfRule type="expression" dxfId="1565" priority="23">
       <formula>$B65="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="24">
+    <cfRule type="expression" dxfId="1564" priority="24">
       <formula>$B65="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="1563" priority="17">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="1562" priority="18">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="1561" priority="19">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="1560" priority="20">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="1559" priority="13">
       <formula>$B65="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="1558" priority="14">
       <formula>$B65="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="1557" priority="15">
       <formula>$B65="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="1556" priority="16">
       <formula>$B65="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="1555" priority="9">
       <formula>$B66="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="1554" priority="10">
       <formula>$B66="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="1553" priority="11">
       <formula>$B66="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="1552" priority="12">
       <formula>$B66="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="1551" priority="5">
       <formula>$B83="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="1550" priority="6">
       <formula>$B83="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="1549" priority="7">
       <formula>$B83="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="1548" priority="8">
       <formula>$B83="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1547" priority="1">
       <formula>$B84="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1546" priority="2">
       <formula>$B84="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="1545" priority="3">
       <formula>$B84="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1544" priority="4">
       <formula>$B84="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21813,24 +21813,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -24568,1220 +24568,1220 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A50:B51 A53:B54 A77:B78 A74:B75 K74:N74 A17:B18 A14:B15 A20:B21 A38:B39 A47:B48 G38:N39 G20:N21 G14:N15 G17:N18 G77:N78 G75:N75 G53:N54 G50:N51 A11:N12 A8:N9 A6:N6 G83:N84 A83:B84 G80:N81 A80:B81 A93:N98 A23:B24 G23:N24 G26:J27 A26:B27 A29:B30 G29:N30 G32:N33 A32:B33 A35:B36 G35:N36 G41:N42 A41:B42 A44:B45 G44:N45 G56:N57 A56:B57 A59:B60 G59:N60 G62:N63 A62:B63 A65:B66 G65:N66 G68:N69 A68:B69 L26:N27 A5:C5 E5:N5 A71:C72 E71:N72">
-    <cfRule type="expression" dxfId="1579" priority="361">
+    <cfRule type="expression" dxfId="1543" priority="361">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1578" priority="362">
+    <cfRule type="expression" dxfId="1542" priority="362">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1577" priority="363">
+    <cfRule type="expression" dxfId="1541" priority="363">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1576" priority="364">
+    <cfRule type="expression" dxfId="1540" priority="364">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4:N4">
-    <cfRule type="expression" dxfId="1575" priority="357">
+    <cfRule type="expression" dxfId="1539" priority="357">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1574" priority="358">
+    <cfRule type="expression" dxfId="1538" priority="358">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1573" priority="359">
+    <cfRule type="expression" dxfId="1537" priority="359">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1572" priority="360">
+    <cfRule type="expression" dxfId="1536" priority="360">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:J74">
-    <cfRule type="expression" dxfId="1571" priority="353">
+    <cfRule type="expression" dxfId="1535" priority="353">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1570" priority="354">
+    <cfRule type="expression" dxfId="1534" priority="354">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1569" priority="355">
+    <cfRule type="expression" dxfId="1533" priority="355">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1568" priority="356">
+    <cfRule type="expression" dxfId="1532" priority="356">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10:N10">
-    <cfRule type="expression" dxfId="1567" priority="349">
+    <cfRule type="expression" dxfId="1531" priority="349">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1566" priority="350">
+    <cfRule type="expression" dxfId="1530" priority="350">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1565" priority="351">
+    <cfRule type="expression" dxfId="1529" priority="351">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1564" priority="352">
+    <cfRule type="expression" dxfId="1528" priority="352">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 G7:N7">
-    <cfRule type="expression" dxfId="1563" priority="345">
+    <cfRule type="expression" dxfId="1527" priority="345">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1562" priority="346">
+    <cfRule type="expression" dxfId="1526" priority="346">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1561" priority="347">
+    <cfRule type="expression" dxfId="1525" priority="347">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1560" priority="348">
+    <cfRule type="expression" dxfId="1524" priority="348">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49 G49:N49">
-    <cfRule type="expression" dxfId="1559" priority="341">
+    <cfRule type="expression" dxfId="1523" priority="341">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1558" priority="342">
+    <cfRule type="expression" dxfId="1522" priority="342">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1557" priority="343">
+    <cfRule type="expression" dxfId="1521" priority="343">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1556" priority="344">
+    <cfRule type="expression" dxfId="1520" priority="344">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52 G52:N52">
-    <cfRule type="expression" dxfId="1555" priority="337">
+    <cfRule type="expression" dxfId="1519" priority="337">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1554" priority="338">
+    <cfRule type="expression" dxfId="1518" priority="338">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1553" priority="339">
+    <cfRule type="expression" dxfId="1517" priority="339">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1552" priority="340">
+    <cfRule type="expression" dxfId="1516" priority="340">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70 G70:N70">
-    <cfRule type="expression" dxfId="1551" priority="333">
+    <cfRule type="expression" dxfId="1515" priority="333">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1550" priority="334">
+    <cfRule type="expression" dxfId="1514" priority="334">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1549" priority="335">
+    <cfRule type="expression" dxfId="1513" priority="335">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1548" priority="336">
+    <cfRule type="expression" dxfId="1512" priority="336">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 G73:N73">
-    <cfRule type="expression" dxfId="1547" priority="329">
+    <cfRule type="expression" dxfId="1511" priority="329">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1546" priority="330">
+    <cfRule type="expression" dxfId="1510" priority="330">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1545" priority="331">
+    <cfRule type="expression" dxfId="1509" priority="331">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1544" priority="332">
+    <cfRule type="expression" dxfId="1508" priority="332">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 G76:L76">
-    <cfRule type="expression" dxfId="1543" priority="325">
+    <cfRule type="expression" dxfId="1507" priority="325">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1542" priority="326">
+    <cfRule type="expression" dxfId="1506" priority="326">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1541" priority="327">
+    <cfRule type="expression" dxfId="1505" priority="327">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1540" priority="328">
+    <cfRule type="expression" dxfId="1504" priority="328">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="expression" dxfId="1539" priority="321">
+    <cfRule type="expression" dxfId="1503" priority="321">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1538" priority="322">
+    <cfRule type="expression" dxfId="1502" priority="322">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1537" priority="323">
+    <cfRule type="expression" dxfId="1501" priority="323">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1536" priority="324">
+    <cfRule type="expression" dxfId="1500" priority="324">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 G16:N16">
-    <cfRule type="expression" dxfId="1535" priority="317">
+    <cfRule type="expression" dxfId="1499" priority="317">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1534" priority="318">
+    <cfRule type="expression" dxfId="1498" priority="318">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1533" priority="319">
+    <cfRule type="expression" dxfId="1497" priority="319">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1532" priority="320">
+    <cfRule type="expression" dxfId="1496" priority="320">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 G13:N13">
-    <cfRule type="expression" dxfId="1531" priority="313">
+    <cfRule type="expression" dxfId="1495" priority="313">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1530" priority="314">
+    <cfRule type="expression" dxfId="1494" priority="314">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1529" priority="315">
+    <cfRule type="expression" dxfId="1493" priority="315">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1528" priority="316">
+    <cfRule type="expression" dxfId="1492" priority="316">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 G19:N19">
-    <cfRule type="expression" dxfId="1527" priority="309">
+    <cfRule type="expression" dxfId="1491" priority="309">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1526" priority="310">
+    <cfRule type="expression" dxfId="1490" priority="310">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1525" priority="311">
+    <cfRule type="expression" dxfId="1489" priority="311">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1524" priority="312">
+    <cfRule type="expression" dxfId="1488" priority="312">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37 G37:N37">
-    <cfRule type="expression" dxfId="1523" priority="305">
+    <cfRule type="expression" dxfId="1487" priority="305">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1522" priority="306">
+    <cfRule type="expression" dxfId="1486" priority="306">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1521" priority="307">
+    <cfRule type="expression" dxfId="1485" priority="307">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1520" priority="308">
+    <cfRule type="expression" dxfId="1484" priority="308">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="1519" priority="301">
+    <cfRule type="expression" dxfId="1483" priority="301">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1518" priority="302">
+    <cfRule type="expression" dxfId="1482" priority="302">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1517" priority="303">
+    <cfRule type="expression" dxfId="1481" priority="303">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1516" priority="304">
+    <cfRule type="expression" dxfId="1480" priority="304">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F57 C80:F81 C14:F15 C41:F42 C83:F84 C29:F30 C32:F33 C35:F36 C44:F45 C59:F60 C62:F63 C65:F66 C68:F69 E23:F24 E26:F27">
-    <cfRule type="expression" dxfId="1515" priority="297">
+    <cfRule type="expression" dxfId="1479" priority="297">
       <formula>$B14="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1514" priority="298">
+    <cfRule type="expression" dxfId="1478" priority="298">
       <formula>$B14="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1513" priority="299">
+    <cfRule type="expression" dxfId="1477" priority="299">
       <formula>$B14="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1512" priority="300">
+    <cfRule type="expression" dxfId="1476" priority="300">
       <formula>$B14="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="expression" dxfId="1511" priority="293">
+    <cfRule type="expression" dxfId="1475" priority="293">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1510" priority="294">
+    <cfRule type="expression" dxfId="1474" priority="294">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1509" priority="295">
+    <cfRule type="expression" dxfId="1473" priority="295">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1508" priority="296">
+    <cfRule type="expression" dxfId="1472" priority="296">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="expression" dxfId="1507" priority="289">
+    <cfRule type="expression" dxfId="1471" priority="289">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1506" priority="290">
+    <cfRule type="expression" dxfId="1470" priority="290">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1505" priority="291">
+    <cfRule type="expression" dxfId="1469" priority="291">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1504" priority="292">
+    <cfRule type="expression" dxfId="1468" priority="292">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="1503" priority="285">
+    <cfRule type="expression" dxfId="1467" priority="285">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1502" priority="286">
+    <cfRule type="expression" dxfId="1466" priority="286">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1501" priority="287">
+    <cfRule type="expression" dxfId="1465" priority="287">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1500" priority="288">
+    <cfRule type="expression" dxfId="1464" priority="288">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="expression" dxfId="1499" priority="281">
+    <cfRule type="expression" dxfId="1463" priority="281">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1498" priority="282">
+    <cfRule type="expression" dxfId="1462" priority="282">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1497" priority="283">
+    <cfRule type="expression" dxfId="1461" priority="283">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1496" priority="284">
+    <cfRule type="expression" dxfId="1460" priority="284">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="expression" dxfId="1495" priority="277">
+    <cfRule type="expression" dxfId="1459" priority="277">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1494" priority="278">
+    <cfRule type="expression" dxfId="1458" priority="278">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1493" priority="279">
+    <cfRule type="expression" dxfId="1457" priority="279">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1492" priority="280">
+    <cfRule type="expression" dxfId="1456" priority="280">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
-    <cfRule type="expression" dxfId="1491" priority="273">
+    <cfRule type="expression" dxfId="1455" priority="273">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1490" priority="274">
+    <cfRule type="expression" dxfId="1454" priority="274">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1489" priority="275">
+    <cfRule type="expression" dxfId="1453" priority="275">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1488" priority="276">
+    <cfRule type="expression" dxfId="1452" priority="276">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:F73">
-    <cfRule type="expression" dxfId="1487" priority="269">
+    <cfRule type="expression" dxfId="1451" priority="269">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1486" priority="270">
+    <cfRule type="expression" dxfId="1450" priority="270">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1485" priority="271">
+    <cfRule type="expression" dxfId="1449" priority="271">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1484" priority="272">
+    <cfRule type="expression" dxfId="1448" priority="272">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:F76">
-    <cfRule type="expression" dxfId="1483" priority="265">
+    <cfRule type="expression" dxfId="1447" priority="265">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1482" priority="266">
+    <cfRule type="expression" dxfId="1446" priority="266">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1481" priority="267">
+    <cfRule type="expression" dxfId="1445" priority="267">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1480" priority="268">
+    <cfRule type="expression" dxfId="1444" priority="268">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="expression" dxfId="1479" priority="261">
+    <cfRule type="expression" dxfId="1443" priority="261">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1478" priority="262">
+    <cfRule type="expression" dxfId="1442" priority="262">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1477" priority="263">
+    <cfRule type="expression" dxfId="1441" priority="263">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1476" priority="264">
+    <cfRule type="expression" dxfId="1440" priority="264">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:F13">
-    <cfRule type="expression" dxfId="1475" priority="257">
+    <cfRule type="expression" dxfId="1439" priority="257">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1474" priority="258">
+    <cfRule type="expression" dxfId="1438" priority="258">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1473" priority="259">
+    <cfRule type="expression" dxfId="1437" priority="259">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1472" priority="260">
+    <cfRule type="expression" dxfId="1436" priority="260">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="expression" dxfId="1471" priority="253">
+    <cfRule type="expression" dxfId="1435" priority="253">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1470" priority="254">
+    <cfRule type="expression" dxfId="1434" priority="254">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1469" priority="255">
+    <cfRule type="expression" dxfId="1433" priority="255">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1468" priority="256">
+    <cfRule type="expression" dxfId="1432" priority="256">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:F37">
-    <cfRule type="expression" dxfId="1467" priority="249">
+    <cfRule type="expression" dxfId="1431" priority="249">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1466" priority="250">
+    <cfRule type="expression" dxfId="1430" priority="250">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1465" priority="251">
+    <cfRule type="expression" dxfId="1429" priority="251">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1464" priority="252">
+    <cfRule type="expression" dxfId="1428" priority="252">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F18">
-    <cfRule type="expression" dxfId="1463" priority="241">
+    <cfRule type="expression" dxfId="1427" priority="241">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1462" priority="242">
+    <cfRule type="expression" dxfId="1426" priority="242">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1461" priority="243">
+    <cfRule type="expression" dxfId="1425" priority="243">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1460" priority="244">
+    <cfRule type="expression" dxfId="1424" priority="244">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21 E20:F21">
-    <cfRule type="expression" dxfId="1459" priority="237">
+    <cfRule type="expression" dxfId="1423" priority="237">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1458" priority="238">
+    <cfRule type="expression" dxfId="1422" priority="238">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1457" priority="239">
+    <cfRule type="expression" dxfId="1421" priority="239">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1456" priority="240">
+    <cfRule type="expression" dxfId="1420" priority="240">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F39">
-    <cfRule type="expression" dxfId="1455" priority="233">
+    <cfRule type="expression" dxfId="1419" priority="233">
       <formula>$B38="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1454" priority="234">
+    <cfRule type="expression" dxfId="1418" priority="234">
       <formula>$B38="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1453" priority="235">
+    <cfRule type="expression" dxfId="1417" priority="235">
       <formula>$B38="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1452" priority="236">
+    <cfRule type="expression" dxfId="1416" priority="236">
       <formula>$B38="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F51">
-    <cfRule type="expression" dxfId="1451" priority="225">
+    <cfRule type="expression" dxfId="1415" priority="225">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1450" priority="226">
+    <cfRule type="expression" dxfId="1414" priority="226">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1449" priority="227">
+    <cfRule type="expression" dxfId="1413" priority="227">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1448" priority="228">
+    <cfRule type="expression" dxfId="1412" priority="228">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F54">
-    <cfRule type="expression" dxfId="1447" priority="221">
+    <cfRule type="expression" dxfId="1411" priority="221">
       <formula>$B53="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1446" priority="222">
+    <cfRule type="expression" dxfId="1410" priority="222">
       <formula>$B53="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1445" priority="223">
+    <cfRule type="expression" dxfId="1409" priority="223">
       <formula>$B53="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1444" priority="224">
+    <cfRule type="expression" dxfId="1408" priority="224">
       <formula>$B53="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F75">
-    <cfRule type="expression" dxfId="1443" priority="217">
+    <cfRule type="expression" dxfId="1407" priority="217">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1442" priority="218">
+    <cfRule type="expression" dxfId="1406" priority="218">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1441" priority="219">
+    <cfRule type="expression" dxfId="1405" priority="219">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1440" priority="220">
+    <cfRule type="expression" dxfId="1404" priority="220">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:F78">
-    <cfRule type="expression" dxfId="1439" priority="213">
+    <cfRule type="expression" dxfId="1403" priority="213">
       <formula>$B77="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1438" priority="214">
+    <cfRule type="expression" dxfId="1402" priority="214">
       <formula>$B77="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1437" priority="215">
+    <cfRule type="expression" dxfId="1401" priority="215">
       <formula>$B77="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1436" priority="216">
+    <cfRule type="expression" dxfId="1400" priority="216">
       <formula>$B77="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82 G82:N82">
-    <cfRule type="expression" dxfId="1435" priority="209">
+    <cfRule type="expression" dxfId="1399" priority="209">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1434" priority="210">
+    <cfRule type="expression" dxfId="1398" priority="210">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1433" priority="211">
+    <cfRule type="expression" dxfId="1397" priority="211">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1432" priority="212">
+    <cfRule type="expression" dxfId="1396" priority="212">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F82">
-    <cfRule type="expression" dxfId="1431" priority="205">
+    <cfRule type="expression" dxfId="1395" priority="205">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1430" priority="206">
+    <cfRule type="expression" dxfId="1394" priority="206">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1429" priority="207">
+    <cfRule type="expression" dxfId="1393" priority="207">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1428" priority="208">
+    <cfRule type="expression" dxfId="1392" priority="208">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:B79 G79:N79">
-    <cfRule type="expression" dxfId="1427" priority="201">
+    <cfRule type="expression" dxfId="1391" priority="201">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1426" priority="202">
+    <cfRule type="expression" dxfId="1390" priority="202">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1425" priority="203">
+    <cfRule type="expression" dxfId="1389" priority="203">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1424" priority="204">
+    <cfRule type="expression" dxfId="1388" priority="204">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:F79">
-    <cfRule type="expression" dxfId="1423" priority="197">
+    <cfRule type="expression" dxfId="1387" priority="197">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1422" priority="198">
+    <cfRule type="expression" dxfId="1386" priority="198">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1421" priority="199">
+    <cfRule type="expression" dxfId="1385" priority="199">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1420" priority="200">
+    <cfRule type="expression" dxfId="1384" priority="200">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22 G22:N22">
-    <cfRule type="expression" dxfId="1419" priority="193">
+    <cfRule type="expression" dxfId="1383" priority="193">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1418" priority="194">
+    <cfRule type="expression" dxfId="1382" priority="194">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1417" priority="195">
+    <cfRule type="expression" dxfId="1381" priority="195">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1416" priority="196">
+    <cfRule type="expression" dxfId="1380" priority="196">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:F22">
-    <cfRule type="expression" dxfId="1415" priority="189">
+    <cfRule type="expression" dxfId="1379" priority="189">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1414" priority="190">
+    <cfRule type="expression" dxfId="1378" priority="190">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1413" priority="191">
+    <cfRule type="expression" dxfId="1377" priority="191">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1412" priority="192">
+    <cfRule type="expression" dxfId="1376" priority="192">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 G25:J25 L25:N25">
-    <cfRule type="expression" dxfId="1411" priority="185">
+    <cfRule type="expression" dxfId="1375" priority="185">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1410" priority="186">
+    <cfRule type="expression" dxfId="1374" priority="186">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1409" priority="187">
+    <cfRule type="expression" dxfId="1373" priority="187">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1408" priority="188">
+    <cfRule type="expression" dxfId="1372" priority="188">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="expression" dxfId="1407" priority="181">
+    <cfRule type="expression" dxfId="1371" priority="181">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1406" priority="182">
+    <cfRule type="expression" dxfId="1370" priority="182">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1405" priority="183">
+    <cfRule type="expression" dxfId="1369" priority="183">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1404" priority="184">
+    <cfRule type="expression" dxfId="1368" priority="184">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:N28 A28:B28">
-    <cfRule type="expression" dxfId="1403" priority="177">
+    <cfRule type="expression" dxfId="1367" priority="177">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1402" priority="178">
+    <cfRule type="expression" dxfId="1366" priority="178">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1401" priority="179">
+    <cfRule type="expression" dxfId="1365" priority="179">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1400" priority="180">
+    <cfRule type="expression" dxfId="1364" priority="180">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="1399" priority="173">
+    <cfRule type="expression" dxfId="1363" priority="173">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1398" priority="174">
+    <cfRule type="expression" dxfId="1362" priority="174">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1397" priority="175">
+    <cfRule type="expression" dxfId="1361" priority="175">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1396" priority="176">
+    <cfRule type="expression" dxfId="1360" priority="176">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 G31:N31">
-    <cfRule type="expression" dxfId="1395" priority="169">
+    <cfRule type="expression" dxfId="1359" priority="169">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1394" priority="170">
+    <cfRule type="expression" dxfId="1358" priority="170">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1393" priority="171">
+    <cfRule type="expression" dxfId="1357" priority="171">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1392" priority="172">
+    <cfRule type="expression" dxfId="1356" priority="172">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="1391" priority="165">
+    <cfRule type="expression" dxfId="1355" priority="165">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1390" priority="166">
+    <cfRule type="expression" dxfId="1354" priority="166">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1389" priority="167">
+    <cfRule type="expression" dxfId="1353" priority="167">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1388" priority="168">
+    <cfRule type="expression" dxfId="1352" priority="168">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:N34 A34:B34">
-    <cfRule type="expression" dxfId="1387" priority="161">
+    <cfRule type="expression" dxfId="1351" priority="161">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1386" priority="162">
+    <cfRule type="expression" dxfId="1350" priority="162">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1385" priority="163">
+    <cfRule type="expression" dxfId="1349" priority="163">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1384" priority="164">
+    <cfRule type="expression" dxfId="1348" priority="164">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="expression" dxfId="1383" priority="157">
+    <cfRule type="expression" dxfId="1347" priority="157">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1382" priority="158">
+    <cfRule type="expression" dxfId="1346" priority="158">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1381" priority="159">
+    <cfRule type="expression" dxfId="1345" priority="159">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1380" priority="160">
+    <cfRule type="expression" dxfId="1344" priority="160">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 G40:N40">
-    <cfRule type="expression" dxfId="1379" priority="153">
+    <cfRule type="expression" dxfId="1343" priority="153">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1378" priority="154">
+    <cfRule type="expression" dxfId="1342" priority="154">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1377" priority="155">
+    <cfRule type="expression" dxfId="1341" priority="155">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1376" priority="156">
+    <cfRule type="expression" dxfId="1340" priority="156">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="1375" priority="149">
+    <cfRule type="expression" dxfId="1339" priority="149">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1374" priority="150">
+    <cfRule type="expression" dxfId="1338" priority="150">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1373" priority="151">
+    <cfRule type="expression" dxfId="1337" priority="151">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1372" priority="152">
+    <cfRule type="expression" dxfId="1336" priority="152">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:N43 A43:B43">
-    <cfRule type="expression" dxfId="1371" priority="145">
+    <cfRule type="expression" dxfId="1335" priority="145">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1370" priority="146">
+    <cfRule type="expression" dxfId="1334" priority="146">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1369" priority="147">
+    <cfRule type="expression" dxfId="1333" priority="147">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1368" priority="148">
+    <cfRule type="expression" dxfId="1332" priority="148">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="expression" dxfId="1367" priority="141">
+    <cfRule type="expression" dxfId="1331" priority="141">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1366" priority="142">
+    <cfRule type="expression" dxfId="1330" priority="142">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1365" priority="143">
+    <cfRule type="expression" dxfId="1329" priority="143">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1364" priority="144">
+    <cfRule type="expression" dxfId="1328" priority="144">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55 G55:N55">
-    <cfRule type="expression" dxfId="1363" priority="137">
+    <cfRule type="expression" dxfId="1327" priority="137">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1362" priority="138">
+    <cfRule type="expression" dxfId="1326" priority="138">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1361" priority="139">
+    <cfRule type="expression" dxfId="1325" priority="139">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1360" priority="140">
+    <cfRule type="expression" dxfId="1324" priority="140">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="1359" priority="133">
+    <cfRule type="expression" dxfId="1323" priority="133">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1358" priority="134">
+    <cfRule type="expression" dxfId="1322" priority="134">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1357" priority="135">
+    <cfRule type="expression" dxfId="1321" priority="135">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1356" priority="136">
+    <cfRule type="expression" dxfId="1320" priority="136">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:N58 A58:B58">
-    <cfRule type="expression" dxfId="1355" priority="129">
+    <cfRule type="expression" dxfId="1319" priority="129">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1354" priority="130">
+    <cfRule type="expression" dxfId="1318" priority="130">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1353" priority="131">
+    <cfRule type="expression" dxfId="1317" priority="131">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1352" priority="132">
+    <cfRule type="expression" dxfId="1316" priority="132">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="expression" dxfId="1351" priority="125">
+    <cfRule type="expression" dxfId="1315" priority="125">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1350" priority="126">
+    <cfRule type="expression" dxfId="1314" priority="126">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1349" priority="127">
+    <cfRule type="expression" dxfId="1313" priority="127">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1348" priority="128">
+    <cfRule type="expression" dxfId="1312" priority="128">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61 G61:N61">
-    <cfRule type="expression" dxfId="1347" priority="121">
+    <cfRule type="expression" dxfId="1311" priority="121">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1346" priority="122">
+    <cfRule type="expression" dxfId="1310" priority="122">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1345" priority="123">
+    <cfRule type="expression" dxfId="1309" priority="123">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1344" priority="124">
+    <cfRule type="expression" dxfId="1308" priority="124">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="expression" dxfId="1343" priority="117">
+    <cfRule type="expression" dxfId="1307" priority="117">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1342" priority="118">
+    <cfRule type="expression" dxfId="1306" priority="118">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1341" priority="119">
+    <cfRule type="expression" dxfId="1305" priority="119">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1340" priority="120">
+    <cfRule type="expression" dxfId="1304" priority="120">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:N64 A64:B64">
-    <cfRule type="expression" dxfId="1339" priority="113">
+    <cfRule type="expression" dxfId="1303" priority="113">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1338" priority="114">
+    <cfRule type="expression" dxfId="1302" priority="114">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1337" priority="115">
+    <cfRule type="expression" dxfId="1301" priority="115">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1336" priority="116">
+    <cfRule type="expression" dxfId="1300" priority="116">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="expression" dxfId="1335" priority="109">
+    <cfRule type="expression" dxfId="1299" priority="109">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1334" priority="110">
+    <cfRule type="expression" dxfId="1298" priority="110">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1333" priority="111">
+    <cfRule type="expression" dxfId="1297" priority="111">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1332" priority="112">
+    <cfRule type="expression" dxfId="1296" priority="112">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 G67:N67">
-    <cfRule type="expression" dxfId="1331" priority="105">
+    <cfRule type="expression" dxfId="1295" priority="105">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1330" priority="106">
+    <cfRule type="expression" dxfId="1294" priority="106">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1329" priority="107">
+    <cfRule type="expression" dxfId="1293" priority="107">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1328" priority="108">
+    <cfRule type="expression" dxfId="1292" priority="108">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67">
-    <cfRule type="expression" dxfId="1327" priority="101">
+    <cfRule type="expression" dxfId="1291" priority="101">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1326" priority="102">
+    <cfRule type="expression" dxfId="1290" priority="102">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1325" priority="103">
+    <cfRule type="expression" dxfId="1289" priority="103">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1324" priority="104">
+    <cfRule type="expression" dxfId="1288" priority="104">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="1323" priority="97">
+    <cfRule type="expression" dxfId="1287" priority="97">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1322" priority="98">
+    <cfRule type="expression" dxfId="1286" priority="98">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1321" priority="99">
+    <cfRule type="expression" dxfId="1285" priority="99">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1320" priority="100">
+    <cfRule type="expression" dxfId="1284" priority="100">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="1319" priority="93">
+    <cfRule type="expression" dxfId="1283" priority="93">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1318" priority="94">
+    <cfRule type="expression" dxfId="1282" priority="94">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1317" priority="95">
+    <cfRule type="expression" dxfId="1281" priority="95">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1316" priority="96">
+    <cfRule type="expression" dxfId="1280" priority="96">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="1315" priority="85">
+    <cfRule type="expression" dxfId="1279" priority="85">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1314" priority="86">
+    <cfRule type="expression" dxfId="1278" priority="86">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1313" priority="87">
+    <cfRule type="expression" dxfId="1277" priority="87">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1312" priority="88">
+    <cfRule type="expression" dxfId="1276" priority="88">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:N101">
-    <cfRule type="expression" dxfId="1311" priority="81">
+    <cfRule type="expression" dxfId="1275" priority="81">
       <formula>$B99="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1310" priority="82">
+    <cfRule type="expression" dxfId="1274" priority="82">
       <formula>$B99="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1309" priority="83">
+    <cfRule type="expression" dxfId="1273" priority="83">
       <formula>$B99="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1308" priority="84">
+    <cfRule type="expression" dxfId="1272" priority="84">
       <formula>$B99="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="1307" priority="77">
+    <cfRule type="expression" dxfId="1271" priority="77">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1306" priority="78">
+    <cfRule type="expression" dxfId="1270" priority="78">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1305" priority="79">
+    <cfRule type="expression" dxfId="1269" priority="79">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1304" priority="80">
+    <cfRule type="expression" dxfId="1268" priority="80">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="1303" priority="73">
+    <cfRule type="expression" dxfId="1267" priority="73">
       <formula>$B71="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1302" priority="74">
+    <cfRule type="expression" dxfId="1266" priority="74">
       <formula>$B71="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1301" priority="75">
+    <cfRule type="expression" dxfId="1265" priority="75">
       <formula>$B71="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1300" priority="76">
+    <cfRule type="expression" dxfId="1264" priority="76">
       <formula>$B71="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="1299" priority="69">
+    <cfRule type="expression" dxfId="1263" priority="69">
       <formula>$B72="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1298" priority="70">
+    <cfRule type="expression" dxfId="1262" priority="70">
       <formula>$B72="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1297" priority="71">
+    <cfRule type="expression" dxfId="1261" priority="71">
       <formula>$B72="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1296" priority="72">
+    <cfRule type="expression" dxfId="1260" priority="72">
       <formula>$B72="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="expression" dxfId="1295" priority="65">
+    <cfRule type="expression" dxfId="1259" priority="65">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1294" priority="66">
+    <cfRule type="expression" dxfId="1258" priority="66">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1293" priority="67">
+    <cfRule type="expression" dxfId="1257" priority="67">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1292" priority="68">
+    <cfRule type="expression" dxfId="1256" priority="68">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="1291" priority="61">
+    <cfRule type="expression" dxfId="1255" priority="61">
       <formula>$B21="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1290" priority="62">
+    <cfRule type="expression" dxfId="1254" priority="62">
       <formula>$B21="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1289" priority="63">
+    <cfRule type="expression" dxfId="1253" priority="63">
       <formula>$B21="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1288" priority="64">
+    <cfRule type="expression" dxfId="1252" priority="64">
       <formula>$B21="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:D74">
-    <cfRule type="expression" dxfId="1287" priority="53">
+    <cfRule type="expression" dxfId="1251" priority="53">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1286" priority="54">
+    <cfRule type="expression" dxfId="1250" priority="54">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1285" priority="55">
+    <cfRule type="expression" dxfId="1249" priority="55">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1284" priority="56">
+    <cfRule type="expression" dxfId="1248" priority="56">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:D75">
-    <cfRule type="expression" dxfId="1283" priority="49">
+    <cfRule type="expression" dxfId="1247" priority="49">
       <formula>$B75="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1282" priority="50">
+    <cfRule type="expression" dxfId="1246" priority="50">
       <formula>$B75="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1281" priority="51">
+    <cfRule type="expression" dxfId="1245" priority="51">
       <formula>$B75="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1280" priority="52">
+    <cfRule type="expression" dxfId="1244" priority="52">
       <formula>$B75="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="expression" dxfId="1279" priority="45">
+    <cfRule type="expression" dxfId="1243" priority="45">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1278" priority="46">
+    <cfRule type="expression" dxfId="1242" priority="46">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1277" priority="47">
+    <cfRule type="expression" dxfId="1241" priority="47">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1276" priority="48">
+    <cfRule type="expression" dxfId="1240" priority="48">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="1275" priority="41">
+    <cfRule type="expression" dxfId="1239" priority="41">
       <formula>$B18="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1274" priority="42">
+    <cfRule type="expression" dxfId="1238" priority="42">
       <formula>$B18="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1273" priority="43">
+    <cfRule type="expression" dxfId="1237" priority="43">
       <formula>$B18="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1272" priority="44">
+    <cfRule type="expression" dxfId="1236" priority="44">
       <formula>$B18="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" dxfId="1271" priority="37">
+    <cfRule type="expression" dxfId="1235" priority="37">
       <formula>$B23="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1270" priority="38">
+    <cfRule type="expression" dxfId="1234" priority="38">
       <formula>$B23="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1269" priority="39">
+    <cfRule type="expression" dxfId="1233" priority="39">
       <formula>$B23="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1268" priority="40">
+    <cfRule type="expression" dxfId="1232" priority="40">
       <formula>$B23="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" dxfId="1267" priority="33">
+    <cfRule type="expression" dxfId="1231" priority="33">
       <formula>$B24="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1266" priority="34">
+    <cfRule type="expression" dxfId="1230" priority="34">
       <formula>$B24="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1265" priority="35">
+    <cfRule type="expression" dxfId="1229" priority="35">
       <formula>$B24="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1264" priority="36">
+    <cfRule type="expression" dxfId="1228" priority="36">
       <formula>$B24="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="1263" priority="29">
+    <cfRule type="expression" dxfId="1227" priority="29">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1262" priority="30">
+    <cfRule type="expression" dxfId="1226" priority="30">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1261" priority="31">
+    <cfRule type="expression" dxfId="1225" priority="31">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1260" priority="32">
+    <cfRule type="expression" dxfId="1224" priority="32">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="1259" priority="25">
+    <cfRule type="expression" dxfId="1223" priority="25">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1258" priority="26">
+    <cfRule type="expression" dxfId="1222" priority="26">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1257" priority="27">
+    <cfRule type="expression" dxfId="1221" priority="27">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1256" priority="28">
+    <cfRule type="expression" dxfId="1220" priority="28">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="1255" priority="21">
+    <cfRule type="expression" dxfId="1219" priority="21">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1254" priority="22">
+    <cfRule type="expression" dxfId="1218" priority="22">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1253" priority="23">
+    <cfRule type="expression" dxfId="1217" priority="23">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1252" priority="24">
+    <cfRule type="expression" dxfId="1216" priority="24">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="1251" priority="17">
+    <cfRule type="expression" dxfId="1215" priority="17">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1250" priority="18">
+    <cfRule type="expression" dxfId="1214" priority="18">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1249" priority="19">
+    <cfRule type="expression" dxfId="1213" priority="19">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1248" priority="20">
+    <cfRule type="expression" dxfId="1212" priority="20">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:N48">
-    <cfRule type="expression" dxfId="1247" priority="13">
+    <cfRule type="expression" dxfId="1211" priority="13">
       <formula>$B47="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1246" priority="14">
+    <cfRule type="expression" dxfId="1210" priority="14">
       <formula>$B47="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1245" priority="15">
+    <cfRule type="expression" dxfId="1209" priority="15">
       <formula>$B47="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1244" priority="16">
+    <cfRule type="expression" dxfId="1208" priority="16">
       <formula>$B47="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F48">
-    <cfRule type="expression" dxfId="1243" priority="9">
+    <cfRule type="expression" dxfId="1207" priority="9">
       <formula>$B47="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1242" priority="10">
+    <cfRule type="expression" dxfId="1206" priority="10">
       <formula>$B47="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1241" priority="11">
+    <cfRule type="expression" dxfId="1205" priority="11">
       <formula>$B47="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1240" priority="12">
+    <cfRule type="expression" dxfId="1204" priority="12">
       <formula>$B47="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:N46">
-    <cfRule type="expression" dxfId="1239" priority="5">
+    <cfRule type="expression" dxfId="1203" priority="5">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1238" priority="6">
+    <cfRule type="expression" dxfId="1202" priority="6">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1237" priority="7">
+    <cfRule type="expression" dxfId="1201" priority="7">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1236" priority="8">
+    <cfRule type="expression" dxfId="1200" priority="8">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="1235" priority="1">
+    <cfRule type="expression" dxfId="1199" priority="1">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1234" priority="2">
+    <cfRule type="expression" dxfId="1198" priority="2">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1233" priority="3">
+    <cfRule type="expression" dxfId="1197" priority="3">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1232" priority="4">
+    <cfRule type="expression" dxfId="1196" priority="4">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25820,24 +25820,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -28563,1150 +28563,1150 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A50:B51 A53:B54 A77:B78 A74:B75 K74:N74 A17:B18 A14:B15 A20:B21 A38:B39 A47:B48 G47:N48 G38:N39 G20:N21 G14:N15 G17:N18 G77:N78 G75:N75 G53:N54 G50:N51 A8:N9 A5:N6 A72:N72 G83:N84 A83:B84 G80:N81 A80:B81 A93:N98 A23:B24 G23:N24 G26:J27 A26:B27 A29:B30 G29:N30 G32:N33 A32:B33 A35:B36 G35:N36 G41:N42 A41:B42 A44:B45 G44:N45 G56:N57 A56:B57 A59:B60 G59:N60 G62:N63 A62:B63 A65:B66 G65:N66 G68:N69 A68:B69 L26:N27 A71:C71 E71:N71 A11:C12 E11:N12">
-    <cfRule type="expression" dxfId="1231" priority="329">
+    <cfRule type="expression" dxfId="1195" priority="329">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1230" priority="330">
+    <cfRule type="expression" dxfId="1194" priority="330">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1229" priority="331">
+    <cfRule type="expression" dxfId="1193" priority="331">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1228" priority="332">
+    <cfRule type="expression" dxfId="1192" priority="332">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4:N4">
-    <cfRule type="expression" dxfId="1227" priority="325">
+    <cfRule type="expression" dxfId="1191" priority="325">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1226" priority="326">
+    <cfRule type="expression" dxfId="1190" priority="326">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1225" priority="327">
+    <cfRule type="expression" dxfId="1189" priority="327">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1224" priority="328">
+    <cfRule type="expression" dxfId="1188" priority="328">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:J74">
-    <cfRule type="expression" dxfId="1223" priority="321">
+    <cfRule type="expression" dxfId="1187" priority="321">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1222" priority="322">
+    <cfRule type="expression" dxfId="1186" priority="322">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1221" priority="323">
+    <cfRule type="expression" dxfId="1185" priority="323">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1220" priority="324">
+    <cfRule type="expression" dxfId="1184" priority="324">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10:N10">
-    <cfRule type="expression" dxfId="1219" priority="317">
+    <cfRule type="expression" dxfId="1183" priority="317">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1218" priority="318">
+    <cfRule type="expression" dxfId="1182" priority="318">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1217" priority="319">
+    <cfRule type="expression" dxfId="1181" priority="319">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1216" priority="320">
+    <cfRule type="expression" dxfId="1180" priority="320">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 G7:N7">
-    <cfRule type="expression" dxfId="1215" priority="313">
+    <cfRule type="expression" dxfId="1179" priority="313">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1214" priority="314">
+    <cfRule type="expression" dxfId="1178" priority="314">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1213" priority="315">
+    <cfRule type="expression" dxfId="1177" priority="315">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1212" priority="316">
+    <cfRule type="expression" dxfId="1176" priority="316">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49 G49:N49">
-    <cfRule type="expression" dxfId="1211" priority="309">
+    <cfRule type="expression" dxfId="1175" priority="309">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1210" priority="310">
+    <cfRule type="expression" dxfId="1174" priority="310">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1209" priority="311">
+    <cfRule type="expression" dxfId="1173" priority="311">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1208" priority="312">
+    <cfRule type="expression" dxfId="1172" priority="312">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52 G52:N52">
-    <cfRule type="expression" dxfId="1207" priority="305">
+    <cfRule type="expression" dxfId="1171" priority="305">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1206" priority="306">
+    <cfRule type="expression" dxfId="1170" priority="306">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1205" priority="307">
+    <cfRule type="expression" dxfId="1169" priority="307">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1204" priority="308">
+    <cfRule type="expression" dxfId="1168" priority="308">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70 G70:N70">
-    <cfRule type="expression" dxfId="1203" priority="301">
+    <cfRule type="expression" dxfId="1167" priority="301">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1202" priority="302">
+    <cfRule type="expression" dxfId="1166" priority="302">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1201" priority="303">
+    <cfRule type="expression" dxfId="1165" priority="303">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1200" priority="304">
+    <cfRule type="expression" dxfId="1164" priority="304">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 G73:N73">
-    <cfRule type="expression" dxfId="1199" priority="297">
+    <cfRule type="expression" dxfId="1163" priority="297">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1198" priority="298">
+    <cfRule type="expression" dxfId="1162" priority="298">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1197" priority="299">
+    <cfRule type="expression" dxfId="1161" priority="299">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1196" priority="300">
+    <cfRule type="expression" dxfId="1160" priority="300">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 G76:L76">
-    <cfRule type="expression" dxfId="1195" priority="293">
+    <cfRule type="expression" dxfId="1159" priority="293">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1194" priority="294">
+    <cfRule type="expression" dxfId="1158" priority="294">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1193" priority="295">
+    <cfRule type="expression" dxfId="1157" priority="295">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1192" priority="296">
+    <cfRule type="expression" dxfId="1156" priority="296">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="expression" dxfId="1191" priority="289">
+    <cfRule type="expression" dxfId="1155" priority="289">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1190" priority="290">
+    <cfRule type="expression" dxfId="1154" priority="290">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1189" priority="291">
+    <cfRule type="expression" dxfId="1153" priority="291">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1188" priority="292">
+    <cfRule type="expression" dxfId="1152" priority="292">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 G16:N16">
-    <cfRule type="expression" dxfId="1187" priority="285">
+    <cfRule type="expression" dxfId="1151" priority="285">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1186" priority="286">
+    <cfRule type="expression" dxfId="1150" priority="286">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1185" priority="287">
+    <cfRule type="expression" dxfId="1149" priority="287">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1184" priority="288">
+    <cfRule type="expression" dxfId="1148" priority="288">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 G13:N13">
-    <cfRule type="expression" dxfId="1183" priority="281">
+    <cfRule type="expression" dxfId="1147" priority="281">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1182" priority="282">
+    <cfRule type="expression" dxfId="1146" priority="282">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1181" priority="283">
+    <cfRule type="expression" dxfId="1145" priority="283">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1180" priority="284">
+    <cfRule type="expression" dxfId="1144" priority="284">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 G19:N19">
-    <cfRule type="expression" dxfId="1179" priority="277">
+    <cfRule type="expression" dxfId="1143" priority="277">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1178" priority="278">
+    <cfRule type="expression" dxfId="1142" priority="278">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1177" priority="279">
+    <cfRule type="expression" dxfId="1141" priority="279">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1176" priority="280">
+    <cfRule type="expression" dxfId="1140" priority="280">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37 G37:N37">
-    <cfRule type="expression" dxfId="1175" priority="273">
+    <cfRule type="expression" dxfId="1139" priority="273">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1174" priority="274">
+    <cfRule type="expression" dxfId="1138" priority="274">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1173" priority="275">
+    <cfRule type="expression" dxfId="1137" priority="275">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1172" priority="276">
+    <cfRule type="expression" dxfId="1136" priority="276">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46 G46:N46">
-    <cfRule type="expression" dxfId="1171" priority="269">
+    <cfRule type="expression" dxfId="1135" priority="269">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1170" priority="270">
+    <cfRule type="expression" dxfId="1134" priority="270">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1169" priority="271">
+    <cfRule type="expression" dxfId="1133" priority="271">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1168" priority="272">
+    <cfRule type="expression" dxfId="1132" priority="272">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F57 C80:F81 C14:F15 C41:F42 C83:F84 C29:F30 C32:F33 C35:F36 C44:F45 C59:F60 C62:F63 C65:F66 C68:F69 E23:F24 E26:F27">
-    <cfRule type="expression" dxfId="1167" priority="265">
+    <cfRule type="expression" dxfId="1131" priority="265">
       <formula>$B14="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1166" priority="266">
+    <cfRule type="expression" dxfId="1130" priority="266">
       <formula>$B14="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1165" priority="267">
+    <cfRule type="expression" dxfId="1129" priority="267">
       <formula>$B14="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1164" priority="268">
+    <cfRule type="expression" dxfId="1128" priority="268">
       <formula>$B14="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="expression" dxfId="1163" priority="261">
+    <cfRule type="expression" dxfId="1127" priority="261">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1162" priority="262">
+    <cfRule type="expression" dxfId="1126" priority="262">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1161" priority="263">
+    <cfRule type="expression" dxfId="1125" priority="263">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1160" priority="264">
+    <cfRule type="expression" dxfId="1124" priority="264">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="expression" dxfId="1159" priority="257">
+    <cfRule type="expression" dxfId="1123" priority="257">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1158" priority="258">
+    <cfRule type="expression" dxfId="1122" priority="258">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1157" priority="259">
+    <cfRule type="expression" dxfId="1121" priority="259">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1156" priority="260">
+    <cfRule type="expression" dxfId="1120" priority="260">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="1155" priority="253">
+    <cfRule type="expression" dxfId="1119" priority="253">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1154" priority="254">
+    <cfRule type="expression" dxfId="1118" priority="254">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1153" priority="255">
+    <cfRule type="expression" dxfId="1117" priority="255">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1152" priority="256">
+    <cfRule type="expression" dxfId="1116" priority="256">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="expression" dxfId="1151" priority="249">
+    <cfRule type="expression" dxfId="1115" priority="249">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1150" priority="250">
+    <cfRule type="expression" dxfId="1114" priority="250">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1149" priority="251">
+    <cfRule type="expression" dxfId="1113" priority="251">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1148" priority="252">
+    <cfRule type="expression" dxfId="1112" priority="252">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="expression" dxfId="1147" priority="245">
+    <cfRule type="expression" dxfId="1111" priority="245">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1146" priority="246">
+    <cfRule type="expression" dxfId="1110" priority="246">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1145" priority="247">
+    <cfRule type="expression" dxfId="1109" priority="247">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1144" priority="248">
+    <cfRule type="expression" dxfId="1108" priority="248">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
-    <cfRule type="expression" dxfId="1143" priority="241">
+    <cfRule type="expression" dxfId="1107" priority="241">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1142" priority="242">
+    <cfRule type="expression" dxfId="1106" priority="242">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1141" priority="243">
+    <cfRule type="expression" dxfId="1105" priority="243">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1140" priority="244">
+    <cfRule type="expression" dxfId="1104" priority="244">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:F73">
-    <cfRule type="expression" dxfId="1139" priority="237">
+    <cfRule type="expression" dxfId="1103" priority="237">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1138" priority="238">
+    <cfRule type="expression" dxfId="1102" priority="238">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1137" priority="239">
+    <cfRule type="expression" dxfId="1101" priority="239">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1136" priority="240">
+    <cfRule type="expression" dxfId="1100" priority="240">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:F76">
-    <cfRule type="expression" dxfId="1135" priority="233">
+    <cfRule type="expression" dxfId="1099" priority="233">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1134" priority="234">
+    <cfRule type="expression" dxfId="1098" priority="234">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1133" priority="235">
+    <cfRule type="expression" dxfId="1097" priority="235">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1132" priority="236">
+    <cfRule type="expression" dxfId="1096" priority="236">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="expression" dxfId="1131" priority="229">
+    <cfRule type="expression" dxfId="1095" priority="229">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1130" priority="230">
+    <cfRule type="expression" dxfId="1094" priority="230">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1129" priority="231">
+    <cfRule type="expression" dxfId="1093" priority="231">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1128" priority="232">
+    <cfRule type="expression" dxfId="1092" priority="232">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:F13">
-    <cfRule type="expression" dxfId="1127" priority="225">
+    <cfRule type="expression" dxfId="1091" priority="225">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1126" priority="226">
+    <cfRule type="expression" dxfId="1090" priority="226">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1125" priority="227">
+    <cfRule type="expression" dxfId="1089" priority="227">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1124" priority="228">
+    <cfRule type="expression" dxfId="1088" priority="228">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="expression" dxfId="1123" priority="221">
+    <cfRule type="expression" dxfId="1087" priority="221">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1122" priority="222">
+    <cfRule type="expression" dxfId="1086" priority="222">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1121" priority="223">
+    <cfRule type="expression" dxfId="1085" priority="223">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1120" priority="224">
+    <cfRule type="expression" dxfId="1084" priority="224">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:F37">
-    <cfRule type="expression" dxfId="1119" priority="217">
+    <cfRule type="expression" dxfId="1083" priority="217">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1118" priority="218">
+    <cfRule type="expression" dxfId="1082" priority="218">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1117" priority="219">
+    <cfRule type="expression" dxfId="1081" priority="219">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1116" priority="220">
+    <cfRule type="expression" dxfId="1080" priority="220">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="1115" priority="213">
+    <cfRule type="expression" dxfId="1079" priority="213">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1114" priority="214">
+    <cfRule type="expression" dxfId="1078" priority="214">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1113" priority="215">
+    <cfRule type="expression" dxfId="1077" priority="215">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1112" priority="216">
+    <cfRule type="expression" dxfId="1076" priority="216">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:F18 C17 E17:F17">
-    <cfRule type="expression" dxfId="1111" priority="209">
+    <cfRule type="expression" dxfId="1075" priority="209">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1110" priority="210">
+    <cfRule type="expression" dxfId="1074" priority="210">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1109" priority="211">
+    <cfRule type="expression" dxfId="1073" priority="211">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1108" priority="212">
+    <cfRule type="expression" dxfId="1072" priority="212">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F21">
-    <cfRule type="expression" dxfId="1107" priority="205">
+    <cfRule type="expression" dxfId="1071" priority="205">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1106" priority="206">
+    <cfRule type="expression" dxfId="1070" priority="206">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1105" priority="207">
+    <cfRule type="expression" dxfId="1069" priority="207">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1104" priority="208">
+    <cfRule type="expression" dxfId="1068" priority="208">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F39">
-    <cfRule type="expression" dxfId="1103" priority="201">
+    <cfRule type="expression" dxfId="1067" priority="201">
       <formula>$B38="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1102" priority="202">
+    <cfRule type="expression" dxfId="1066" priority="202">
       <formula>$B38="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1101" priority="203">
+    <cfRule type="expression" dxfId="1065" priority="203">
       <formula>$B38="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1100" priority="204">
+    <cfRule type="expression" dxfId="1064" priority="204">
       <formula>$B38="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F48">
-    <cfRule type="expression" dxfId="1099" priority="197">
+    <cfRule type="expression" dxfId="1063" priority="197">
       <formula>$B47="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1098" priority="198">
+    <cfRule type="expression" dxfId="1062" priority="198">
       <formula>$B47="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1097" priority="199">
+    <cfRule type="expression" dxfId="1061" priority="199">
       <formula>$B47="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1096" priority="200">
+    <cfRule type="expression" dxfId="1060" priority="200">
       <formula>$B47="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F51">
-    <cfRule type="expression" dxfId="1095" priority="193">
+    <cfRule type="expression" dxfId="1059" priority="193">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1094" priority="194">
+    <cfRule type="expression" dxfId="1058" priority="194">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1093" priority="195">
+    <cfRule type="expression" dxfId="1057" priority="195">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1092" priority="196">
+    <cfRule type="expression" dxfId="1056" priority="196">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F54">
-    <cfRule type="expression" dxfId="1091" priority="189">
+    <cfRule type="expression" dxfId="1055" priority="189">
       <formula>$B53="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1090" priority="190">
+    <cfRule type="expression" dxfId="1054" priority="190">
       <formula>$B53="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1089" priority="191">
+    <cfRule type="expression" dxfId="1053" priority="191">
       <formula>$B53="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1088" priority="192">
+    <cfRule type="expression" dxfId="1052" priority="192">
       <formula>$B53="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F75">
-    <cfRule type="expression" dxfId="1087" priority="185">
+    <cfRule type="expression" dxfId="1051" priority="185">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1086" priority="186">
+    <cfRule type="expression" dxfId="1050" priority="186">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1085" priority="187">
+    <cfRule type="expression" dxfId="1049" priority="187">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1084" priority="188">
+    <cfRule type="expression" dxfId="1048" priority="188">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:F78">
-    <cfRule type="expression" dxfId="1083" priority="181">
+    <cfRule type="expression" dxfId="1047" priority="181">
       <formula>$B77="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1082" priority="182">
+    <cfRule type="expression" dxfId="1046" priority="182">
       <formula>$B77="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1081" priority="183">
+    <cfRule type="expression" dxfId="1045" priority="183">
       <formula>$B77="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1080" priority="184">
+    <cfRule type="expression" dxfId="1044" priority="184">
       <formula>$B77="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82 G82:N82">
-    <cfRule type="expression" dxfId="1079" priority="177">
+    <cfRule type="expression" dxfId="1043" priority="177">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1078" priority="178">
+    <cfRule type="expression" dxfId="1042" priority="178">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1077" priority="179">
+    <cfRule type="expression" dxfId="1041" priority="179">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1076" priority="180">
+    <cfRule type="expression" dxfId="1040" priority="180">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F82">
-    <cfRule type="expression" dxfId="1075" priority="173">
+    <cfRule type="expression" dxfId="1039" priority="173">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1074" priority="174">
+    <cfRule type="expression" dxfId="1038" priority="174">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1073" priority="175">
+    <cfRule type="expression" dxfId="1037" priority="175">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1072" priority="176">
+    <cfRule type="expression" dxfId="1036" priority="176">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:B79 G79:N79">
-    <cfRule type="expression" dxfId="1071" priority="169">
+    <cfRule type="expression" dxfId="1035" priority="169">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1070" priority="170">
+    <cfRule type="expression" dxfId="1034" priority="170">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1069" priority="171">
+    <cfRule type="expression" dxfId="1033" priority="171">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1068" priority="172">
+    <cfRule type="expression" dxfId="1032" priority="172">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:F79">
-    <cfRule type="expression" dxfId="1067" priority="165">
+    <cfRule type="expression" dxfId="1031" priority="165">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1066" priority="166">
+    <cfRule type="expression" dxfId="1030" priority="166">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1065" priority="167">
+    <cfRule type="expression" dxfId="1029" priority="167">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1064" priority="168">
+    <cfRule type="expression" dxfId="1028" priority="168">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22 G22:N22">
-    <cfRule type="expression" dxfId="1063" priority="161">
+    <cfRule type="expression" dxfId="1027" priority="161">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1062" priority="162">
+    <cfRule type="expression" dxfId="1026" priority="162">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1061" priority="163">
+    <cfRule type="expression" dxfId="1025" priority="163">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1060" priority="164">
+    <cfRule type="expression" dxfId="1024" priority="164">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:F22">
-    <cfRule type="expression" dxfId="1059" priority="157">
+    <cfRule type="expression" dxfId="1023" priority="157">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1058" priority="158">
+    <cfRule type="expression" dxfId="1022" priority="158">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1057" priority="159">
+    <cfRule type="expression" dxfId="1021" priority="159">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1056" priority="160">
+    <cfRule type="expression" dxfId="1020" priority="160">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 G25:J25 L25:N25">
-    <cfRule type="expression" dxfId="1055" priority="153">
+    <cfRule type="expression" dxfId="1019" priority="153">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1054" priority="154">
+    <cfRule type="expression" dxfId="1018" priority="154">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1053" priority="155">
+    <cfRule type="expression" dxfId="1017" priority="155">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1052" priority="156">
+    <cfRule type="expression" dxfId="1016" priority="156">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="expression" dxfId="1051" priority="149">
+    <cfRule type="expression" dxfId="1015" priority="149">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1050" priority="150">
+    <cfRule type="expression" dxfId="1014" priority="150">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1049" priority="151">
+    <cfRule type="expression" dxfId="1013" priority="151">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1048" priority="152">
+    <cfRule type="expression" dxfId="1012" priority="152">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:N28 A28:B28">
-    <cfRule type="expression" dxfId="1047" priority="145">
+    <cfRule type="expression" dxfId="1011" priority="145">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1046" priority="146">
+    <cfRule type="expression" dxfId="1010" priority="146">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1045" priority="147">
+    <cfRule type="expression" dxfId="1009" priority="147">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1044" priority="148">
+    <cfRule type="expression" dxfId="1008" priority="148">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="1043" priority="141">
+    <cfRule type="expression" dxfId="1007" priority="141">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1042" priority="142">
+    <cfRule type="expression" dxfId="1006" priority="142">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1041" priority="143">
+    <cfRule type="expression" dxfId="1005" priority="143">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1040" priority="144">
+    <cfRule type="expression" dxfId="1004" priority="144">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 G31:N31">
-    <cfRule type="expression" dxfId="1039" priority="137">
+    <cfRule type="expression" dxfId="1003" priority="137">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1038" priority="138">
+    <cfRule type="expression" dxfId="1002" priority="138">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1037" priority="139">
+    <cfRule type="expression" dxfId="1001" priority="139">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1036" priority="140">
+    <cfRule type="expression" dxfId="1000" priority="140">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="1035" priority="133">
+    <cfRule type="expression" dxfId="999" priority="133">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1034" priority="134">
+    <cfRule type="expression" dxfId="998" priority="134">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1033" priority="135">
+    <cfRule type="expression" dxfId="997" priority="135">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1032" priority="136">
+    <cfRule type="expression" dxfId="996" priority="136">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:N34 A34:B34">
-    <cfRule type="expression" dxfId="1031" priority="129">
+    <cfRule type="expression" dxfId="995" priority="129">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1030" priority="130">
+    <cfRule type="expression" dxfId="994" priority="130">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1029" priority="131">
+    <cfRule type="expression" dxfId="993" priority="131">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1028" priority="132">
+    <cfRule type="expression" dxfId="992" priority="132">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="expression" dxfId="1027" priority="125">
+    <cfRule type="expression" dxfId="991" priority="125">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1026" priority="126">
+    <cfRule type="expression" dxfId="990" priority="126">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1025" priority="127">
+    <cfRule type="expression" dxfId="989" priority="127">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1024" priority="128">
+    <cfRule type="expression" dxfId="988" priority="128">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 G40:N40">
-    <cfRule type="expression" dxfId="1023" priority="121">
+    <cfRule type="expression" dxfId="987" priority="121">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1022" priority="122">
+    <cfRule type="expression" dxfId="986" priority="122">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1021" priority="123">
+    <cfRule type="expression" dxfId="985" priority="123">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1020" priority="124">
+    <cfRule type="expression" dxfId="984" priority="124">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="1019" priority="117">
+    <cfRule type="expression" dxfId="983" priority="117">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1018" priority="118">
+    <cfRule type="expression" dxfId="982" priority="118">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1017" priority="119">
+    <cfRule type="expression" dxfId="981" priority="119">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1016" priority="120">
+    <cfRule type="expression" dxfId="980" priority="120">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:N43 A43:B43">
-    <cfRule type="expression" dxfId="1015" priority="113">
+    <cfRule type="expression" dxfId="979" priority="113">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1014" priority="114">
+    <cfRule type="expression" dxfId="978" priority="114">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1013" priority="115">
+    <cfRule type="expression" dxfId="977" priority="115">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1012" priority="116">
+    <cfRule type="expression" dxfId="976" priority="116">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="expression" dxfId="1011" priority="109">
+    <cfRule type="expression" dxfId="975" priority="109">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1010" priority="110">
+    <cfRule type="expression" dxfId="974" priority="110">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1009" priority="111">
+    <cfRule type="expression" dxfId="973" priority="111">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1008" priority="112">
+    <cfRule type="expression" dxfId="972" priority="112">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55 G55:N55">
-    <cfRule type="expression" dxfId="1007" priority="105">
+    <cfRule type="expression" dxfId="971" priority="105">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1006" priority="106">
+    <cfRule type="expression" dxfId="970" priority="106">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1005" priority="107">
+    <cfRule type="expression" dxfId="969" priority="107">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1004" priority="108">
+    <cfRule type="expression" dxfId="968" priority="108">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="1003" priority="101">
+    <cfRule type="expression" dxfId="967" priority="101">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1002" priority="102">
+    <cfRule type="expression" dxfId="966" priority="102">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1001" priority="103">
+    <cfRule type="expression" dxfId="965" priority="103">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1000" priority="104">
+    <cfRule type="expression" dxfId="964" priority="104">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:N58 A58:B58">
-    <cfRule type="expression" dxfId="999" priority="97">
+    <cfRule type="expression" dxfId="963" priority="97">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="998" priority="98">
+    <cfRule type="expression" dxfId="962" priority="98">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="997" priority="99">
+    <cfRule type="expression" dxfId="961" priority="99">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="996" priority="100">
+    <cfRule type="expression" dxfId="960" priority="100">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="expression" dxfId="995" priority="93">
+    <cfRule type="expression" dxfId="959" priority="93">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="994" priority="94">
+    <cfRule type="expression" dxfId="958" priority="94">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="993" priority="95">
+    <cfRule type="expression" dxfId="957" priority="95">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="992" priority="96">
+    <cfRule type="expression" dxfId="956" priority="96">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61 G61:N61">
-    <cfRule type="expression" dxfId="991" priority="89">
+    <cfRule type="expression" dxfId="955" priority="89">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="990" priority="90">
+    <cfRule type="expression" dxfId="954" priority="90">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="989" priority="91">
+    <cfRule type="expression" dxfId="953" priority="91">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="988" priority="92">
+    <cfRule type="expression" dxfId="952" priority="92">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="expression" dxfId="987" priority="85">
+    <cfRule type="expression" dxfId="951" priority="85">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="986" priority="86">
+    <cfRule type="expression" dxfId="950" priority="86">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="985" priority="87">
+    <cfRule type="expression" dxfId="949" priority="87">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="984" priority="88">
+    <cfRule type="expression" dxfId="948" priority="88">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:N64 A64:B64">
-    <cfRule type="expression" dxfId="983" priority="81">
+    <cfRule type="expression" dxfId="947" priority="81">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="982" priority="82">
+    <cfRule type="expression" dxfId="946" priority="82">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="981" priority="83">
+    <cfRule type="expression" dxfId="945" priority="83">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="980" priority="84">
+    <cfRule type="expression" dxfId="944" priority="84">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="expression" dxfId="979" priority="77">
+    <cfRule type="expression" dxfId="943" priority="77">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="978" priority="78">
+    <cfRule type="expression" dxfId="942" priority="78">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="977" priority="79">
+    <cfRule type="expression" dxfId="941" priority="79">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="976" priority="80">
+    <cfRule type="expression" dxfId="940" priority="80">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 G67:N67">
-    <cfRule type="expression" dxfId="975" priority="73">
+    <cfRule type="expression" dxfId="939" priority="73">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="974" priority="74">
+    <cfRule type="expression" dxfId="938" priority="74">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="973" priority="75">
+    <cfRule type="expression" dxfId="937" priority="75">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="972" priority="76">
+    <cfRule type="expression" dxfId="936" priority="76">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67">
-    <cfRule type="expression" dxfId="971" priority="69">
+    <cfRule type="expression" dxfId="935" priority="69">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="970" priority="70">
+    <cfRule type="expression" dxfId="934" priority="70">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="969" priority="71">
+    <cfRule type="expression" dxfId="933" priority="71">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="968" priority="72">
+    <cfRule type="expression" dxfId="932" priority="72">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="967" priority="65">
+    <cfRule type="expression" dxfId="931" priority="65">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="966" priority="66">
+    <cfRule type="expression" dxfId="930" priority="66">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="965" priority="67">
+    <cfRule type="expression" dxfId="929" priority="67">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="964" priority="68">
+    <cfRule type="expression" dxfId="928" priority="68">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="963" priority="61">
+    <cfRule type="expression" dxfId="927" priority="61">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="962" priority="62">
+    <cfRule type="expression" dxfId="926" priority="62">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="961" priority="63">
+    <cfRule type="expression" dxfId="925" priority="63">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="960" priority="64">
+    <cfRule type="expression" dxfId="924" priority="64">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="959" priority="53">
+    <cfRule type="expression" dxfId="923" priority="53">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="958" priority="54">
+    <cfRule type="expression" dxfId="922" priority="54">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="957" priority="55">
+    <cfRule type="expression" dxfId="921" priority="55">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="956" priority="56">
+    <cfRule type="expression" dxfId="920" priority="56">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:N101">
-    <cfRule type="expression" dxfId="955" priority="49">
+    <cfRule type="expression" dxfId="919" priority="49">
       <formula>$B99="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="954" priority="50">
+    <cfRule type="expression" dxfId="918" priority="50">
       <formula>$B99="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="953" priority="51">
+    <cfRule type="expression" dxfId="917" priority="51">
       <formula>$B99="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="952" priority="52">
+    <cfRule type="expression" dxfId="916" priority="52">
       <formula>$B99="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="951" priority="45">
+    <cfRule type="expression" dxfId="915" priority="45">
       <formula>$B71="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="950" priority="46">
+    <cfRule type="expression" dxfId="914" priority="46">
       <formula>$B71="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="949" priority="47">
+    <cfRule type="expression" dxfId="913" priority="47">
       <formula>$B71="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="948" priority="48">
+    <cfRule type="expression" dxfId="912" priority="48">
       <formula>$B71="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="947" priority="41">
+    <cfRule type="expression" dxfId="911" priority="41">
       <formula>$B11="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="946" priority="42">
+    <cfRule type="expression" dxfId="910" priority="42">
       <formula>$B11="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="945" priority="43">
+    <cfRule type="expression" dxfId="909" priority="43">
       <formula>$B11="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="944" priority="44">
+    <cfRule type="expression" dxfId="908" priority="44">
       <formula>$B11="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="943" priority="37">
+    <cfRule type="expression" dxfId="907" priority="37">
       <formula>$B12="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="942" priority="38">
+    <cfRule type="expression" dxfId="906" priority="38">
       <formula>$B12="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="941" priority="39">
+    <cfRule type="expression" dxfId="905" priority="39">
       <formula>$B12="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="940" priority="40">
+    <cfRule type="expression" dxfId="904" priority="40">
       <formula>$B12="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:D74">
-    <cfRule type="expression" dxfId="939" priority="33">
+    <cfRule type="expression" dxfId="903" priority="33">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="938" priority="34">
+    <cfRule type="expression" dxfId="902" priority="34">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="937" priority="35">
+    <cfRule type="expression" dxfId="901" priority="35">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="936" priority="36">
+    <cfRule type="expression" dxfId="900" priority="36">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:D75">
-    <cfRule type="expression" dxfId="935" priority="29">
+    <cfRule type="expression" dxfId="899" priority="29">
       <formula>$B75="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="934" priority="30">
+    <cfRule type="expression" dxfId="898" priority="30">
       <formula>$B75="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="933" priority="31">
+    <cfRule type="expression" dxfId="897" priority="31">
       <formula>$B75="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="932" priority="32">
+    <cfRule type="expression" dxfId="896" priority="32">
       <formula>$B75="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="expression" dxfId="931" priority="25">
+    <cfRule type="expression" dxfId="895" priority="25">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="930" priority="26">
+    <cfRule type="expression" dxfId="894" priority="26">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="929" priority="27">
+    <cfRule type="expression" dxfId="893" priority="27">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="928" priority="28">
+    <cfRule type="expression" dxfId="892" priority="28">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" dxfId="927" priority="21">
+    <cfRule type="expression" dxfId="891" priority="21">
       <formula>$B23="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="926" priority="22">
+    <cfRule type="expression" dxfId="890" priority="22">
       <formula>$B23="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="925" priority="23">
+    <cfRule type="expression" dxfId="889" priority="23">
       <formula>$B23="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="924" priority="24">
+    <cfRule type="expression" dxfId="888" priority="24">
       <formula>$B23="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" dxfId="923" priority="17">
+    <cfRule type="expression" dxfId="887" priority="17">
       <formula>$B24="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="922" priority="18">
+    <cfRule type="expression" dxfId="886" priority="18">
       <formula>$B24="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="921" priority="19">
+    <cfRule type="expression" dxfId="885" priority="19">
       <formula>$B24="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="920" priority="20">
+    <cfRule type="expression" dxfId="884" priority="20">
       <formula>$B24="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="919" priority="13">
+    <cfRule type="expression" dxfId="883" priority="13">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="918" priority="14">
+    <cfRule type="expression" dxfId="882" priority="14">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="917" priority="15">
+    <cfRule type="expression" dxfId="881" priority="15">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="916" priority="16">
+    <cfRule type="expression" dxfId="880" priority="16">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="915" priority="9">
+    <cfRule type="expression" dxfId="879" priority="9">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="914" priority="10">
+    <cfRule type="expression" dxfId="878" priority="10">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="913" priority="11">
+    <cfRule type="expression" dxfId="877" priority="11">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="912" priority="12">
+    <cfRule type="expression" dxfId="876" priority="12">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="911" priority="5">
+    <cfRule type="expression" dxfId="875" priority="5">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="910" priority="6">
+    <cfRule type="expression" dxfId="874" priority="6">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="909" priority="7">
+    <cfRule type="expression" dxfId="873" priority="7">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="908" priority="8">
+    <cfRule type="expression" dxfId="872" priority="8">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="907" priority="1">
+    <cfRule type="expression" dxfId="871" priority="1">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="906" priority="2">
+    <cfRule type="expression" dxfId="870" priority="2">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="905" priority="3">
+    <cfRule type="expression" dxfId="869" priority="3">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="904" priority="4">
+    <cfRule type="expression" dxfId="868" priority="4">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29745,24 +29745,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -32488,1234 +32488,1234 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A50:B51 A53:B54 A77:B78 A74:B75 K74:N74 A17:B18 A14:B15 A20:B21 A38:B39 A47:B48 G47:N48 G38:N39 G20:N21 G14:N15 G17:N18 G77:N78 G75:N75 G53:N54 G50:L51 A8:N9 A5:N6 A71:N72 G83:N84 A83:B84 G80:N81 A80:B81 A93:N98 A23:B24 G23:N24 G26:J27 A26:B27 A29:B30 G29:N30 G32:N33 A32:B33 A35:B36 G35:N36 G41:N42 A41:B42 A44:B45 G44:N45 G56:N57 A56:B57 A59:B60 G59:N60 G62:N63 A62:B63 A65:B66 G65:N66 G68:N69 A68:B69 L26:N27 A11:C12 E11:N12">
-    <cfRule type="expression" dxfId="903" priority="353">
+    <cfRule type="expression" dxfId="867" priority="353">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="902" priority="354">
+    <cfRule type="expression" dxfId="866" priority="354">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="901" priority="355">
+    <cfRule type="expression" dxfId="865" priority="355">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="900" priority="356">
+    <cfRule type="expression" dxfId="864" priority="356">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4:N4">
-    <cfRule type="expression" dxfId="899" priority="349">
+    <cfRule type="expression" dxfId="863" priority="349">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="898" priority="350">
+    <cfRule type="expression" dxfId="862" priority="350">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="897" priority="351">
+    <cfRule type="expression" dxfId="861" priority="351">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="896" priority="352">
+    <cfRule type="expression" dxfId="860" priority="352">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:J74 G73">
-    <cfRule type="expression" dxfId="895" priority="345">
+    <cfRule type="expression" dxfId="859" priority="345">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="894" priority="346">
+    <cfRule type="expression" dxfId="858" priority="346">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="893" priority="347">
+    <cfRule type="expression" dxfId="857" priority="347">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="892" priority="348">
+    <cfRule type="expression" dxfId="856" priority="348">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10:N10">
-    <cfRule type="expression" dxfId="891" priority="341">
+    <cfRule type="expression" dxfId="855" priority="341">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="890" priority="342">
+    <cfRule type="expression" dxfId="854" priority="342">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="889" priority="343">
+    <cfRule type="expression" dxfId="853" priority="343">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="888" priority="344">
+    <cfRule type="expression" dxfId="852" priority="344">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 G7:N7">
-    <cfRule type="expression" dxfId="887" priority="337">
+    <cfRule type="expression" dxfId="851" priority="337">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="886" priority="338">
+    <cfRule type="expression" dxfId="850" priority="338">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="885" priority="339">
+    <cfRule type="expression" dxfId="849" priority="339">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="884" priority="340">
+    <cfRule type="expression" dxfId="848" priority="340">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49 G49:L49">
-    <cfRule type="expression" dxfId="883" priority="333">
+    <cfRule type="expression" dxfId="847" priority="333">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="882" priority="334">
+    <cfRule type="expression" dxfId="846" priority="334">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="881" priority="335">
+    <cfRule type="expression" dxfId="845" priority="335">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="880" priority="336">
+    <cfRule type="expression" dxfId="844" priority="336">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52 G52:N52">
-    <cfRule type="expression" dxfId="879" priority="329">
+    <cfRule type="expression" dxfId="843" priority="329">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="878" priority="330">
+    <cfRule type="expression" dxfId="842" priority="330">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="877" priority="331">
+    <cfRule type="expression" dxfId="841" priority="331">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="876" priority="332">
+    <cfRule type="expression" dxfId="840" priority="332">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70 G70:N70">
-    <cfRule type="expression" dxfId="875" priority="325">
+    <cfRule type="expression" dxfId="839" priority="325">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="874" priority="326">
+    <cfRule type="expression" dxfId="838" priority="326">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="873" priority="327">
+    <cfRule type="expression" dxfId="837" priority="327">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="872" priority="328">
+    <cfRule type="expression" dxfId="836" priority="328">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 H73:N73">
-    <cfRule type="expression" dxfId="871" priority="321">
+    <cfRule type="expression" dxfId="835" priority="321">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="870" priority="322">
+    <cfRule type="expression" dxfId="834" priority="322">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="869" priority="323">
+    <cfRule type="expression" dxfId="833" priority="323">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="868" priority="324">
+    <cfRule type="expression" dxfId="832" priority="324">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 G76:L76">
-    <cfRule type="expression" dxfId="867" priority="317">
+    <cfRule type="expression" dxfId="831" priority="317">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="866" priority="318">
+    <cfRule type="expression" dxfId="830" priority="318">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="865" priority="319">
+    <cfRule type="expression" dxfId="829" priority="319">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="864" priority="320">
+    <cfRule type="expression" dxfId="828" priority="320">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="expression" dxfId="863" priority="313">
+    <cfRule type="expression" dxfId="827" priority="313">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="862" priority="314">
+    <cfRule type="expression" dxfId="826" priority="314">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="861" priority="315">
+    <cfRule type="expression" dxfId="825" priority="315">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="860" priority="316">
+    <cfRule type="expression" dxfId="824" priority="316">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 G16:N16">
-    <cfRule type="expression" dxfId="859" priority="309">
+    <cfRule type="expression" dxfId="823" priority="309">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="858" priority="310">
+    <cfRule type="expression" dxfId="822" priority="310">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="857" priority="311">
+    <cfRule type="expression" dxfId="821" priority="311">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="856" priority="312">
+    <cfRule type="expression" dxfId="820" priority="312">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 G13:N13">
-    <cfRule type="expression" dxfId="855" priority="305">
+    <cfRule type="expression" dxfId="819" priority="305">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="854" priority="306">
+    <cfRule type="expression" dxfId="818" priority="306">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="853" priority="307">
+    <cfRule type="expression" dxfId="817" priority="307">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="852" priority="308">
+    <cfRule type="expression" dxfId="816" priority="308">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 G19:N19">
-    <cfRule type="expression" dxfId="851" priority="301">
+    <cfRule type="expression" dxfId="815" priority="301">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="850" priority="302">
+    <cfRule type="expression" dxfId="814" priority="302">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="849" priority="303">
+    <cfRule type="expression" dxfId="813" priority="303">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="848" priority="304">
+    <cfRule type="expression" dxfId="812" priority="304">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37 G37:N37">
-    <cfRule type="expression" dxfId="847" priority="297">
+    <cfRule type="expression" dxfId="811" priority="297">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="846" priority="298">
+    <cfRule type="expression" dxfId="810" priority="298">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="845" priority="299">
+    <cfRule type="expression" dxfId="809" priority="299">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="844" priority="300">
+    <cfRule type="expression" dxfId="808" priority="300">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46 G46:N46">
-    <cfRule type="expression" dxfId="843" priority="293">
+    <cfRule type="expression" dxfId="807" priority="293">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="842" priority="294">
+    <cfRule type="expression" dxfId="806" priority="294">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="841" priority="295">
+    <cfRule type="expression" dxfId="805" priority="295">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="840" priority="296">
+    <cfRule type="expression" dxfId="804" priority="296">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F57 C80:F81 C14:F15 C41:F42 C83:F84 C29:F30 C32:F33 C35:F36 C44:F45 C59:F60 C62:F63 C65:F66 C68:F69 E23:F24 E26:F27">
-    <cfRule type="expression" dxfId="839" priority="289">
+    <cfRule type="expression" dxfId="803" priority="289">
       <formula>$B14="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="838" priority="290">
+    <cfRule type="expression" dxfId="802" priority="290">
       <formula>$B14="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="837" priority="291">
+    <cfRule type="expression" dxfId="801" priority="291">
       <formula>$B14="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="836" priority="292">
+    <cfRule type="expression" dxfId="800" priority="292">
       <formula>$B14="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="expression" dxfId="835" priority="285">
+    <cfRule type="expression" dxfId="799" priority="285">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="834" priority="286">
+    <cfRule type="expression" dxfId="798" priority="286">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="833" priority="287">
+    <cfRule type="expression" dxfId="797" priority="287">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="832" priority="288">
+    <cfRule type="expression" dxfId="796" priority="288">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="expression" dxfId="831" priority="281">
+    <cfRule type="expression" dxfId="795" priority="281">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="830" priority="282">
+    <cfRule type="expression" dxfId="794" priority="282">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="829" priority="283">
+    <cfRule type="expression" dxfId="793" priority="283">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="828" priority="284">
+    <cfRule type="expression" dxfId="792" priority="284">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="827" priority="277">
+    <cfRule type="expression" dxfId="791" priority="277">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="826" priority="278">
+    <cfRule type="expression" dxfId="790" priority="278">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="825" priority="279">
+    <cfRule type="expression" dxfId="789" priority="279">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="824" priority="280">
+    <cfRule type="expression" dxfId="788" priority="280">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="expression" dxfId="823" priority="273">
+    <cfRule type="expression" dxfId="787" priority="273">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="822" priority="274">
+    <cfRule type="expression" dxfId="786" priority="274">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="821" priority="275">
+    <cfRule type="expression" dxfId="785" priority="275">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="820" priority="276">
+    <cfRule type="expression" dxfId="784" priority="276">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="expression" dxfId="819" priority="269">
+    <cfRule type="expression" dxfId="783" priority="269">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="818" priority="270">
+    <cfRule type="expression" dxfId="782" priority="270">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="817" priority="271">
+    <cfRule type="expression" dxfId="781" priority="271">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="816" priority="272">
+    <cfRule type="expression" dxfId="780" priority="272">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
-    <cfRule type="expression" dxfId="815" priority="265">
+    <cfRule type="expression" dxfId="779" priority="265">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="814" priority="266">
+    <cfRule type="expression" dxfId="778" priority="266">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="813" priority="267">
+    <cfRule type="expression" dxfId="777" priority="267">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="812" priority="268">
+    <cfRule type="expression" dxfId="776" priority="268">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:F73">
-    <cfRule type="expression" dxfId="811" priority="261">
+    <cfRule type="expression" dxfId="775" priority="261">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="810" priority="262">
+    <cfRule type="expression" dxfId="774" priority="262">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="809" priority="263">
+    <cfRule type="expression" dxfId="773" priority="263">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="808" priority="264">
+    <cfRule type="expression" dxfId="772" priority="264">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:F76">
-    <cfRule type="expression" dxfId="807" priority="257">
+    <cfRule type="expression" dxfId="771" priority="257">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="806" priority="258">
+    <cfRule type="expression" dxfId="770" priority="258">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="805" priority="259">
+    <cfRule type="expression" dxfId="769" priority="259">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="804" priority="260">
+    <cfRule type="expression" dxfId="768" priority="260">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="expression" dxfId="803" priority="253">
+    <cfRule type="expression" dxfId="767" priority="253">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="802" priority="254">
+    <cfRule type="expression" dxfId="766" priority="254">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="255">
+    <cfRule type="expression" dxfId="765" priority="255">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="800" priority="256">
+    <cfRule type="expression" dxfId="764" priority="256">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:F13">
-    <cfRule type="expression" dxfId="799" priority="249">
+    <cfRule type="expression" dxfId="763" priority="249">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="250">
+    <cfRule type="expression" dxfId="762" priority="250">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="251">
+    <cfRule type="expression" dxfId="761" priority="251">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="252">
+    <cfRule type="expression" dxfId="760" priority="252">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="expression" dxfId="795" priority="245">
+    <cfRule type="expression" dxfId="759" priority="245">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="794" priority="246">
+    <cfRule type="expression" dxfId="758" priority="246">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="247">
+    <cfRule type="expression" dxfId="757" priority="247">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="248">
+    <cfRule type="expression" dxfId="756" priority="248">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:F37">
-    <cfRule type="expression" dxfId="791" priority="241">
+    <cfRule type="expression" dxfId="755" priority="241">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="242">
+    <cfRule type="expression" dxfId="754" priority="242">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="243">
+    <cfRule type="expression" dxfId="753" priority="243">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="244">
+    <cfRule type="expression" dxfId="752" priority="244">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="787" priority="237">
+    <cfRule type="expression" dxfId="751" priority="237">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="238">
+    <cfRule type="expression" dxfId="750" priority="238">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="239">
+    <cfRule type="expression" dxfId="749" priority="239">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="240">
+    <cfRule type="expression" dxfId="748" priority="240">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F18">
-    <cfRule type="expression" dxfId="783" priority="233">
+    <cfRule type="expression" dxfId="747" priority="233">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="234">
+    <cfRule type="expression" dxfId="746" priority="234">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="235">
+    <cfRule type="expression" dxfId="745" priority="235">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="236">
+    <cfRule type="expression" dxfId="744" priority="236">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F21">
-    <cfRule type="expression" dxfId="779" priority="229">
+    <cfRule type="expression" dxfId="743" priority="229">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="230">
+    <cfRule type="expression" dxfId="742" priority="230">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="231">
+    <cfRule type="expression" dxfId="741" priority="231">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="232">
+    <cfRule type="expression" dxfId="740" priority="232">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F39">
-    <cfRule type="expression" dxfId="775" priority="225">
+    <cfRule type="expression" dxfId="739" priority="225">
       <formula>$B38="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="226">
+    <cfRule type="expression" dxfId="738" priority="226">
       <formula>$B38="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="227">
+    <cfRule type="expression" dxfId="737" priority="227">
       <formula>$B38="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="228">
+    <cfRule type="expression" dxfId="736" priority="228">
       <formula>$B38="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F48">
-    <cfRule type="expression" dxfId="771" priority="221">
+    <cfRule type="expression" dxfId="735" priority="221">
       <formula>$B47="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="222">
+    <cfRule type="expression" dxfId="734" priority="222">
       <formula>$B47="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="223">
+    <cfRule type="expression" dxfId="733" priority="223">
       <formula>$B47="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="224">
+    <cfRule type="expression" dxfId="732" priority="224">
       <formula>$B47="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:F51">
-    <cfRule type="expression" dxfId="767" priority="217">
+    <cfRule type="expression" dxfId="731" priority="217">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="218">
+    <cfRule type="expression" dxfId="730" priority="218">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="219">
+    <cfRule type="expression" dxfId="729" priority="219">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="220">
+    <cfRule type="expression" dxfId="728" priority="220">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F54">
-    <cfRule type="expression" dxfId="763" priority="213">
+    <cfRule type="expression" dxfId="727" priority="213">
       <formula>$B53="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="214">
+    <cfRule type="expression" dxfId="726" priority="214">
       <formula>$B53="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="215">
+    <cfRule type="expression" dxfId="725" priority="215">
       <formula>$B53="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="216">
+    <cfRule type="expression" dxfId="724" priority="216">
       <formula>$B53="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F75">
-    <cfRule type="expression" dxfId="759" priority="209">
+    <cfRule type="expression" dxfId="723" priority="209">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="210">
+    <cfRule type="expression" dxfId="722" priority="210">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="211">
+    <cfRule type="expression" dxfId="721" priority="211">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="212">
+    <cfRule type="expression" dxfId="720" priority="212">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:F78">
-    <cfRule type="expression" dxfId="755" priority="205">
+    <cfRule type="expression" dxfId="719" priority="205">
       <formula>$B77="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="206">
+    <cfRule type="expression" dxfId="718" priority="206">
       <formula>$B77="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="207">
+    <cfRule type="expression" dxfId="717" priority="207">
       <formula>$B77="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="208">
+    <cfRule type="expression" dxfId="716" priority="208">
       <formula>$B77="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82 G82:N82">
-    <cfRule type="expression" dxfId="751" priority="201">
+    <cfRule type="expression" dxfId="715" priority="201">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="202">
+    <cfRule type="expression" dxfId="714" priority="202">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="203">
+    <cfRule type="expression" dxfId="713" priority="203">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="204">
+    <cfRule type="expression" dxfId="712" priority="204">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F82">
-    <cfRule type="expression" dxfId="747" priority="197">
+    <cfRule type="expression" dxfId="711" priority="197">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="198">
+    <cfRule type="expression" dxfId="710" priority="198">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="199">
+    <cfRule type="expression" dxfId="709" priority="199">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="200">
+    <cfRule type="expression" dxfId="708" priority="200">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:B79 G79:N79">
-    <cfRule type="expression" dxfId="743" priority="193">
+    <cfRule type="expression" dxfId="707" priority="193">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="194">
+    <cfRule type="expression" dxfId="706" priority="194">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="195">
+    <cfRule type="expression" dxfId="705" priority="195">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="196">
+    <cfRule type="expression" dxfId="704" priority="196">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:F79">
-    <cfRule type="expression" dxfId="739" priority="189">
+    <cfRule type="expression" dxfId="703" priority="189">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="190">
+    <cfRule type="expression" dxfId="702" priority="190">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="191">
+    <cfRule type="expression" dxfId="701" priority="191">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="192">
+    <cfRule type="expression" dxfId="700" priority="192">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22 G22:N22">
-    <cfRule type="expression" dxfId="735" priority="185">
+    <cfRule type="expression" dxfId="699" priority="185">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="186">
+    <cfRule type="expression" dxfId="698" priority="186">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="187">
+    <cfRule type="expression" dxfId="697" priority="187">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="188">
+    <cfRule type="expression" dxfId="696" priority="188">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:F22">
-    <cfRule type="expression" dxfId="731" priority="181">
+    <cfRule type="expression" dxfId="695" priority="181">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="182">
+    <cfRule type="expression" dxfId="694" priority="182">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="183">
+    <cfRule type="expression" dxfId="693" priority="183">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="184">
+    <cfRule type="expression" dxfId="692" priority="184">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 G25:J25 L25:N25">
-    <cfRule type="expression" dxfId="727" priority="177">
+    <cfRule type="expression" dxfId="691" priority="177">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="178">
+    <cfRule type="expression" dxfId="690" priority="178">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="179">
+    <cfRule type="expression" dxfId="689" priority="179">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="180">
+    <cfRule type="expression" dxfId="688" priority="180">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="expression" dxfId="723" priority="173">
+    <cfRule type="expression" dxfId="687" priority="173">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="174">
+    <cfRule type="expression" dxfId="686" priority="174">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="175">
+    <cfRule type="expression" dxfId="685" priority="175">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="176">
+    <cfRule type="expression" dxfId="684" priority="176">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:N28 A28:B28">
-    <cfRule type="expression" dxfId="719" priority="169">
+    <cfRule type="expression" dxfId="683" priority="169">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="170">
+    <cfRule type="expression" dxfId="682" priority="170">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="717" priority="171">
+    <cfRule type="expression" dxfId="681" priority="171">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="716" priority="172">
+    <cfRule type="expression" dxfId="680" priority="172">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="715" priority="165">
+    <cfRule type="expression" dxfId="679" priority="165">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="714" priority="166">
+    <cfRule type="expression" dxfId="678" priority="166">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="167">
+    <cfRule type="expression" dxfId="677" priority="167">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="168">
+    <cfRule type="expression" dxfId="676" priority="168">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 G31:N31">
-    <cfRule type="expression" dxfId="711" priority="161">
+    <cfRule type="expression" dxfId="675" priority="161">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="162">
+    <cfRule type="expression" dxfId="674" priority="162">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="163">
+    <cfRule type="expression" dxfId="673" priority="163">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="164">
+    <cfRule type="expression" dxfId="672" priority="164">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="707" priority="157">
+    <cfRule type="expression" dxfId="671" priority="157">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="158">
+    <cfRule type="expression" dxfId="670" priority="158">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="159">
+    <cfRule type="expression" dxfId="669" priority="159">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="160">
+    <cfRule type="expression" dxfId="668" priority="160">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:N34 A34:B34">
-    <cfRule type="expression" dxfId="703" priority="153">
+    <cfRule type="expression" dxfId="667" priority="153">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="154">
+    <cfRule type="expression" dxfId="666" priority="154">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="155">
+    <cfRule type="expression" dxfId="665" priority="155">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="156">
+    <cfRule type="expression" dxfId="664" priority="156">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="expression" dxfId="699" priority="149">
+    <cfRule type="expression" dxfId="663" priority="149">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="150">
+    <cfRule type="expression" dxfId="662" priority="150">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="151">
+    <cfRule type="expression" dxfId="661" priority="151">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="152">
+    <cfRule type="expression" dxfId="660" priority="152">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 G40:N40">
-    <cfRule type="expression" dxfId="695" priority="145">
+    <cfRule type="expression" dxfId="659" priority="145">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="146">
+    <cfRule type="expression" dxfId="658" priority="146">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="147">
+    <cfRule type="expression" dxfId="657" priority="147">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="148">
+    <cfRule type="expression" dxfId="656" priority="148">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="691" priority="141">
+    <cfRule type="expression" dxfId="655" priority="141">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="142">
+    <cfRule type="expression" dxfId="654" priority="142">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="143">
+    <cfRule type="expression" dxfId="653" priority="143">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="144">
+    <cfRule type="expression" dxfId="652" priority="144">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:N43 A43:B43">
-    <cfRule type="expression" dxfId="687" priority="137">
+    <cfRule type="expression" dxfId="651" priority="137">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="138">
+    <cfRule type="expression" dxfId="650" priority="138">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="139">
+    <cfRule type="expression" dxfId="649" priority="139">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="140">
+    <cfRule type="expression" dxfId="648" priority="140">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="expression" dxfId="683" priority="133">
+    <cfRule type="expression" dxfId="647" priority="133">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="134">
+    <cfRule type="expression" dxfId="646" priority="134">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="135">
+    <cfRule type="expression" dxfId="645" priority="135">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="136">
+    <cfRule type="expression" dxfId="644" priority="136">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55 G55:N55">
-    <cfRule type="expression" dxfId="679" priority="129">
+    <cfRule type="expression" dxfId="643" priority="129">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="130">
+    <cfRule type="expression" dxfId="642" priority="130">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="131">
+    <cfRule type="expression" dxfId="641" priority="131">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="132">
+    <cfRule type="expression" dxfId="640" priority="132">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="675" priority="125">
+    <cfRule type="expression" dxfId="639" priority="125">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="126">
+    <cfRule type="expression" dxfId="638" priority="126">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="127">
+    <cfRule type="expression" dxfId="637" priority="127">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="128">
+    <cfRule type="expression" dxfId="636" priority="128">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:N58 A58:B58">
-    <cfRule type="expression" dxfId="671" priority="121">
+    <cfRule type="expression" dxfId="635" priority="121">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="122">
+    <cfRule type="expression" dxfId="634" priority="122">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="123">
+    <cfRule type="expression" dxfId="633" priority="123">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="124">
+    <cfRule type="expression" dxfId="632" priority="124">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="expression" dxfId="667" priority="117">
+    <cfRule type="expression" dxfId="631" priority="117">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="118">
+    <cfRule type="expression" dxfId="630" priority="118">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="119">
+    <cfRule type="expression" dxfId="629" priority="119">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="120">
+    <cfRule type="expression" dxfId="628" priority="120">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61 G61:N61">
-    <cfRule type="expression" dxfId="663" priority="113">
+    <cfRule type="expression" dxfId="627" priority="113">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="114">
+    <cfRule type="expression" dxfId="626" priority="114">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="115">
+    <cfRule type="expression" dxfId="625" priority="115">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="116">
+    <cfRule type="expression" dxfId="624" priority="116">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="expression" dxfId="659" priority="109">
+    <cfRule type="expression" dxfId="623" priority="109">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="110">
+    <cfRule type="expression" dxfId="622" priority="110">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="111">
+    <cfRule type="expression" dxfId="621" priority="111">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="112">
+    <cfRule type="expression" dxfId="620" priority="112">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:N64 A64:B64">
-    <cfRule type="expression" dxfId="655" priority="105">
+    <cfRule type="expression" dxfId="619" priority="105">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="106">
+    <cfRule type="expression" dxfId="618" priority="106">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="107">
+    <cfRule type="expression" dxfId="617" priority="107">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="108">
+    <cfRule type="expression" dxfId="616" priority="108">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="expression" dxfId="651" priority="101">
+    <cfRule type="expression" dxfId="615" priority="101">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="102">
+    <cfRule type="expression" dxfId="614" priority="102">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="103">
+    <cfRule type="expression" dxfId="613" priority="103">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="104">
+    <cfRule type="expression" dxfId="612" priority="104">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 G67:N67">
-    <cfRule type="expression" dxfId="647" priority="97">
+    <cfRule type="expression" dxfId="611" priority="97">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="98">
+    <cfRule type="expression" dxfId="610" priority="98">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="645" priority="99">
+    <cfRule type="expression" dxfId="609" priority="99">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="100">
+    <cfRule type="expression" dxfId="608" priority="100">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67">
-    <cfRule type="expression" dxfId="643" priority="93">
+    <cfRule type="expression" dxfId="607" priority="93">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="94">
+    <cfRule type="expression" dxfId="606" priority="94">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="95">
+    <cfRule type="expression" dxfId="605" priority="95">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="96">
+    <cfRule type="expression" dxfId="604" priority="96">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="639" priority="89">
+    <cfRule type="expression" dxfId="603" priority="89">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="90">
+    <cfRule type="expression" dxfId="602" priority="90">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="91">
+    <cfRule type="expression" dxfId="601" priority="91">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="92">
+    <cfRule type="expression" dxfId="600" priority="92">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="635" priority="85">
+    <cfRule type="expression" dxfId="599" priority="85">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="86">
+    <cfRule type="expression" dxfId="598" priority="86">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="87">
+    <cfRule type="expression" dxfId="597" priority="87">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="88">
+    <cfRule type="expression" dxfId="596" priority="88">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="631" priority="77">
+    <cfRule type="expression" dxfId="595" priority="77">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="78">
+    <cfRule type="expression" dxfId="594" priority="78">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="79">
+    <cfRule type="expression" dxfId="593" priority="79">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="80">
+    <cfRule type="expression" dxfId="592" priority="80">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:N101">
-    <cfRule type="expression" dxfId="627" priority="73">
+    <cfRule type="expression" dxfId="591" priority="73">
       <formula>$B99="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="74">
+    <cfRule type="expression" dxfId="590" priority="74">
       <formula>$B99="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="75">
+    <cfRule type="expression" dxfId="589" priority="75">
       <formula>$B99="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="76">
+    <cfRule type="expression" dxfId="588" priority="76">
       <formula>$B99="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="623" priority="69">
+    <cfRule type="expression" dxfId="587" priority="69">
       <formula>$B11="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="70">
+    <cfRule type="expression" dxfId="586" priority="70">
       <formula>$B11="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="71">
+    <cfRule type="expression" dxfId="585" priority="71">
       <formula>$B11="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="72">
+    <cfRule type="expression" dxfId="584" priority="72">
       <formula>$B11="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="619" priority="65">
+    <cfRule type="expression" dxfId="583" priority="65">
       <formula>$B12="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="66">
+    <cfRule type="expression" dxfId="582" priority="66">
       <formula>$B12="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="67">
+    <cfRule type="expression" dxfId="581" priority="67">
       <formula>$B12="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="68">
+    <cfRule type="expression" dxfId="580" priority="68">
       <formula>$B12="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="615" priority="61">
+    <cfRule type="expression" dxfId="579" priority="61">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="62">
+    <cfRule type="expression" dxfId="578" priority="62">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="63">
+    <cfRule type="expression" dxfId="577" priority="63">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="64">
+    <cfRule type="expression" dxfId="576" priority="64">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D21">
-    <cfRule type="expression" dxfId="611" priority="57">
+    <cfRule type="expression" dxfId="575" priority="57">
       <formula>$B21="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="58">
+    <cfRule type="expression" dxfId="574" priority="58">
       <formula>$B21="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="59">
+    <cfRule type="expression" dxfId="573" priority="59">
       <formula>$B21="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="60">
+    <cfRule type="expression" dxfId="572" priority="60">
       <formula>$B21="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50:N51">
-    <cfRule type="expression" dxfId="607" priority="53">
+    <cfRule type="expression" dxfId="571" priority="53">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="54">
+    <cfRule type="expression" dxfId="570" priority="54">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="55">
+    <cfRule type="expression" dxfId="569" priority="55">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="56">
+    <cfRule type="expression" dxfId="568" priority="56">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:N49">
-    <cfRule type="expression" dxfId="603" priority="49">
+    <cfRule type="expression" dxfId="567" priority="49">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="50">
+    <cfRule type="expression" dxfId="566" priority="50">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="51">
+    <cfRule type="expression" dxfId="565" priority="51">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="52">
+    <cfRule type="expression" dxfId="564" priority="52">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:D50">
-    <cfRule type="expression" dxfId="599" priority="45">
+    <cfRule type="expression" dxfId="563" priority="45">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="46">
+    <cfRule type="expression" dxfId="562" priority="46">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="47">
+    <cfRule type="expression" dxfId="561" priority="47">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="48">
+    <cfRule type="expression" dxfId="560" priority="48">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:D51">
-    <cfRule type="expression" dxfId="595" priority="41">
+    <cfRule type="expression" dxfId="559" priority="41">
       <formula>$B51="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="42">
+    <cfRule type="expression" dxfId="558" priority="42">
       <formula>$B51="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="43">
+    <cfRule type="expression" dxfId="557" priority="43">
       <formula>$B51="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="44">
+    <cfRule type="expression" dxfId="556" priority="44">
       <formula>$B51="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:D74">
-    <cfRule type="expression" dxfId="591" priority="37">
+    <cfRule type="expression" dxfId="555" priority="37">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="38">
+    <cfRule type="expression" dxfId="554" priority="38">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="39">
+    <cfRule type="expression" dxfId="553" priority="39">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="40">
+    <cfRule type="expression" dxfId="552" priority="40">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:D75">
-    <cfRule type="expression" dxfId="587" priority="33">
+    <cfRule type="expression" dxfId="551" priority="33">
       <formula>$B75="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="34">
+    <cfRule type="expression" dxfId="550" priority="34">
       <formula>$B75="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="35">
+    <cfRule type="expression" dxfId="549" priority="35">
       <formula>$B75="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="36">
+    <cfRule type="expression" dxfId="548" priority="36">
       <formula>$B75="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
-    <cfRule type="expression" dxfId="583" priority="29">
+    <cfRule type="expression" dxfId="547" priority="29">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="30">
+    <cfRule type="expression" dxfId="546" priority="30">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="31">
+    <cfRule type="expression" dxfId="545" priority="31">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="32">
+    <cfRule type="expression" dxfId="544" priority="32">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:D18">
-    <cfRule type="expression" dxfId="579" priority="25">
+    <cfRule type="expression" dxfId="543" priority="25">
       <formula>$B18="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="26">
+    <cfRule type="expression" dxfId="542" priority="26">
       <formula>$B18="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="27">
+    <cfRule type="expression" dxfId="541" priority="27">
       <formula>$B18="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="28">
+    <cfRule type="expression" dxfId="540" priority="28">
       <formula>$B18="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" dxfId="575" priority="21">
+    <cfRule type="expression" dxfId="539" priority="21">
       <formula>$B23="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="22">
+    <cfRule type="expression" dxfId="538" priority="22">
       <formula>$B23="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="23">
+    <cfRule type="expression" dxfId="537" priority="23">
       <formula>$B23="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="24">
+    <cfRule type="expression" dxfId="536" priority="24">
       <formula>$B23="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" dxfId="571" priority="17">
+    <cfRule type="expression" dxfId="535" priority="17">
       <formula>$B24="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="18">
+    <cfRule type="expression" dxfId="534" priority="18">
       <formula>$B24="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="569" priority="19">
+    <cfRule type="expression" dxfId="533" priority="19">
       <formula>$B24="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="20">
+    <cfRule type="expression" dxfId="532" priority="20">
       <formula>$B24="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="567" priority="13">
+    <cfRule type="expression" dxfId="531" priority="13">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="14">
+    <cfRule type="expression" dxfId="530" priority="14">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="15">
+    <cfRule type="expression" dxfId="529" priority="15">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="16">
+    <cfRule type="expression" dxfId="528" priority="16">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="563" priority="9">
+    <cfRule type="expression" dxfId="527" priority="9">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="10">
+    <cfRule type="expression" dxfId="526" priority="10">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="11">
+    <cfRule type="expression" dxfId="525" priority="11">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="12">
+    <cfRule type="expression" dxfId="524" priority="12">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="559" priority="5">
+    <cfRule type="expression" dxfId="523" priority="5">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="6">
+    <cfRule type="expression" dxfId="522" priority="6">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="7">
+    <cfRule type="expression" dxfId="521" priority="7">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="8">
+    <cfRule type="expression" dxfId="520" priority="8">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="555" priority="1">
+    <cfRule type="expression" dxfId="519" priority="1">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="2">
+    <cfRule type="expression" dxfId="518" priority="2">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="3">
+    <cfRule type="expression" dxfId="517" priority="3">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="4">
+    <cfRule type="expression" dxfId="516" priority="4">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33754,24 +33754,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -36485,1150 +36485,1150 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A50:B51 A53:B54 A77:B78 A74:B75 K74:N74 A17:B18 A14:B15 A20:B21 A38:B39 A47:B48 G47:N48 G38:N39 G20:N21 G14:N15 G17:N18 G77:N78 G75:N75 G53:N54 G50:N51 A8:N9 A5:N6 G83:N84 A83:B84 G80:N81 A80:B81 A93:N98 A23:B24 G23:N24 G26:J27 A26:B27 A29:B30 G29:N30 G32:N33 A32:B33 A35:B36 G35:N36 G41:N42 A41:B42 A44:B45 G44:N45 G56:N57 A56:B57 A59:B60 G59:N60 G62:N63 A62:B63 A65:B66 G65:N66 G68:N69 A68:B69 L26:N27 A71:N72 A11:C12 E11:N12">
-    <cfRule type="expression" dxfId="551" priority="329">
+    <cfRule type="expression" dxfId="515" priority="329">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="330">
+    <cfRule type="expression" dxfId="514" priority="330">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="331">
+    <cfRule type="expression" dxfId="513" priority="331">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="332">
+    <cfRule type="expression" dxfId="512" priority="332">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4 G4:N4">
-    <cfRule type="expression" dxfId="547" priority="325">
+    <cfRule type="expression" dxfId="511" priority="325">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="326">
+    <cfRule type="expression" dxfId="510" priority="326">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="327">
+    <cfRule type="expression" dxfId="509" priority="327">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="328">
+    <cfRule type="expression" dxfId="508" priority="328">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74:J74 G73">
-    <cfRule type="expression" dxfId="543" priority="321">
+    <cfRule type="expression" dxfId="507" priority="321">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="322">
+    <cfRule type="expression" dxfId="506" priority="322">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="323">
+    <cfRule type="expression" dxfId="505" priority="323">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="324">
+    <cfRule type="expression" dxfId="504" priority="324">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10 G10:N10">
-    <cfRule type="expression" dxfId="539" priority="317">
+    <cfRule type="expression" dxfId="503" priority="317">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="318">
+    <cfRule type="expression" dxfId="502" priority="318">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="319">
+    <cfRule type="expression" dxfId="501" priority="319">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="320">
+    <cfRule type="expression" dxfId="500" priority="320">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7 G7:N7">
-    <cfRule type="expression" dxfId="535" priority="313">
+    <cfRule type="expression" dxfId="499" priority="313">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="314">
+    <cfRule type="expression" dxfId="498" priority="314">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="315">
+    <cfRule type="expression" dxfId="497" priority="315">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="316">
+    <cfRule type="expression" dxfId="496" priority="316">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49 G49:N49">
-    <cfRule type="expression" dxfId="531" priority="309">
+    <cfRule type="expression" dxfId="495" priority="309">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="310">
+    <cfRule type="expression" dxfId="494" priority="310">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="311">
+    <cfRule type="expression" dxfId="493" priority="311">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="312">
+    <cfRule type="expression" dxfId="492" priority="312">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52 G52:N52">
-    <cfRule type="expression" dxfId="527" priority="305">
+    <cfRule type="expression" dxfId="491" priority="305">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="306">
+    <cfRule type="expression" dxfId="490" priority="306">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="307">
+    <cfRule type="expression" dxfId="489" priority="307">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="308">
+    <cfRule type="expression" dxfId="488" priority="308">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70 G70:N70">
-    <cfRule type="expression" dxfId="523" priority="301">
+    <cfRule type="expression" dxfId="487" priority="301">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="302">
+    <cfRule type="expression" dxfId="486" priority="302">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="303">
+    <cfRule type="expression" dxfId="485" priority="303">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="304">
+    <cfRule type="expression" dxfId="484" priority="304">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73 H73:N73">
-    <cfRule type="expression" dxfId="519" priority="297">
+    <cfRule type="expression" dxfId="483" priority="297">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="298">
+    <cfRule type="expression" dxfId="482" priority="298">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="299">
+    <cfRule type="expression" dxfId="481" priority="299">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="300">
+    <cfRule type="expression" dxfId="480" priority="300">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76 G76:L76">
-    <cfRule type="expression" dxfId="515" priority="293">
+    <cfRule type="expression" dxfId="479" priority="293">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="294">
+    <cfRule type="expression" dxfId="478" priority="294">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="295">
+    <cfRule type="expression" dxfId="477" priority="295">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="296">
+    <cfRule type="expression" dxfId="476" priority="296">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="expression" dxfId="511" priority="289">
+    <cfRule type="expression" dxfId="475" priority="289">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="290">
+    <cfRule type="expression" dxfId="474" priority="290">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="291">
+    <cfRule type="expression" dxfId="473" priority="291">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="292">
+    <cfRule type="expression" dxfId="472" priority="292">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16 G16:N16">
-    <cfRule type="expression" dxfId="507" priority="285">
+    <cfRule type="expression" dxfId="471" priority="285">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="286">
+    <cfRule type="expression" dxfId="470" priority="286">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="287">
+    <cfRule type="expression" dxfId="469" priority="287">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="288">
+    <cfRule type="expression" dxfId="468" priority="288">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 G13:N13">
-    <cfRule type="expression" dxfId="503" priority="281">
+    <cfRule type="expression" dxfId="467" priority="281">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="282">
+    <cfRule type="expression" dxfId="466" priority="282">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="283">
+    <cfRule type="expression" dxfId="465" priority="283">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="284">
+    <cfRule type="expression" dxfId="464" priority="284">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19 G19:N19">
-    <cfRule type="expression" dxfId="499" priority="277">
+    <cfRule type="expression" dxfId="463" priority="277">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="278">
+    <cfRule type="expression" dxfId="462" priority="278">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="279">
+    <cfRule type="expression" dxfId="461" priority="279">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="280">
+    <cfRule type="expression" dxfId="460" priority="280">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37 G37:N37">
-    <cfRule type="expression" dxfId="495" priority="273">
+    <cfRule type="expression" dxfId="459" priority="273">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="274">
+    <cfRule type="expression" dxfId="458" priority="274">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="493" priority="275">
+    <cfRule type="expression" dxfId="457" priority="275">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="276">
+    <cfRule type="expression" dxfId="456" priority="276">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46 G46:N46">
-    <cfRule type="expression" dxfId="491" priority="269">
+    <cfRule type="expression" dxfId="455" priority="269">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="270">
+    <cfRule type="expression" dxfId="454" priority="270">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="271">
+    <cfRule type="expression" dxfId="453" priority="271">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="272">
+    <cfRule type="expression" dxfId="452" priority="272">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C56:F57 C80:F81 C14:F15 C41:F42 C83:F84 C29:F30 C32:F33 C35:F36 C44:F45 C59:F60 C62:F63 C65:F66 C68:F69 E23:F24 E26:F27">
-    <cfRule type="expression" dxfId="487" priority="265">
+    <cfRule type="expression" dxfId="451" priority="265">
       <formula>$B14="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="266">
+    <cfRule type="expression" dxfId="450" priority="266">
       <formula>$B14="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="267">
+    <cfRule type="expression" dxfId="449" priority="267">
       <formula>$B14="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="268">
+    <cfRule type="expression" dxfId="448" priority="268">
       <formula>$B14="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F4">
-    <cfRule type="expression" dxfId="483" priority="261">
+    <cfRule type="expression" dxfId="447" priority="261">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="262">
+    <cfRule type="expression" dxfId="446" priority="262">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="263">
+    <cfRule type="expression" dxfId="445" priority="263">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="264">
+    <cfRule type="expression" dxfId="444" priority="264">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:F10">
-    <cfRule type="expression" dxfId="479" priority="257">
+    <cfRule type="expression" dxfId="443" priority="257">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="258">
+    <cfRule type="expression" dxfId="442" priority="258">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="259">
+    <cfRule type="expression" dxfId="441" priority="259">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="260">
+    <cfRule type="expression" dxfId="440" priority="260">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:F7">
-    <cfRule type="expression" dxfId="475" priority="253">
+    <cfRule type="expression" dxfId="439" priority="253">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="254">
+    <cfRule type="expression" dxfId="438" priority="254">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="255">
+    <cfRule type="expression" dxfId="437" priority="255">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="256">
+    <cfRule type="expression" dxfId="436" priority="256">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="expression" dxfId="471" priority="249">
+    <cfRule type="expression" dxfId="435" priority="249">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="250">
+    <cfRule type="expression" dxfId="434" priority="250">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="251">
+    <cfRule type="expression" dxfId="433" priority="251">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="252">
+    <cfRule type="expression" dxfId="432" priority="252">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="expression" dxfId="467" priority="245">
+    <cfRule type="expression" dxfId="431" priority="245">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="246">
+    <cfRule type="expression" dxfId="430" priority="246">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="247">
+    <cfRule type="expression" dxfId="429" priority="247">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="248">
+    <cfRule type="expression" dxfId="428" priority="248">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F70">
-    <cfRule type="expression" dxfId="463" priority="241">
+    <cfRule type="expression" dxfId="427" priority="241">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="242">
+    <cfRule type="expression" dxfId="426" priority="242">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="243">
+    <cfRule type="expression" dxfId="425" priority="243">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="244">
+    <cfRule type="expression" dxfId="424" priority="244">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C73:F73">
-    <cfRule type="expression" dxfId="459" priority="237">
+    <cfRule type="expression" dxfId="423" priority="237">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="238">
+    <cfRule type="expression" dxfId="422" priority="238">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="239">
+    <cfRule type="expression" dxfId="421" priority="239">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="240">
+    <cfRule type="expression" dxfId="420" priority="240">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C76:F76">
-    <cfRule type="expression" dxfId="455" priority="233">
+    <cfRule type="expression" dxfId="419" priority="233">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="234">
+    <cfRule type="expression" dxfId="418" priority="234">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="235">
+    <cfRule type="expression" dxfId="417" priority="235">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="236">
+    <cfRule type="expression" dxfId="416" priority="236">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:F16">
-    <cfRule type="expression" dxfId="451" priority="229">
+    <cfRule type="expression" dxfId="415" priority="229">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="230">
+    <cfRule type="expression" dxfId="414" priority="230">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="231">
+    <cfRule type="expression" dxfId="413" priority="231">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="232">
+    <cfRule type="expression" dxfId="412" priority="232">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:F13">
-    <cfRule type="expression" dxfId="447" priority="225">
+    <cfRule type="expression" dxfId="411" priority="225">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="226">
+    <cfRule type="expression" dxfId="410" priority="226">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="227">
+    <cfRule type="expression" dxfId="409" priority="227">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="228">
+    <cfRule type="expression" dxfId="408" priority="228">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:F19">
-    <cfRule type="expression" dxfId="443" priority="221">
+    <cfRule type="expression" dxfId="407" priority="221">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="222">
+    <cfRule type="expression" dxfId="406" priority="222">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="223">
+    <cfRule type="expression" dxfId="405" priority="223">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="224">
+    <cfRule type="expression" dxfId="404" priority="224">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:F37">
-    <cfRule type="expression" dxfId="439" priority="217">
+    <cfRule type="expression" dxfId="403" priority="217">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="218">
+    <cfRule type="expression" dxfId="402" priority="218">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="219">
+    <cfRule type="expression" dxfId="401" priority="219">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="220">
+    <cfRule type="expression" dxfId="400" priority="220">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:F46">
-    <cfRule type="expression" dxfId="435" priority="213">
+    <cfRule type="expression" dxfId="399" priority="213">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="214">
+    <cfRule type="expression" dxfId="398" priority="214">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="215">
+    <cfRule type="expression" dxfId="397" priority="215">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="216">
+    <cfRule type="expression" dxfId="396" priority="216">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:F18">
-    <cfRule type="expression" dxfId="431" priority="209">
+    <cfRule type="expression" dxfId="395" priority="209">
       <formula>$B17="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="210">
+    <cfRule type="expression" dxfId="394" priority="210">
       <formula>$B17="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="211">
+    <cfRule type="expression" dxfId="393" priority="211">
       <formula>$B17="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="212">
+    <cfRule type="expression" dxfId="392" priority="212">
       <formula>$B17="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:F21">
-    <cfRule type="expression" dxfId="427" priority="205">
+    <cfRule type="expression" dxfId="391" priority="205">
       <formula>$B20="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="206">
+    <cfRule type="expression" dxfId="390" priority="206">
       <formula>$B20="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="207">
+    <cfRule type="expression" dxfId="389" priority="207">
       <formula>$B20="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="208">
+    <cfRule type="expression" dxfId="388" priority="208">
       <formula>$B20="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F39">
-    <cfRule type="expression" dxfId="423" priority="201">
+    <cfRule type="expression" dxfId="387" priority="201">
       <formula>$B38="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="202">
+    <cfRule type="expression" dxfId="386" priority="202">
       <formula>$B38="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="203">
+    <cfRule type="expression" dxfId="385" priority="203">
       <formula>$B38="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="204">
+    <cfRule type="expression" dxfId="384" priority="204">
       <formula>$B38="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F48">
-    <cfRule type="expression" dxfId="419" priority="197">
+    <cfRule type="expression" dxfId="383" priority="197">
       <formula>$B47="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="198">
+    <cfRule type="expression" dxfId="382" priority="198">
       <formula>$B47="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="417" priority="199">
+    <cfRule type="expression" dxfId="381" priority="199">
       <formula>$B47="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="200">
+    <cfRule type="expression" dxfId="380" priority="200">
       <formula>$B47="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C51 E50:F51">
-    <cfRule type="expression" dxfId="415" priority="193">
+    <cfRule type="expression" dxfId="379" priority="193">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="194">
+    <cfRule type="expression" dxfId="378" priority="194">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="195">
+    <cfRule type="expression" dxfId="377" priority="195">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="196">
+    <cfRule type="expression" dxfId="376" priority="196">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F54">
-    <cfRule type="expression" dxfId="411" priority="189">
+    <cfRule type="expression" dxfId="375" priority="189">
       <formula>$B53="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="190">
+    <cfRule type="expression" dxfId="374" priority="190">
       <formula>$B53="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="191">
+    <cfRule type="expression" dxfId="373" priority="191">
       <formula>$B53="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="192">
+    <cfRule type="expression" dxfId="372" priority="192">
       <formula>$B53="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:F75">
-    <cfRule type="expression" dxfId="407" priority="185">
+    <cfRule type="expression" dxfId="371" priority="185">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="186">
+    <cfRule type="expression" dxfId="370" priority="186">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="187">
+    <cfRule type="expression" dxfId="369" priority="187">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="188">
+    <cfRule type="expression" dxfId="368" priority="188">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:F78">
-    <cfRule type="expression" dxfId="403" priority="181">
+    <cfRule type="expression" dxfId="367" priority="181">
       <formula>$B77="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="182">
+    <cfRule type="expression" dxfId="366" priority="182">
       <formula>$B77="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="183">
+    <cfRule type="expression" dxfId="365" priority="183">
       <formula>$B77="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="184">
+    <cfRule type="expression" dxfId="364" priority="184">
       <formula>$B77="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82 G82:N82">
-    <cfRule type="expression" dxfId="399" priority="177">
+    <cfRule type="expression" dxfId="363" priority="177">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="178">
+    <cfRule type="expression" dxfId="362" priority="178">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="179">
+    <cfRule type="expression" dxfId="361" priority="179">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="180">
+    <cfRule type="expression" dxfId="360" priority="180">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:F82">
-    <cfRule type="expression" dxfId="395" priority="173">
+    <cfRule type="expression" dxfId="359" priority="173">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="174">
+    <cfRule type="expression" dxfId="358" priority="174">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="175">
+    <cfRule type="expression" dxfId="357" priority="175">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="176">
+    <cfRule type="expression" dxfId="356" priority="176">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:B79 G79:N79">
-    <cfRule type="expression" dxfId="391" priority="169">
+    <cfRule type="expression" dxfId="355" priority="169">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="170">
+    <cfRule type="expression" dxfId="354" priority="170">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="171">
+    <cfRule type="expression" dxfId="353" priority="171">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="172">
+    <cfRule type="expression" dxfId="352" priority="172">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:F79">
-    <cfRule type="expression" dxfId="387" priority="165">
+    <cfRule type="expression" dxfId="351" priority="165">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="166">
+    <cfRule type="expression" dxfId="350" priority="166">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="167">
+    <cfRule type="expression" dxfId="349" priority="167">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="168">
+    <cfRule type="expression" dxfId="348" priority="168">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22 G22:N22">
-    <cfRule type="expression" dxfId="383" priority="161">
+    <cfRule type="expression" dxfId="347" priority="161">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="162">
+    <cfRule type="expression" dxfId="346" priority="162">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="163">
+    <cfRule type="expression" dxfId="345" priority="163">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="164">
+    <cfRule type="expression" dxfId="344" priority="164">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:F22">
-    <cfRule type="expression" dxfId="379" priority="157">
+    <cfRule type="expression" dxfId="343" priority="157">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="158">
+    <cfRule type="expression" dxfId="342" priority="158">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="159">
+    <cfRule type="expression" dxfId="341" priority="159">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="160">
+    <cfRule type="expression" dxfId="340" priority="160">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 G25:J25 L25:N25">
-    <cfRule type="expression" dxfId="375" priority="153">
+    <cfRule type="expression" dxfId="339" priority="153">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="154">
+    <cfRule type="expression" dxfId="338" priority="154">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="155">
+    <cfRule type="expression" dxfId="337" priority="155">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="156">
+    <cfRule type="expression" dxfId="336" priority="156">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:F25">
-    <cfRule type="expression" dxfId="371" priority="149">
+    <cfRule type="expression" dxfId="335" priority="149">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="150">
+    <cfRule type="expression" dxfId="334" priority="150">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="151">
+    <cfRule type="expression" dxfId="333" priority="151">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="152">
+    <cfRule type="expression" dxfId="332" priority="152">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:N28 A28:B28">
-    <cfRule type="expression" dxfId="367" priority="145">
+    <cfRule type="expression" dxfId="331" priority="145">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="146">
+    <cfRule type="expression" dxfId="330" priority="146">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="147">
+    <cfRule type="expression" dxfId="329" priority="147">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="148">
+    <cfRule type="expression" dxfId="328" priority="148">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:F28">
-    <cfRule type="expression" dxfId="363" priority="141">
+    <cfRule type="expression" dxfId="327" priority="141">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="142">
+    <cfRule type="expression" dxfId="326" priority="142">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="143">
+    <cfRule type="expression" dxfId="325" priority="143">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="144">
+    <cfRule type="expression" dxfId="324" priority="144">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 G31:N31">
-    <cfRule type="expression" dxfId="359" priority="137">
+    <cfRule type="expression" dxfId="323" priority="137">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="138">
+    <cfRule type="expression" dxfId="322" priority="138">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="139">
+    <cfRule type="expression" dxfId="321" priority="139">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="140">
+    <cfRule type="expression" dxfId="320" priority="140">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:F31">
-    <cfRule type="expression" dxfId="355" priority="133">
+    <cfRule type="expression" dxfId="319" priority="133">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="134">
+    <cfRule type="expression" dxfId="318" priority="134">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="135">
+    <cfRule type="expression" dxfId="317" priority="135">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="136">
+    <cfRule type="expression" dxfId="316" priority="136">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:N34 A34:B34">
-    <cfRule type="expression" dxfId="351" priority="129">
+    <cfRule type="expression" dxfId="315" priority="129">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="130">
+    <cfRule type="expression" dxfId="314" priority="130">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="131">
+    <cfRule type="expression" dxfId="313" priority="131">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="132">
+    <cfRule type="expression" dxfId="312" priority="132">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F34">
-    <cfRule type="expression" dxfId="347" priority="125">
+    <cfRule type="expression" dxfId="311" priority="125">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="126">
+    <cfRule type="expression" dxfId="310" priority="126">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="127">
+    <cfRule type="expression" dxfId="309" priority="127">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="128">
+    <cfRule type="expression" dxfId="308" priority="128">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40 G40:N40">
-    <cfRule type="expression" dxfId="343" priority="121">
+    <cfRule type="expression" dxfId="307" priority="121">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="122">
+    <cfRule type="expression" dxfId="306" priority="122">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="341" priority="123">
+    <cfRule type="expression" dxfId="305" priority="123">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="124">
+    <cfRule type="expression" dxfId="304" priority="124">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:F40">
-    <cfRule type="expression" dxfId="339" priority="117">
+    <cfRule type="expression" dxfId="303" priority="117">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="118">
+    <cfRule type="expression" dxfId="302" priority="118">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="119">
+    <cfRule type="expression" dxfId="301" priority="119">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="120">
+    <cfRule type="expression" dxfId="300" priority="120">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:N43 A43:B43">
-    <cfRule type="expression" dxfId="335" priority="113">
+    <cfRule type="expression" dxfId="299" priority="113">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="114">
+    <cfRule type="expression" dxfId="298" priority="114">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="115">
+    <cfRule type="expression" dxfId="297" priority="115">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="116">
+    <cfRule type="expression" dxfId="296" priority="116">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:F43">
-    <cfRule type="expression" dxfId="331" priority="109">
+    <cfRule type="expression" dxfId="295" priority="109">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="110">
+    <cfRule type="expression" dxfId="294" priority="110">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="111">
+    <cfRule type="expression" dxfId="293" priority="111">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="112">
+    <cfRule type="expression" dxfId="292" priority="112">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55 G55:N55">
-    <cfRule type="expression" dxfId="327" priority="105">
+    <cfRule type="expression" dxfId="291" priority="105">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="106">
+    <cfRule type="expression" dxfId="290" priority="106">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="107">
+    <cfRule type="expression" dxfId="289" priority="107">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="108">
+    <cfRule type="expression" dxfId="288" priority="108">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:F55">
-    <cfRule type="expression" dxfId="323" priority="101">
+    <cfRule type="expression" dxfId="287" priority="101">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="102">
+    <cfRule type="expression" dxfId="286" priority="102">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="103">
+    <cfRule type="expression" dxfId="285" priority="103">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="104">
+    <cfRule type="expression" dxfId="284" priority="104">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:N58 A58:B58">
-    <cfRule type="expression" dxfId="319" priority="97">
+    <cfRule type="expression" dxfId="283" priority="97">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="98">
+    <cfRule type="expression" dxfId="282" priority="98">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="99">
+    <cfRule type="expression" dxfId="281" priority="99">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="100">
+    <cfRule type="expression" dxfId="280" priority="100">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:F58">
-    <cfRule type="expression" dxfId="315" priority="93">
+    <cfRule type="expression" dxfId="279" priority="93">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="94">
+    <cfRule type="expression" dxfId="278" priority="94">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="95">
+    <cfRule type="expression" dxfId="277" priority="95">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="96">
+    <cfRule type="expression" dxfId="276" priority="96">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61 G61:N61">
-    <cfRule type="expression" dxfId="311" priority="89">
+    <cfRule type="expression" dxfId="275" priority="89">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="90">
+    <cfRule type="expression" dxfId="274" priority="90">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="91">
+    <cfRule type="expression" dxfId="273" priority="91">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="92">
+    <cfRule type="expression" dxfId="272" priority="92">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:F61">
-    <cfRule type="expression" dxfId="307" priority="85">
+    <cfRule type="expression" dxfId="271" priority="85">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="86">
+    <cfRule type="expression" dxfId="270" priority="86">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="87">
+    <cfRule type="expression" dxfId="269" priority="87">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="88">
+    <cfRule type="expression" dxfId="268" priority="88">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:N64 A64:B64">
-    <cfRule type="expression" dxfId="303" priority="81">
+    <cfRule type="expression" dxfId="267" priority="81">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="82">
+    <cfRule type="expression" dxfId="266" priority="82">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="83">
+    <cfRule type="expression" dxfId="265" priority="83">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="84">
+    <cfRule type="expression" dxfId="264" priority="84">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:F64">
-    <cfRule type="expression" dxfId="299" priority="77">
+    <cfRule type="expression" dxfId="263" priority="77">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="78">
+    <cfRule type="expression" dxfId="262" priority="78">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="79">
+    <cfRule type="expression" dxfId="261" priority="79">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="80">
+    <cfRule type="expression" dxfId="260" priority="80">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67 G67:N67">
-    <cfRule type="expression" dxfId="295" priority="73">
+    <cfRule type="expression" dxfId="259" priority="73">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="74">
+    <cfRule type="expression" dxfId="258" priority="74">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="75">
+    <cfRule type="expression" dxfId="257" priority="75">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="76">
+    <cfRule type="expression" dxfId="256" priority="76">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:F67">
-    <cfRule type="expression" dxfId="291" priority="69">
+    <cfRule type="expression" dxfId="255" priority="69">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="70">
+    <cfRule type="expression" dxfId="254" priority="70">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="71">
+    <cfRule type="expression" dxfId="253" priority="71">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="72">
+    <cfRule type="expression" dxfId="252" priority="72">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26:K27">
-    <cfRule type="expression" dxfId="287" priority="65">
+    <cfRule type="expression" dxfId="251" priority="65">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="66">
+    <cfRule type="expression" dxfId="250" priority="66">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="67">
+    <cfRule type="expression" dxfId="249" priority="67">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="68">
+    <cfRule type="expression" dxfId="248" priority="68">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="expression" dxfId="283" priority="61">
+    <cfRule type="expression" dxfId="247" priority="61">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="62">
+    <cfRule type="expression" dxfId="246" priority="62">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="63">
+    <cfRule type="expression" dxfId="245" priority="63">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="64">
+    <cfRule type="expression" dxfId="244" priority="64">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="279" priority="53">
+    <cfRule type="expression" dxfId="243" priority="53">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="54">
+    <cfRule type="expression" dxfId="242" priority="54">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="55">
+    <cfRule type="expression" dxfId="241" priority="55">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="56">
+    <cfRule type="expression" dxfId="240" priority="56">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:N101">
-    <cfRule type="expression" dxfId="275" priority="49">
+    <cfRule type="expression" dxfId="239" priority="49">
       <formula>$B99="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="50">
+    <cfRule type="expression" dxfId="238" priority="50">
       <formula>$B99="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="51">
+    <cfRule type="expression" dxfId="237" priority="51">
       <formula>$B99="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="52">
+    <cfRule type="expression" dxfId="236" priority="52">
       <formula>$B99="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="271" priority="45">
+    <cfRule type="expression" dxfId="235" priority="45">
       <formula>$B11="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="46">
+    <cfRule type="expression" dxfId="234" priority="46">
       <formula>$B11="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="47">
+    <cfRule type="expression" dxfId="233" priority="47">
       <formula>$B11="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="48">
+    <cfRule type="expression" dxfId="232" priority="48">
       <formula>$B11="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="267" priority="41">
+    <cfRule type="expression" dxfId="231" priority="41">
       <formula>$B12="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="42">
+    <cfRule type="expression" dxfId="230" priority="42">
       <formula>$B12="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="43">
+    <cfRule type="expression" dxfId="229" priority="43">
       <formula>$B12="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="44">
+    <cfRule type="expression" dxfId="228" priority="44">
       <formula>$B12="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50">
-    <cfRule type="expression" dxfId="263" priority="37">
+    <cfRule type="expression" dxfId="227" priority="37">
       <formula>$B50="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="38">
+    <cfRule type="expression" dxfId="226" priority="38">
       <formula>$B50="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="39">
+    <cfRule type="expression" dxfId="225" priority="39">
       <formula>$B50="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="40">
+    <cfRule type="expression" dxfId="224" priority="40">
       <formula>$B50="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="expression" dxfId="259" priority="33">
+    <cfRule type="expression" dxfId="223" priority="33">
       <formula>$B51="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="34">
+    <cfRule type="expression" dxfId="222" priority="34">
       <formula>$B51="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="35">
+    <cfRule type="expression" dxfId="221" priority="35">
       <formula>$B51="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="36">
+    <cfRule type="expression" dxfId="220" priority="36">
       <formula>$B51="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C74:D74">
-    <cfRule type="expression" dxfId="255" priority="29">
+    <cfRule type="expression" dxfId="219" priority="29">
       <formula>$B74="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="30">
+    <cfRule type="expression" dxfId="218" priority="30">
       <formula>$B74="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="31">
+    <cfRule type="expression" dxfId="217" priority="31">
       <formula>$B74="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="32">
+    <cfRule type="expression" dxfId="216" priority="32">
       <formula>$B74="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C75:D75">
-    <cfRule type="expression" dxfId="251" priority="25">
+    <cfRule type="expression" dxfId="215" priority="25">
       <formula>$B75="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="26">
+    <cfRule type="expression" dxfId="214" priority="26">
       <formula>$B75="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="27">
+    <cfRule type="expression" dxfId="213" priority="27">
       <formula>$B75="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="28">
+    <cfRule type="expression" dxfId="212" priority="28">
       <formula>$B75="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="expression" dxfId="247" priority="21">
+    <cfRule type="expression" dxfId="211" priority="21">
       <formula>$B23="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="22">
+    <cfRule type="expression" dxfId="210" priority="22">
       <formula>$B23="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="23">
+    <cfRule type="expression" dxfId="209" priority="23">
       <formula>$B23="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="24">
+    <cfRule type="expression" dxfId="208" priority="24">
       <formula>$B23="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" dxfId="243" priority="17">
+    <cfRule type="expression" dxfId="207" priority="17">
       <formula>$B24="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="18">
+    <cfRule type="expression" dxfId="206" priority="18">
       <formula>$B24="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="19">
+    <cfRule type="expression" dxfId="205" priority="19">
       <formula>$B24="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="20">
+    <cfRule type="expression" dxfId="204" priority="20">
       <formula>$B24="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="expression" dxfId="239" priority="13">
+    <cfRule type="expression" dxfId="203" priority="13">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="14">
+    <cfRule type="expression" dxfId="202" priority="14">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="15">
+    <cfRule type="expression" dxfId="201" priority="15">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="16">
+    <cfRule type="expression" dxfId="200" priority="16">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="235" priority="9">
+    <cfRule type="expression" dxfId="199" priority="9">
       <formula>$B26="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="10">
+    <cfRule type="expression" dxfId="198" priority="10">
       <formula>$B26="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="11">
+    <cfRule type="expression" dxfId="197" priority="11">
       <formula>$B26="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="12">
+    <cfRule type="expression" dxfId="196" priority="12">
       <formula>$B26="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="expression" dxfId="231" priority="5">
+    <cfRule type="expression" dxfId="195" priority="5">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="6">
+    <cfRule type="expression" dxfId="194" priority="6">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="7">
+    <cfRule type="expression" dxfId="193" priority="7">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="8">
+    <cfRule type="expression" dxfId="192" priority="8">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="227" priority="1">
+    <cfRule type="expression" dxfId="191" priority="1">
       <formula>$B27="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="2">
+    <cfRule type="expression" dxfId="190" priority="2">
       <formula>$B27="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="3">
+    <cfRule type="expression" dxfId="189" priority="3">
       <formula>$B27="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="4">
+    <cfRule type="expression" dxfId="188" priority="4">
       <formula>$B27="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37667,24 +37667,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -42498,660 +42498,660 @@
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <conditionalFormatting sqref="A50:B51 A53:B54 A77:B78 A74:B75 A17:B18 A14:B15 A20:B21 A38:B39 A47:B48 A11:B12 A8:B9 A5:B6 A71:B72 A83:B84 A80:B81 A93:N98 A23:B24 A26:B27 A29:B30 A32:B33 A35:B36 A41:B42 A44:B45 A56:B57 A59:B60 A62:B63 A65:B66 A68:B69">
-    <cfRule type="expression" dxfId="223" priority="349">
+    <cfRule type="expression" dxfId="187" priority="349">
       <formula>$B5="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="350">
+    <cfRule type="expression" dxfId="186" priority="350">
       <formula>$B5="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="351">
+    <cfRule type="expression" dxfId="185" priority="351">
       <formula>$B5="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="352">
+    <cfRule type="expression" dxfId="184" priority="352">
       <formula>$B5="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="expression" dxfId="219" priority="345">
+    <cfRule type="expression" dxfId="183" priority="345">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="346">
+    <cfRule type="expression" dxfId="182" priority="346">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="347">
+    <cfRule type="expression" dxfId="181" priority="347">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="348">
+    <cfRule type="expression" dxfId="180" priority="348">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:B10">
-    <cfRule type="expression" dxfId="215" priority="337">
+    <cfRule type="expression" dxfId="179" priority="337">
       <formula>$B10="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="338">
+    <cfRule type="expression" dxfId="178" priority="338">
       <formula>$B10="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="339">
+    <cfRule type="expression" dxfId="177" priority="339">
       <formula>$B10="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="340">
+    <cfRule type="expression" dxfId="176" priority="340">
       <formula>$B10="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:B7">
-    <cfRule type="expression" dxfId="211" priority="333">
+    <cfRule type="expression" dxfId="175" priority="333">
       <formula>$B7="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="334">
+    <cfRule type="expression" dxfId="174" priority="334">
       <formula>$B7="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="335">
+    <cfRule type="expression" dxfId="173" priority="335">
       <formula>$B7="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="336">
+    <cfRule type="expression" dxfId="172" priority="336">
       <formula>$B7="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="expression" dxfId="207" priority="329">
+    <cfRule type="expression" dxfId="171" priority="329">
       <formula>$B49="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="330">
+    <cfRule type="expression" dxfId="170" priority="330">
       <formula>$B49="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="331">
+    <cfRule type="expression" dxfId="169" priority="331">
       <formula>$B49="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="332">
+    <cfRule type="expression" dxfId="168" priority="332">
       <formula>$B49="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52:B52">
-    <cfRule type="expression" dxfId="203" priority="325">
+    <cfRule type="expression" dxfId="167" priority="325">
       <formula>$B52="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="326">
+    <cfRule type="expression" dxfId="166" priority="326">
       <formula>$B52="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="327">
+    <cfRule type="expression" dxfId="165" priority="327">
       <formula>$B52="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="328">
+    <cfRule type="expression" dxfId="164" priority="328">
       <formula>$B52="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70:B70">
-    <cfRule type="expression" dxfId="199" priority="321">
+    <cfRule type="expression" dxfId="163" priority="321">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="322">
+    <cfRule type="expression" dxfId="162" priority="322">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="323">
+    <cfRule type="expression" dxfId="161" priority="323">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="324">
+    <cfRule type="expression" dxfId="160" priority="324">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:B73">
-    <cfRule type="expression" dxfId="195" priority="317">
+    <cfRule type="expression" dxfId="159" priority="317">
       <formula>$B73="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="318">
+    <cfRule type="expression" dxfId="158" priority="318">
       <formula>$B73="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="319">
+    <cfRule type="expression" dxfId="157" priority="319">
       <formula>$B73="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="320">
+    <cfRule type="expression" dxfId="156" priority="320">
       <formula>$B73="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:B76">
-    <cfRule type="expression" dxfId="191" priority="313">
+    <cfRule type="expression" dxfId="155" priority="313">
       <formula>$B76="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="314">
+    <cfRule type="expression" dxfId="154" priority="314">
       <formula>$B76="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="315">
+    <cfRule type="expression" dxfId="153" priority="315">
       <formula>$B76="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="316">
+    <cfRule type="expression" dxfId="152" priority="316">
       <formula>$B76="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="expression" dxfId="187" priority="305">
+    <cfRule type="expression" dxfId="151" priority="305">
       <formula>$B16="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="306">
+    <cfRule type="expression" dxfId="150" priority="306">
       <formula>$B16="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="307">
+    <cfRule type="expression" dxfId="149" priority="307">
       <formula>$B16="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="308">
+    <cfRule type="expression" dxfId="148" priority="308">
       <formula>$B16="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="expression" dxfId="183" priority="301">
+    <cfRule type="expression" dxfId="147" priority="301">
       <formula>$B13="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="302">
+    <cfRule type="expression" dxfId="146" priority="302">
       <formula>$B13="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="303">
+    <cfRule type="expression" dxfId="145" priority="303">
       <formula>$B13="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="304">
+    <cfRule type="expression" dxfId="144" priority="304">
       <formula>$B13="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="expression" dxfId="179" priority="297">
+    <cfRule type="expression" dxfId="143" priority="297">
       <formula>$B19="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="298">
+    <cfRule type="expression" dxfId="142" priority="298">
       <formula>$B19="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="299">
+    <cfRule type="expression" dxfId="141" priority="299">
       <formula>$B19="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="300">
+    <cfRule type="expression" dxfId="140" priority="300">
       <formula>$B19="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:B37">
-    <cfRule type="expression" dxfId="175" priority="293">
+    <cfRule type="expression" dxfId="139" priority="293">
       <formula>$B37="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="294">
+    <cfRule type="expression" dxfId="138" priority="294">
       <formula>$B37="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="295">
+    <cfRule type="expression" dxfId="137" priority="295">
       <formula>$B37="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="296">
+    <cfRule type="expression" dxfId="136" priority="296">
       <formula>$B37="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46:B46">
-    <cfRule type="expression" dxfId="171" priority="289">
+    <cfRule type="expression" dxfId="135" priority="289">
       <formula>$B46="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="290">
+    <cfRule type="expression" dxfId="134" priority="290">
       <formula>$B46="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="291">
+    <cfRule type="expression" dxfId="133" priority="291">
       <formula>$B46="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="292">
+    <cfRule type="expression" dxfId="132" priority="292">
       <formula>$B46="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F69">
-    <cfRule type="expression" dxfId="167" priority="273">
+    <cfRule type="expression" dxfId="131" priority="273">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="274">
+    <cfRule type="expression" dxfId="130" priority="274">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="275">
+    <cfRule type="expression" dxfId="129" priority="275">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="276">
+    <cfRule type="expression" dxfId="128" priority="276">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82:B82">
-    <cfRule type="expression" dxfId="163" priority="197">
+    <cfRule type="expression" dxfId="127" priority="197">
       <formula>$B82="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="198">
+    <cfRule type="expression" dxfId="126" priority="198">
       <formula>$B82="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="199">
+    <cfRule type="expression" dxfId="125" priority="199">
       <formula>$B82="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="200">
+    <cfRule type="expression" dxfId="124" priority="200">
       <formula>$B82="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79:B79">
-    <cfRule type="expression" dxfId="159" priority="189">
+    <cfRule type="expression" dxfId="123" priority="189">
       <formula>$B79="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="190">
+    <cfRule type="expression" dxfId="122" priority="190">
       <formula>$B79="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="191">
+    <cfRule type="expression" dxfId="121" priority="191">
       <formula>$B79="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="192">
+    <cfRule type="expression" dxfId="120" priority="192">
       <formula>$B79="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B22">
-    <cfRule type="expression" dxfId="155" priority="181">
+    <cfRule type="expression" dxfId="119" priority="181">
       <formula>$B22="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="182">
+    <cfRule type="expression" dxfId="118" priority="182">
       <formula>$B22="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="183">
+    <cfRule type="expression" dxfId="117" priority="183">
       <formula>$B22="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="184">
+    <cfRule type="expression" dxfId="116" priority="184">
       <formula>$B22="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="expression" dxfId="151" priority="173">
+    <cfRule type="expression" dxfId="115" priority="173">
       <formula>$B25="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="174">
+    <cfRule type="expression" dxfId="114" priority="174">
       <formula>$B25="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="175">
+    <cfRule type="expression" dxfId="113" priority="175">
       <formula>$B25="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="176">
+    <cfRule type="expression" dxfId="112" priority="176">
       <formula>$B25="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28">
-    <cfRule type="expression" dxfId="147" priority="165">
+    <cfRule type="expression" dxfId="111" priority="165">
       <formula>$B28="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="166">
+    <cfRule type="expression" dxfId="110" priority="166">
       <formula>$B28="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="167">
+    <cfRule type="expression" dxfId="109" priority="167">
       <formula>$B28="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="168">
+    <cfRule type="expression" dxfId="108" priority="168">
       <formula>$B28="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31">
-    <cfRule type="expression" dxfId="143" priority="157">
+    <cfRule type="expression" dxfId="107" priority="157">
       <formula>$B31="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="158">
+    <cfRule type="expression" dxfId="106" priority="158">
       <formula>$B31="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="159">
+    <cfRule type="expression" dxfId="105" priority="159">
       <formula>$B31="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="160">
+    <cfRule type="expression" dxfId="104" priority="160">
       <formula>$B31="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34:B34">
-    <cfRule type="expression" dxfId="139" priority="149">
+    <cfRule type="expression" dxfId="103" priority="149">
       <formula>$B34="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="150">
+    <cfRule type="expression" dxfId="102" priority="150">
       <formula>$B34="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="151">
+    <cfRule type="expression" dxfId="101" priority="151">
       <formula>$B34="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="152">
+    <cfRule type="expression" dxfId="100" priority="152">
       <formula>$B34="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:B40">
-    <cfRule type="expression" dxfId="135" priority="141">
+    <cfRule type="expression" dxfId="99" priority="141">
       <formula>$B40="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="142">
+    <cfRule type="expression" dxfId="98" priority="142">
       <formula>$B40="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="143">
+    <cfRule type="expression" dxfId="97" priority="143">
       <formula>$B40="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="144">
+    <cfRule type="expression" dxfId="96" priority="144">
       <formula>$B40="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:B43">
-    <cfRule type="expression" dxfId="131" priority="133">
+    <cfRule type="expression" dxfId="95" priority="133">
       <formula>$B43="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="134">
+    <cfRule type="expression" dxfId="94" priority="134">
       <formula>$B43="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="135">
+    <cfRule type="expression" dxfId="93" priority="135">
       <formula>$B43="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="136">
+    <cfRule type="expression" dxfId="92" priority="136">
       <formula>$B43="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55">
-    <cfRule type="expression" dxfId="127" priority="125">
+    <cfRule type="expression" dxfId="91" priority="125">
       <formula>$B55="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="126">
+    <cfRule type="expression" dxfId="90" priority="126">
       <formula>$B55="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="127">
+    <cfRule type="expression" dxfId="89" priority="127">
       <formula>$B55="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="128">
+    <cfRule type="expression" dxfId="88" priority="128">
       <formula>$B55="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A58:B58">
-    <cfRule type="expression" dxfId="123" priority="117">
+    <cfRule type="expression" dxfId="87" priority="117">
       <formula>$B58="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="118">
+    <cfRule type="expression" dxfId="86" priority="118">
       <formula>$B58="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="119">
+    <cfRule type="expression" dxfId="85" priority="119">
       <formula>$B58="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="120">
+    <cfRule type="expression" dxfId="84" priority="120">
       <formula>$B58="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61:B61">
-    <cfRule type="expression" dxfId="119" priority="109">
+    <cfRule type="expression" dxfId="83" priority="109">
       <formula>$B61="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="110">
+    <cfRule type="expression" dxfId="82" priority="110">
       <formula>$B61="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="111">
+    <cfRule type="expression" dxfId="81" priority="111">
       <formula>$B61="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="112">
+    <cfRule type="expression" dxfId="80" priority="112">
       <formula>$B61="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:B64">
-    <cfRule type="expression" dxfId="115" priority="101">
+    <cfRule type="expression" dxfId="79" priority="101">
       <formula>$B64="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="102">
+    <cfRule type="expression" dxfId="78" priority="102">
       <formula>$B64="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="103">
+    <cfRule type="expression" dxfId="77" priority="103">
       <formula>$B64="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="104">
+    <cfRule type="expression" dxfId="76" priority="104">
       <formula>$B64="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:B67">
-    <cfRule type="expression" dxfId="111" priority="93">
+    <cfRule type="expression" dxfId="75" priority="93">
       <formula>$B67="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="94">
+    <cfRule type="expression" dxfId="74" priority="94">
       <formula>$B67="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="95">
+    <cfRule type="expression" dxfId="73" priority="95">
       <formula>$B67="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="96">
+    <cfRule type="expression" dxfId="72" priority="96">
       <formula>$B67="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:N101">
-    <cfRule type="expression" dxfId="107" priority="69">
+    <cfRule type="expression" dxfId="71" priority="69">
       <formula>$B99="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="70">
+    <cfRule type="expression" dxfId="70" priority="70">
       <formula>$B99="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="71">
+    <cfRule type="expression" dxfId="69" priority="71">
       <formula>$B99="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="72">
+    <cfRule type="expression" dxfId="68" priority="72">
       <formula>$B99="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G69">
-    <cfRule type="expression" dxfId="103" priority="65">
+    <cfRule type="expression" dxfId="67" priority="65">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="66">
+    <cfRule type="expression" dxfId="66" priority="66">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="67">
+    <cfRule type="expression" dxfId="65" priority="67">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="68">
+    <cfRule type="expression" dxfId="64" priority="68">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K69">
-    <cfRule type="expression" dxfId="99" priority="61">
+    <cfRule type="expression" dxfId="63" priority="61">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="62">
+    <cfRule type="expression" dxfId="62" priority="62">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="63">
+    <cfRule type="expression" dxfId="61" priority="63">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="64">
+    <cfRule type="expression" dxfId="60" priority="64">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I69">
-    <cfRule type="expression" dxfId="95" priority="57">
+    <cfRule type="expression" dxfId="59" priority="57">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="58">
+    <cfRule type="expression" dxfId="58" priority="58">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="59">
+    <cfRule type="expression" dxfId="57" priority="59">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="60">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M69">
-    <cfRule type="expression" dxfId="91" priority="53">
+    <cfRule type="expression" dxfId="55" priority="53">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="54">
+    <cfRule type="expression" dxfId="54" priority="54">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="55">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="56">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H69">
-    <cfRule type="expression" dxfId="87" priority="49">
+    <cfRule type="expression" dxfId="51" priority="49">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="50">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="52">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L69">
-    <cfRule type="expression" dxfId="83" priority="45">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="46">
+    <cfRule type="expression" dxfId="46" priority="46">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="47">
+    <cfRule type="expression" dxfId="45" priority="47">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="48">
+    <cfRule type="expression" dxfId="44" priority="48">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J69">
-    <cfRule type="expression" dxfId="79" priority="41">
+    <cfRule type="expression" dxfId="43" priority="41">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="42">
+    <cfRule type="expression" dxfId="42" priority="42">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="43">
+    <cfRule type="expression" dxfId="41" priority="43">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44">
+    <cfRule type="expression" dxfId="40" priority="44">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N69">
-    <cfRule type="expression" dxfId="75" priority="37">
+    <cfRule type="expression" dxfId="39" priority="37">
       <formula>$B4="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="38">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>$B4="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="39">
+    <cfRule type="expression" dxfId="37" priority="39">
       <formula>$B4="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="40">
+    <cfRule type="expression" dxfId="36" priority="40">
       <formula>$B4="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70:F84">
-    <cfRule type="expression" dxfId="71" priority="33">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="34">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="35">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="36">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70:G84">
-    <cfRule type="expression" dxfId="67" priority="29">
+    <cfRule type="expression" dxfId="31" priority="29">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="30">
+    <cfRule type="expression" dxfId="30" priority="30">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="31">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K70:K84">
-    <cfRule type="expression" dxfId="63" priority="25">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="26">
+    <cfRule type="expression" dxfId="26" priority="26">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="27">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="28">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70:I84">
-    <cfRule type="expression" dxfId="59" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="23">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M70:M84">
-    <cfRule type="expression" dxfId="55" priority="17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="18">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="19">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:H84">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="14">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70:L84">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="11" priority="9">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="12">
+    <cfRule type="expression" dxfId="8" priority="12">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J70:J84">
-    <cfRule type="expression" dxfId="43" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N70:N84">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$B70="female"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B70="male"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$B70="male-both"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$B70="female-both"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC1280C-2777-4620-801B-7C4757040787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537555CF-B85D-434A-B996-7F154699F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="ldsc" sheetId="1" r:id="rId1"/>
@@ -18369,11 +18369,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A9A47-A2F7-4471-ADCA-ACE04E2D1D27}">
   <dimension ref="A3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18483,9 +18483,6 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
@@ -18497,9 +18494,6 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
@@ -18511,6 +18505,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="H10">
         <v>1</v>
       </c>
@@ -18569,6 +18566,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="H15">
         <v>1</v>
       </c>
@@ -18622,9 +18622,6 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
@@ -18636,9 +18633,6 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
@@ -18716,9 +18710,6 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
@@ -18728,9 +18719,6 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28">
         <v>1</v>
       </c>
     </row>
@@ -19724,11 +19712,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}">
   <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="15" ySplit="3" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="15" ySplit="3" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -43018,7 +43006,7 @@
   <dimension ref="A2:N129"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M126" sqref="M126"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537555CF-B85D-434A-B996-7F154699F23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19D99C-96F5-405F-ADB0-F53A725E9D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="ldsc" sheetId="1" r:id="rId1"/>
@@ -351,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -511,12 +511,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -566,6 +575,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -18369,11 +18382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73A9A47-A2F7-4471-ADCA-ACE04E2D1D27}">
   <dimension ref="A3:I33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18483,6 +18496,9 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
@@ -18494,6 +18510,9 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
@@ -18522,6 +18541,9 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
@@ -18544,6 +18566,9 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="28" t="s">
@@ -18555,6 +18580,9 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
@@ -18583,6 +18611,9 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
@@ -18594,6 +18625,9 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
@@ -18666,6 +18700,9 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
@@ -18677,6 +18714,9 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
@@ -18699,6 +18739,9 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
@@ -18710,6 +18753,9 @@
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
@@ -18721,6 +18767,9 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
@@ -18732,17 +18781,25 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="38">
         <v>1</v>
       </c>
-      <c r="D30">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38">
         <v>1</v>
       </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
@@ -19712,7 +19769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}">
   <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="3" topLeftCell="P34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9EEF51-C616-4B04-8C21-01A0E5F73BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253A0B3-EB76-4024-A3EA-84534769885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="phenotypes" sheetId="12" r:id="rId1"/>
@@ -16560,7 +16560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A7214-04C0-41AD-9983-1B492084134C}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -28480,11 +28480,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
-  <dimension ref="A1:G84"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28526,7 +28527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -28595,7 +28596,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30850</v>
       </c>
@@ -28618,7 +28619,7 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30850</v>
       </c>
@@ -28687,7 +28688,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>21001</v>
       </c>
@@ -28710,7 +28711,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21001</v>
       </c>
@@ -28733,7 +28734,7 @@
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30010</v>
       </c>
@@ -28756,7 +28757,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30010</v>
       </c>
@@ -28802,7 +28803,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>30770</v>
       </c>
@@ -28825,7 +28826,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>30770</v>
       </c>
@@ -28848,7 +28849,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30770</v>
       </c>
@@ -28871,7 +28872,7 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>30700</v>
       </c>
@@ -28893,8 +28894,12 @@
       <c r="G19">
         <v>2.9600000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <f>D19-D20</f>
+        <v>-2.5200000000000014E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30700</v>
       </c>
@@ -28917,7 +28922,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30700</v>
       </c>
@@ -28940,7 +28945,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21002</v>
       </c>
@@ -28963,7 +28968,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21002</v>
       </c>
@@ -28986,7 +28991,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21002</v>
       </c>
@@ -29009,7 +29014,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>30680</v>
       </c>
@@ -29032,7 +29037,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>30680</v>
       </c>
@@ -29055,7 +29060,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30680</v>
       </c>
@@ -29078,7 +29083,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>30860</v>
       </c>
@@ -29101,7 +29106,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30860</v>
       </c>
@@ -29124,7 +29129,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30860</v>
       </c>
@@ -29147,7 +29152,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30670</v>
       </c>
@@ -29170,7 +29175,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30670</v>
       </c>
@@ -29216,7 +29221,7 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>30830</v>
       </c>
@@ -29239,7 +29244,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30830</v>
       </c>
@@ -29308,7 +29313,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>23100</v>
       </c>
@@ -29331,7 +29336,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>23100</v>
       </c>
@@ -29354,7 +29359,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>20151</v>
       </c>
@@ -29377,7 +29382,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20151</v>
       </c>
@@ -29446,7 +29451,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>30750</v>
       </c>
@@ -29469,7 +29474,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>30750</v>
       </c>
@@ -29492,7 +29497,7 @@
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>30880</v>
       </c>
@@ -29515,7 +29520,7 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>30880</v>
       </c>
@@ -29584,7 +29589,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>23125</v>
       </c>
@@ -29607,7 +29612,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>23125</v>
       </c>
@@ -29653,7 +29658,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>23121</v>
       </c>
@@ -29676,7 +29681,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>23121</v>
       </c>
@@ -29699,7 +29704,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>30210</v>
       </c>
@@ -29722,7 +29727,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>30210</v>
       </c>
@@ -29768,7 +29773,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>30180</v>
       </c>
@@ -29791,7 +29796,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>30180</v>
       </c>
@@ -29837,7 +29842,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>48</v>
       </c>
@@ -29860,7 +29865,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>48</v>
       </c>
@@ -29929,7 +29934,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>49</v>
       </c>
@@ -29952,7 +29957,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49</v>
       </c>
@@ -29998,7 +30003,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -30021,7 +30026,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -30067,7 +30072,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -30090,7 +30095,7 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -30136,7 +30141,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4079</v>
       </c>
@@ -30159,7 +30164,7 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4079</v>
       </c>
@@ -30205,7 +30210,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4080</v>
       </c>
@@ -30228,7 +30233,7 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4080</v>
       </c>
@@ -30274,7 +30279,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>23479</v>
       </c>
@@ -30297,7 +30302,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23479</v>
       </c>
@@ -30343,7 +30348,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>102</v>
       </c>
@@ -30366,7 +30371,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>102</v>
       </c>
@@ -30391,6 +30396,11 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:F84" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="both_sex"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F84">
       <sortCondition descending="1" ref="F3:F84"/>
     </sortState>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6253A0B3-EB76-4024-A3EA-84534769885C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A270986-C8CD-42CA-B931-CBBFFB1F97F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="phenotypes" sheetId="12" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'PGS (4)'!$A$3:$N$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PGS (5)'!$A$3:$N$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PGS_ave!$A$3:$N$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phenotypes!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="107">
   <si>
     <t>Phenotype</t>
   </si>
@@ -372,6 +373,9 @@
   <si>
     <t>female N</t>
   </si>
+  <si>
+    <t>sex diff ldsc</t>
+  </si>
 </sst>
 </file>
 
@@ -620,7 +624,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -665,6 +669,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16558,10 +16563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1A7214-04C0-41AD-9983-1B492084134C}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16571,19 +16576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -16592,7 +16597,7 @@
         <v>80</v>
       </c>
       <c r="C2">
-        <f>SUM(D2:E2)</f>
+        <f t="shared" ref="C2:C28" si="0">SUM(D2:E2)</f>
         <v>294338</v>
       </c>
       <c r="D2">
@@ -16607,7 +16612,7 @@
         <v>81</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C28" si="0">SUM(D3:E3)</f>
+        <f t="shared" si="0"/>
         <v>331074</v>
       </c>
       <c r="D3">
@@ -16637,7 +16642,7 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <f>SUM(D5:E5)</f>
+        <f t="shared" si="0"/>
         <v>336020</v>
       </c>
       <c r="D5">
@@ -16992,8 +16997,16 @@
         <v>180420</v>
       </c>
     </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{0E1A7214-04C0-41AD-9983-1B492084134C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17027,24 +17040,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -21408,24 +21421,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -28484,8 +28497,8 @@
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28578,19 +28591,19 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6">
-        <v>0.10630000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E6">
-        <v>6.8999999999999999E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F6">
-        <v>0.98</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G6">
         <v>8.2000000000000007E-3</v>
@@ -28647,19 +28660,19 @@
         <v>30850</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9">
-        <v>0.1973</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E9">
-        <v>7.7000000000000002E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F9">
-        <v>0.9728</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="G9">
         <v>5.21E-2</v>
@@ -28670,19 +28683,19 @@
         <v>21001</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.42020000000000002</v>
+        <v>0.158</v>
       </c>
       <c r="E10">
-        <v>1.7399999999999999E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F10">
-        <v>0.97230000000000005</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="G10">
         <v>1.37E-2</v>
@@ -28785,19 +28798,19 @@
         <v>30010</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15">
-        <v>0.1065</v>
+        <v>0.157</v>
       </c>
       <c r="E15">
-        <v>1.11E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F15">
-        <v>0.96630000000000005</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="G15">
         <v>2.01E-2</v>
@@ -28854,19 +28867,19 @@
         <v>30770</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>0.1137</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E18">
-        <v>7.3000000000000001E-3</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="F18">
-        <v>0.96619999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="G18">
         <v>1.9199999999999998E-2</v>
@@ -28927,19 +28940,19 @@
         <v>30700</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
       <c r="D21">
-        <v>0.1328</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="E21">
-        <v>1.09E-2</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="F21">
-        <v>0.96589999999999998</v>
+        <v>0.88980000000000004</v>
       </c>
       <c r="G21">
         <v>2.9600000000000001E-2</v>
@@ -28950,19 +28963,19 @@
         <v>21002</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>0.1857</v>
+        <v>0.2049</v>
       </c>
       <c r="E22">
-        <v>1.38E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F22">
-        <v>0.95509999999999995</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="G22">
         <v>1.3899999999999999E-2</v>
@@ -29065,19 +29078,19 @@
         <v>30680</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27">
-        <v>0.12839999999999999</v>
+        <v>0.1951</v>
       </c>
       <c r="E27">
-        <v>8.2000000000000007E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F27">
-        <v>0.94979999999999998</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="G27">
         <v>2.9499999999999998E-2</v>
@@ -29134,19 +29147,19 @@
         <v>30860</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30">
-        <v>0.2316</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="E30">
-        <v>8.9999999999999993E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F30">
-        <v>0.9466</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="G30">
         <v>2.69E-2</v>
@@ -29203,19 +29216,19 @@
         <v>30670</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="D33">
-        <v>0.1313</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="E33">
-        <v>9.5999999999999992E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F33">
-        <v>0.94220000000000004</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="G33">
         <v>3.3599999999999998E-2</v>
@@ -29272,19 +29285,19 @@
         <v>30830</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>33</v>
       </c>
       <c r="D36">
-        <v>0.13400000000000001</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="E36">
-        <v>5.4999999999999997E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F36">
-        <v>0.93730000000000002</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="G36">
         <v>2.9499999999999998E-2</v>
@@ -29295,19 +29308,19 @@
         <v>23100</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37">
-        <v>0.2387</v>
+        <v>0.21829999999999999</v>
       </c>
       <c r="E37">
-        <v>8.6E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F37">
-        <v>0.9365</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="G37">
         <v>1.44E-2</v>
@@ -29410,19 +29423,19 @@
         <v>20151</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
       </c>
       <c r="D42">
-        <v>0.23169999999999999</v>
+        <v>0.1278</v>
       </c>
       <c r="E42">
-        <v>8.9999999999999993E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F42">
-        <v>0.93269999999999997</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G42">
         <v>2.0500000000000001E-2</v>
@@ -29548,19 +29561,19 @@
         <v>30880</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
         <v>33</v>
       </c>
       <c r="D48">
-        <v>0.1278</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="E48">
-        <v>5.4000000000000003E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F48">
-        <v>0.92410000000000003</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="G48">
         <v>3.1099999999999999E-2</v>
@@ -29571,19 +29584,19 @@
         <v>23125</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49">
-        <v>0.21829999999999999</v>
+        <v>0.2387</v>
       </c>
       <c r="E49">
-        <v>7.1999999999999998E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="F49">
-        <v>0.91349999999999998</v>
+        <v>0.9365</v>
       </c>
       <c r="G49">
         <v>1.44E-2</v>
@@ -29640,19 +29653,19 @@
         <v>23121</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52">
-        <v>9.1800000000000007E-2</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E52">
-        <v>5.7999999999999996E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F52">
-        <v>0.91080000000000005</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="G52">
         <v>1.38E-2</v>
@@ -29755,19 +29768,19 @@
         <v>30210</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
       </c>
       <c r="D57">
-        <v>0.19689999999999999</v>
+        <v>0.1313</v>
       </c>
       <c r="E57">
-        <v>6.7000000000000002E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F57">
-        <v>0.89629999999999999</v>
+        <v>0.94220000000000004</v>
       </c>
       <c r="G57">
         <v>2.4899999999999999E-2</v>
@@ -29824,19 +29837,19 @@
         <v>30180</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
       </c>
       <c r="D60">
-        <v>0.13619999999999999</v>
+        <v>0.2316</v>
       </c>
       <c r="E60">
-        <v>8.2000000000000007E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F60">
-        <v>0.89559999999999995</v>
+        <v>0.9466</v>
       </c>
       <c r="G60">
         <v>2.2499999999999999E-2</v>
@@ -29893,19 +29906,19 @@
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
       </c>
       <c r="D63">
-        <v>0.1951</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="E63">
-        <v>7.1000000000000004E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F63">
-        <v>0.89290000000000003</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="G63">
         <v>1.7000000000000001E-2</v>
@@ -29916,19 +29929,19 @@
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
       </c>
       <c r="D64">
-        <v>0.2049</v>
+        <v>0.1857</v>
       </c>
       <c r="E64">
-        <v>1.43E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F64">
-        <v>0.89090000000000003</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="G64">
         <v>1.6400000000000001E-2</v>
@@ -29985,19 +29998,19 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
       </c>
       <c r="D67">
-        <v>9.7699999999999995E-2</v>
+        <v>0.1328</v>
       </c>
       <c r="E67">
-        <v>5.5999999999999999E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F67">
-        <v>0.88980000000000004</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="G67">
         <v>2.52E-2</v>
@@ -30054,19 +30067,19 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
       </c>
       <c r="D70">
-        <v>0.16800000000000001</v>
+        <v>0.1137</v>
       </c>
       <c r="E70">
-        <v>2.4899999999999999E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="F70">
-        <v>0.87</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="G70">
         <v>2.69E-2</v>
@@ -30123,19 +30136,19 @@
         <v>4079</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
       </c>
       <c r="D73">
-        <v>0.157</v>
+        <v>0.1065</v>
       </c>
       <c r="E73">
-        <v>2.69E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F73">
-        <v>0.86709999999999998</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="G73">
         <v>2.7400000000000001E-2</v>
@@ -30192,19 +30205,19 @@
         <v>4080</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
       </c>
       <c r="D76">
-        <v>0.158</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="E76">
-        <v>5.3E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="F76">
-        <v>0.75170000000000003</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="G76">
         <v>2.53E-2</v>
@@ -30261,19 +30274,19 @@
         <v>23479</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
       </c>
       <c r="D79">
-        <v>0.12820000000000001</v>
+        <v>0.1973</v>
       </c>
       <c r="E79">
-        <v>7.1999999999999998E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F79">
-        <v>0.63219999999999998</v>
+        <v>0.9728</v>
       </c>
       <c r="G79">
         <v>3.1E-2</v>
@@ -30330,19 +30343,19 @@
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82">
-        <v>8.5000000000000006E-2</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="E82">
-        <v>1.1299999999999999E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F82">
-        <v>1.12E-2</v>
+        <v>0.98</v>
       </c>
       <c r="G82">
         <v>2.5999999999999999E-2</v>
@@ -30401,8 +30414,8 @@
         <filter val="both_sex"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F84">
-      <sortCondition descending="1" ref="F3:F84"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:F82">
+      <sortCondition ref="F3:F84"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30417,7 +30430,7 @@
       <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A30"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30429,6 +30442,7 @@
     <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -30456,7 +30470,9 @@
       <c r="H3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -30471,6 +30487,9 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
       <c r="F4">
         <v>1</v>
       </c>
@@ -30478,6 +30497,9 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
@@ -30494,6 +30516,9 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
@@ -30501,6 +30526,9 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
@@ -30517,10 +30545,16 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
@@ -30537,10 +30571,16 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
@@ -30557,10 +30597,16 @@
       <c r="D8">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
@@ -30577,10 +30623,16 @@
       <c r="D9">
         <v>1</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
@@ -30597,6 +30649,9 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10">
         <v>1</v>
       </c>
@@ -30604,6 +30659,9 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
@@ -30620,10 +30678,16 @@
       <c r="D11">
         <v>1</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
@@ -30640,10 +30704,16 @@
       <c r="D12">
         <v>1</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
@@ -30660,10 +30730,16 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
     </row>
@@ -30680,10 +30756,16 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
     </row>
@@ -30700,6 +30782,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>1</v>
       </c>
@@ -30707,6 +30792,9 @@
         <v>1</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
@@ -30723,14 +30811,20 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>19</v>
       </c>
@@ -30743,14 +30837,20 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -30763,6 +30863,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
       <c r="F18">
         <v>1</v>
       </c>
@@ -30772,8 +30875,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>21</v>
       </c>
@@ -30786,14 +30892,20 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
@@ -30806,14 +30918,20 @@
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
@@ -30826,14 +30944,20 @@
       <c r="D21">
         <v>1</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>24</v>
       </c>
@@ -30846,14 +30970,20 @@
       <c r="D22">
         <v>1</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>25</v>
       </c>
@@ -30866,14 +30996,20 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>26</v>
       </c>
@@ -30886,14 +31022,20 @@
       <c r="D24">
         <v>1</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>27</v>
       </c>
@@ -30906,14 +31048,20 @@
       <c r="D25">
         <v>1</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>28</v>
       </c>
@@ -30926,34 +31074,43 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
@@ -30966,14 +31123,20 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>31</v>
       </c>
@@ -30986,14 +31149,20 @@
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>32</v>
       </c>
@@ -31006,7 +31175,9 @@
       <c r="D30" s="35">
         <v>1</v>
       </c>
-      <c r="E30" s="35"/>
+      <c r="E30" s="35">
+        <v>1</v>
+      </c>
       <c r="F30" s="35">
         <v>1</v>
       </c>
@@ -31014,13 +31185,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="35"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>64</v>
       </c>
@@ -32509,24 +32683,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -37850,24 +38024,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -42381,24 +42555,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -46858,24 +47032,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBE8E8-F55B-424F-8E59-62425E3D3CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705BD9A5-3229-4B7B-BC4B-404FC87B13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="4" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="phenotypes" sheetId="12" r:id="rId1"/>
@@ -523,8 +523,8 @@
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -809,6 +809,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,8 +820,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -16707,7 +16707,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17140,7 +17140,10 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <f>AVERAGE(C2:C28)</f>
+        <v>318413.03703703702</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
@@ -18117,24 +18120,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -23458,24 +23461,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -27989,24 +27992,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -32466,24 +32469,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -37027,24 +37030,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -41408,24 +41411,24 @@
     <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="38" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15" t="s">
@@ -48480,12 +48483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <pane ySplit="3" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -48532,25 +48534,25 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>0.06</v>
+        <v>0.1137</v>
       </c>
       <c r="E4">
-        <v>6.7999999999999996E-3</v>
+        <v>7.3000000000000001E-3</v>
       </c>
       <c r="F4">
-        <v>1.12E-2</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="G4">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -48558,13 +48560,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>0.12189999999999999</v>
+        <v>0.1118</v>
       </c>
       <c r="E5">
-        <v>9.5999999999999992E-3</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="F5">
         <v>0.96619999999999995</v>
@@ -48573,24 +48575,24 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="E6">
-        <v>1.1299999999999999E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F6">
-        <v>1.12E-2</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="G6">
         <v>8.2000000000000007E-3</v>
@@ -48601,25 +48603,25 @@
         <v>30850</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>0.18210000000000001</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="E7">
-        <v>1.3100000000000001E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F7">
-        <v>0.63219999999999998</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="G7">
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30850</v>
       </c>
@@ -48627,13 +48629,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>0.27739999999999998</v>
+        <v>0.24329999999999999</v>
       </c>
       <c r="E8">
-        <v>1.2500000000000001E-2</v>
+        <v>1.01E-2</v>
       </c>
       <c r="F8">
         <v>0.93269999999999997</v>
@@ -48642,47 +48644,47 @@
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30850</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>0.12820000000000001</v>
+        <v>0.27739999999999998</v>
       </c>
       <c r="E9">
-        <v>7.1999999999999998E-3</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>0.63219999999999998</v>
+        <v>0.93269999999999997</v>
       </c>
       <c r="G9">
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21001</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
       </c>
       <c r="D10">
-        <v>0.158</v>
+        <v>0.2316</v>
       </c>
       <c r="E10">
-        <v>5.3E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="F10">
-        <v>0.75170000000000003</v>
+        <v>0.9466</v>
       </c>
       <c r="G10">
         <v>1.37E-2</v>
@@ -48693,25 +48695,25 @@
         <v>21001</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>0.18659999999999999</v>
+        <v>0.255</v>
       </c>
       <c r="E11">
-        <v>9.1000000000000004E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F11">
-        <v>0.75170000000000003</v>
+        <v>0.9466</v>
       </c>
       <c r="G11">
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21001</v>
       </c>
@@ -48739,25 +48741,25 @@
         <v>30010</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>0.17080000000000001</v>
+        <v>0.23080000000000001</v>
       </c>
       <c r="E13">
-        <v>2.9000000000000001E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="F13">
-        <v>0.86709999999999998</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G13">
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30010</v>
       </c>
@@ -48765,13 +48767,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>0.25829999999999997</v>
+        <v>0.24379999999999999</v>
       </c>
       <c r="E14">
-        <v>1.0500000000000001E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F14">
         <v>0.92410000000000003</v>
@@ -48780,24 +48782,24 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>30010</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>0.157</v>
+        <v>0.25829999999999997</v>
       </c>
       <c r="E15">
-        <v>2.69E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>0.86709999999999998</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G15">
         <v>2.01E-2</v>
@@ -48808,25 +48810,25 @@
         <v>30770</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>0.22220000000000001</v>
+        <v>0.1065</v>
       </c>
       <c r="E16">
-        <v>4.4400000000000002E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F16">
-        <v>0.87</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="G16">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>30770</v>
       </c>
@@ -48834,13 +48836,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>0.1236</v>
+        <v>0.1082</v>
       </c>
       <c r="E17">
-        <v>1.5800000000000002E-2</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F17">
         <v>0.96630000000000005</v>
@@ -48849,24 +48851,24 @@
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30770</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>0.16800000000000001</v>
+        <v>0.1236</v>
       </c>
       <c r="E18">
-        <v>2.4899999999999999E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F18">
-        <v>0.87</v>
+        <v>0.96630000000000005</v>
       </c>
       <c r="G18">
         <v>1.9199999999999998E-2</v>
@@ -48880,13 +48882,13 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>0.1321</v>
+        <v>9.7699999999999995E-2</v>
       </c>
       <c r="E19">
-        <v>8.0000000000000002E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="F19">
         <v>0.88980000000000004</v>
@@ -48895,7 +48897,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30700</v>
       </c>
@@ -48903,13 +48905,13 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>9.3299999999999994E-2</v>
+        <v>0.1321</v>
       </c>
       <c r="E20">
-        <v>7.1999999999999998E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="F20">
         <v>0.88980000000000004</v>
@@ -48918,7 +48920,7 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30700</v>
       </c>
@@ -48926,13 +48928,13 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>9.7699999999999995E-2</v>
+        <v>9.3299999999999994E-2</v>
       </c>
       <c r="E21">
-        <v>5.5999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F21">
         <v>0.88980000000000004</v>
@@ -48941,24 +48943,24 @@
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21002</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
       </c>
       <c r="D22">
-        <v>0.2049</v>
+        <v>0.1278</v>
       </c>
       <c r="E22">
-        <v>1.43E-2</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="F22">
-        <v>0.89090000000000003</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G22">
         <v>1.3899999999999999E-2</v>
@@ -48969,25 +48971,25 @@
         <v>21002</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
       <c r="D23">
-        <v>0.20610000000000001</v>
+        <v>0.16089999999999999</v>
       </c>
       <c r="E23">
-        <v>1.54E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="F23">
-        <v>0.89090000000000003</v>
+        <v>0.92410000000000003</v>
       </c>
       <c r="G23">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21002</v>
       </c>
@@ -49015,25 +49017,25 @@
         <v>30680</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25">
-        <v>0.2157</v>
+        <v>0.1328</v>
       </c>
       <c r="E25">
-        <v>8.3999999999999995E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="F25">
-        <v>0.89290000000000003</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="G25">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>30680</v>
       </c>
@@ -49041,13 +49043,13 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>0.15010000000000001</v>
+        <v>0.1249</v>
       </c>
       <c r="E26">
-        <v>1.3100000000000001E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="F26">
         <v>0.96589999999999998</v>
@@ -49056,24 +49058,24 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30680</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>0.1951</v>
+        <v>0.15010000000000001</v>
       </c>
       <c r="E27">
-        <v>7.1000000000000004E-3</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>0.89290000000000003</v>
+        <v>0.96589999999999998</v>
       </c>
       <c r="G27">
         <v>2.9499999999999998E-2</v>
@@ -49084,25 +49086,25 @@
         <v>30860</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>0.15129999999999999</v>
+        <v>0.1973</v>
       </c>
       <c r="E28">
-        <v>9.7999999999999997E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="F28">
-        <v>0.89559999999999995</v>
+        <v>0.9728</v>
       </c>
       <c r="G28">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30860</v>
       </c>
@@ -49110,13 +49112,13 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>0.21199999999999999</v>
+        <v>0.21260000000000001</v>
       </c>
       <c r="E29">
-        <v>1.1299999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="F29">
         <v>0.9728</v>
@@ -49125,24 +49127,24 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30860</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30">
-        <v>0.13619999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E30">
-        <v>8.2000000000000007E-3</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F30">
-        <v>0.89559999999999995</v>
+        <v>0.9728</v>
       </c>
       <c r="G30">
         <v>2.69E-2</v>
@@ -49153,25 +49155,25 @@
         <v>30670</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>0.2077</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="E31">
-        <v>7.7999999999999996E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F31">
-        <v>0.89629999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G31">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30670</v>
       </c>
@@ -49179,10 +49181,10 @@
         <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>0.111</v>
+        <v>0.1148</v>
       </c>
       <c r="E32">
         <v>8.8000000000000005E-3</v>
@@ -49194,24 +49196,24 @@
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30670</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>0.19689999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="E33">
-        <v>6.7000000000000002E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="F33">
-        <v>0.89629999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G33">
         <v>3.3599999999999998E-2</v>
@@ -49222,25 +49224,25 @@
         <v>30830</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>0.10390000000000001</v>
+        <v>0.1951</v>
       </c>
       <c r="E34">
-        <v>6.7999999999999996E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F34">
-        <v>0.91080000000000005</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="G34">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>30830</v>
       </c>
@@ -49248,13 +49250,13 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>0.21590000000000001</v>
+        <v>0.2157</v>
       </c>
       <c r="E35">
-        <v>1.0200000000000001E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="F35">
         <v>0.89290000000000003</v>
@@ -49263,47 +49265,47 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>30830</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>9.1800000000000007E-2</v>
+        <v>0.21590000000000001</v>
       </c>
       <c r="E36">
-        <v>5.7999999999999996E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>0.91080000000000005</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="G36">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>23100</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37">
-        <v>0.21829999999999999</v>
+        <v>0.2049</v>
       </c>
       <c r="E37">
-        <v>7.1999999999999998E-3</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F37">
-        <v>0.91349999999999998</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="G37">
         <v>1.44E-2</v>
@@ -49314,25 +49316,25 @@
         <v>23100</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38">
-        <v>0.2354</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="E38">
-        <v>8.3999999999999995E-3</v>
+        <v>1.54E-2</v>
       </c>
       <c r="F38">
-        <v>0.91349999999999998</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="G38">
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>23100</v>
       </c>
@@ -49360,25 +49362,25 @@
         <v>20151</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>0.24379999999999999</v>
+        <v>0.1313</v>
       </c>
       <c r="E40">
-        <v>8.8000000000000005E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F40">
-        <v>0.92410000000000003</v>
+        <v>0.94220000000000004</v>
       </c>
       <c r="G40">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20151</v>
       </c>
@@ -49386,13 +49388,13 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41">
-        <v>0.13059999999999999</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F41">
         <v>0.94220000000000004</v>
@@ -49401,47 +49403,47 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>20151</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>0.1278</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="E42">
-        <v>5.4000000000000003E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>0.92410000000000003</v>
+        <v>0.94220000000000004</v>
       </c>
       <c r="G42">
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>30750</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
       <c r="D43">
-        <v>0.23080000000000001</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="E43">
-        <v>7.7999999999999996E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F43">
-        <v>0.92410000000000003</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="G43">
         <v>3.1600000000000003E-2</v>
@@ -49452,25 +49454,25 @@
         <v>30750</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44">
-        <v>0.16089999999999999</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="E44">
-        <v>8.0999999999999996E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F44">
-        <v>0.92410000000000003</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="G44">
         <v>3.1600000000000003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>30750</v>
       </c>
@@ -49498,25 +49500,25 @@
         <v>30880</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46">
-        <v>0.24329999999999999</v>
+        <v>0.1857</v>
       </c>
       <c r="E46">
-        <v>1.01E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F46">
-        <v>0.93269999999999997</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="G46">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>30880</v>
       </c>
@@ -49524,13 +49526,13 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47">
-        <v>0.1862</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="E47">
-        <v>1.5800000000000002E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F47">
         <v>0.95509999999999995</v>
@@ -49539,47 +49541,47 @@
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>30880</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D48">
-        <v>0.23169999999999999</v>
+        <v>0.1862</v>
       </c>
       <c r="E48">
-        <v>8.9999999999999993E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F48">
-        <v>0.93269999999999997</v>
+        <v>0.95509999999999995</v>
       </c>
       <c r="G48">
         <v>3.1099999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>23125</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49">
-        <v>0.2387</v>
+        <v>0.157</v>
       </c>
       <c r="E49">
-        <v>8.6E-3</v>
+        <v>2.69E-2</v>
       </c>
       <c r="F49">
-        <v>0.9365</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="G49">
         <v>1.44E-2</v>
@@ -49590,25 +49592,25 @@
         <v>23125</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50">
-        <v>0.24660000000000001</v>
+        <v>0.17080000000000001</v>
       </c>
       <c r="E50">
-        <v>9.2999999999999992E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F50">
-        <v>0.9365</v>
+        <v>0.86709999999999998</v>
       </c>
       <c r="G50">
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>23125</v>
       </c>
@@ -49631,24 +49633,24 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>23121</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52">
-        <v>0.13400000000000001</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="E52">
-        <v>5.4999999999999997E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="F52">
-        <v>0.93730000000000002</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="G52">
         <v>1.38E-2</v>
@@ -49659,25 +49661,25 @@
         <v>23121</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53">
-        <v>0.15909999999999999</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="E53">
-        <v>7.9000000000000008E-3</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F53">
-        <v>0.93730000000000002</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="G53">
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>23121</v>
       </c>
@@ -49705,25 +49707,25 @@
         <v>30210</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
-        <v>0.14879999999999999</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="E55">
-        <v>1.11E-2</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="F55">
-        <v>0.94220000000000004</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="G55">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>30210</v>
       </c>
@@ -49731,13 +49733,13 @@
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>0.1222</v>
+        <v>0.15909999999999999</v>
       </c>
       <c r="E56">
-        <v>6.7999999999999996E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F56">
         <v>0.93730000000000002</v>
@@ -49746,24 +49748,24 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>30210</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D57">
-        <v>0.1313</v>
+        <v>0.1222</v>
       </c>
       <c r="E57">
-        <v>9.5999999999999992E-3</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F57">
-        <v>0.94220000000000004</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="G57">
         <v>2.4899999999999999E-2</v>
@@ -49774,25 +49776,25 @@
         <v>30180</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>0.255</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E58">
-        <v>1.0999999999999999E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F58">
-        <v>0.9466</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G58">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>30180</v>
       </c>
@@ -49800,13 +49802,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59">
-        <v>0.1706</v>
+        <v>0.06</v>
       </c>
       <c r="E59">
-        <v>2.1999999999999999E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F59">
         <v>1.12E-2</v>
@@ -49815,24 +49817,24 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>30180</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D60">
-        <v>0.2316</v>
+        <v>0.1706</v>
       </c>
       <c r="E60">
-        <v>8.9999999999999993E-3</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="F60">
-        <v>0.9466</v>
+        <v>1.12E-2</v>
       </c>
       <c r="G60">
         <v>2.2499999999999999E-2</v>
@@ -49846,13 +49848,13 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D61">
-        <v>0.1275</v>
+        <v>0.12839999999999999</v>
       </c>
       <c r="E61">
-        <v>8.5000000000000006E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F61">
         <v>0.94979999999999998</v>
@@ -49861,7 +49863,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>48</v>
       </c>
@@ -49869,13 +49871,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D62">
-        <v>0.13719999999999999</v>
+        <v>0.1275</v>
       </c>
       <c r="E62">
-        <v>1.11E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="F62">
         <v>0.94979999999999998</v>
@@ -49884,7 +49886,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>48</v>
       </c>
@@ -49892,13 +49894,13 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>0.12839999999999999</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="E63">
-        <v>8.2000000000000007E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F63">
         <v>0.94979999999999998</v>
@@ -49907,24 +49909,24 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
       </c>
       <c r="D64">
-        <v>0.1857</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="E64">
-        <v>1.38E-2</v>
+        <v>2.4899999999999999E-2</v>
       </c>
       <c r="F64">
-        <v>0.95509999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="G64">
         <v>1.6400000000000001E-2</v>
@@ -49935,25 +49937,25 @@
         <v>49</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
         <v>34</v>
       </c>
       <c r="D65">
-        <v>0.20280000000000001</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="E65">
-        <v>1.5900000000000001E-2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="F65">
-        <v>0.95509999999999995</v>
+        <v>0.87</v>
       </c>
       <c r="G65">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49</v>
       </c>
@@ -49976,24 +49978,24 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
       </c>
       <c r="D67">
-        <v>0.1328</v>
+        <v>9.1800000000000007E-2</v>
       </c>
       <c r="E67">
-        <v>1.09E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F67">
-        <v>0.96589999999999998</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="G67">
         <v>2.52E-2</v>
@@ -50004,25 +50006,25 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>34</v>
       </c>
       <c r="D68">
-        <v>0.1249</v>
+        <v>0.10390000000000001</v>
       </c>
       <c r="E68">
-        <v>1.26E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F68">
-        <v>0.96589999999999998</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="G68">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -50045,24 +50047,24 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
       </c>
       <c r="D70">
-        <v>0.1137</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="E70">
-        <v>7.3000000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="F70">
-        <v>0.96619999999999995</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="G70">
         <v>2.69E-2</v>
@@ -50073,25 +50075,25 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
         <v>34</v>
       </c>
       <c r="D71">
-        <v>0.1118</v>
+        <v>0.2077</v>
       </c>
       <c r="E71">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F71">
-        <v>0.96619999999999995</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="G71">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -50114,24 +50116,24 @@
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4079</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
       </c>
       <c r="D73">
-        <v>0.1065</v>
+        <v>0.158</v>
       </c>
       <c r="E73">
-        <v>1.11E-2</v>
+        <v>5.3E-3</v>
       </c>
       <c r="F73">
-        <v>0.96630000000000005</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="G73">
         <v>2.7400000000000001E-2</v>
@@ -50142,25 +50144,25 @@
         <v>4079</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>34</v>
       </c>
       <c r="D74">
-        <v>0.1082</v>
+        <v>0.18659999999999999</v>
       </c>
       <c r="E74">
-        <v>1.43E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="F74">
-        <v>0.96630000000000005</v>
+        <v>0.75170000000000003</v>
       </c>
       <c r="G74">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4079</v>
       </c>
@@ -50183,24 +50185,24 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4080</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
       </c>
       <c r="D76">
-        <v>0.42020000000000002</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E76">
-        <v>1.7399999999999999E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F76">
-        <v>0.97230000000000005</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="G76">
         <v>2.53E-2</v>
@@ -50211,25 +50213,25 @@
         <v>4080</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>34</v>
       </c>
       <c r="D77">
-        <v>0.43380000000000002</v>
+        <v>0.18210000000000001</v>
       </c>
       <c r="E77">
-        <v>1.9599999999999999E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="F77">
-        <v>0.97230000000000005</v>
+        <v>0.63219999999999998</v>
       </c>
       <c r="G77">
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4080</v>
       </c>
@@ -50252,24 +50254,24 @@
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>23479</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
       </c>
       <c r="D79">
-        <v>0.1973</v>
+        <v>0.2387</v>
       </c>
       <c r="E79">
-        <v>7.7000000000000002E-3</v>
+        <v>8.6E-3</v>
       </c>
       <c r="F79">
-        <v>0.9728</v>
+        <v>0.9365</v>
       </c>
       <c r="G79">
         <v>3.1E-2</v>
@@ -50280,25 +50282,25 @@
         <v>23479</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>34</v>
       </c>
       <c r="D80">
-        <v>0.21260000000000001</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="E80">
-        <v>9.4999999999999998E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="F80">
-        <v>0.9728</v>
+        <v>0.9365</v>
       </c>
       <c r="G80">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23479</v>
       </c>
@@ -50321,24 +50323,24 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>102</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82">
-        <v>0.10630000000000001</v>
+        <v>0.21829999999999999</v>
       </c>
       <c r="E82">
-        <v>6.8999999999999999E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="F82">
-        <v>0.98</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="G82">
         <v>2.5999999999999999E-2</v>
@@ -50349,25 +50351,25 @@
         <v>102</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
         <v>34</v>
       </c>
       <c r="D83">
-        <v>0.1148</v>
+        <v>0.2354</v>
       </c>
       <c r="E83">
-        <v>8.8000000000000005E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="F83">
-        <v>0.98</v>
+        <v>0.91349999999999998</v>
       </c>
       <c r="G83">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>102</v>
       </c>
@@ -50392,13 +50394,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:F84" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="female"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F83">
-      <sortCondition ref="F3:F84"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F84">
+      <sortCondition ref="B3:B84"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50410,7 +50407,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51768,8 +51765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31493E1F-BB1C-4E0A-91DD-0002890B132F}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51819,13 +51816,22 @@
       <c r="B2">
         <v>2.7820000000000001E-2</v>
       </c>
+      <c r="C2">
+        <v>8.4999999999999995E-4</v>
+      </c>
       <c r="D2">
         <v>0.11565</v>
       </c>
-      <c r="G2" s="42">
+      <c r="E2">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="F2">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="G2" s="39">
         <v>6.7810974428574999</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="39">
         <v>6.8732706896667697</v>
       </c>
       <c r="I2" t="str">
@@ -51852,10 +51858,10 @@
       <c r="F3">
         <v>0.625</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="39">
         <v>0.12750184261695599</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="39">
         <v>0.35862030356797397</v>
       </c>
       <c r="I3" t="str">
@@ -51870,13 +51876,22 @@
       <c r="B4">
         <v>2.537E-2</v>
       </c>
+      <c r="C4">
+        <v>2.7399999999999998E-3</v>
+      </c>
       <c r="D4">
         <v>0.19824</v>
       </c>
-      <c r="G4" s="42">
+      <c r="E4">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="G4" s="39">
         <v>9.8691536652983095E-2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>0.33117491137906102</v>
       </c>
       <c r="I4" t="str">
@@ -51903,10 +51918,10 @@
       <c r="F5">
         <v>1.2769999999999999</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="39">
         <v>26.843190824909701</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="39">
         <v>17.9484858893981</v>
       </c>
       <c r="I5" t="str">
@@ -51933,10 +51948,10 @@
       <c r="F6">
         <v>1.1020000000000001</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="39">
         <v>9.4969284623883793E-3</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="39">
         <v>8.0181621164536598E-3</v>
       </c>
       <c r="I6" t="str">
@@ -51951,13 +51966,22 @@
       <c r="B7">
         <v>2.281E-2</v>
       </c>
+      <c r="C7">
+        <v>1.1199999999999999E-3</v>
+      </c>
       <c r="D7">
         <v>4.6719999999999998E-2</v>
       </c>
-      <c r="G7" s="42">
+      <c r="E7">
+        <v>3.31E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.083</v>
+      </c>
+      <c r="G7" s="39">
         <v>189.010159716549</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="39">
         <v>366.61020504239701</v>
       </c>
       <c r="I7" t="str">
@@ -51984,10 +52008,10 @@
       <c r="F8">
         <v>1.387</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="39">
         <v>111.59870059103299</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="39">
         <v>111.714199865122</v>
       </c>
       <c r="I8" t="str">
@@ -52014,10 +52038,10 @@
       <c r="F9">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="39">
         <v>3.2282606278264301</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="39">
         <v>3.79281684352835</v>
       </c>
       <c r="I9" t="str">
@@ -52044,10 +52068,10 @@
       <c r="F10">
         <v>0.78300000000000003</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="39">
         <v>0.27568998097798803</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="39">
         <v>0.54462590609896899</v>
       </c>
       <c r="I10" t="str">
@@ -52062,13 +52086,22 @@
       <c r="B11">
         <v>1.477E-2</v>
       </c>
+      <c r="C11">
+        <v>5.2999999999999998E-4</v>
+      </c>
       <c r="D11">
         <v>7.2989999999999999E-2</v>
       </c>
-      <c r="G11" s="42">
+      <c r="E11">
+        <v>9.1199999999999996E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G11" s="39">
         <v>35.797026782471598</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="39">
         <v>57.557716066284897</v>
       </c>
       <c r="I11" t="str">
@@ -52095,10 +52128,10 @@
       <c r="F12">
         <v>0.98099999999999998</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="39">
         <v>39.989247108443003</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="39">
         <v>46.882111223888003</v>
       </c>
       <c r="I12" t="str">
@@ -52113,13 +52146,22 @@
       <c r="B13">
         <v>5.2850000000000001E-2</v>
       </c>
+      <c r="C13">
+        <v>1.8799999999999999E-3</v>
+      </c>
       <c r="D13">
         <v>0.20161999999999999</v>
       </c>
-      <c r="G13" s="42">
+      <c r="E13">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.47</v>
+      </c>
+      <c r="G13" s="39">
         <v>107.575796014812</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="39">
         <v>58.0598437177024</v>
       </c>
       <c r="I13" t="str">
@@ -52134,13 +52176,22 @@
       <c r="B14">
         <v>5.6270000000000001E-2</v>
       </c>
+      <c r="C14">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D14">
         <v>0.17102000000000001</v>
       </c>
-      <c r="G14" s="42">
+      <c r="E14">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G14" s="39">
         <v>33.502705964156597</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="39">
         <v>30.800910800094599</v>
       </c>
       <c r="I14" t="str">
@@ -52155,13 +52206,22 @@
       <c r="B15">
         <v>1.787E-2</v>
       </c>
+      <c r="C15">
+        <v>3.8999999999999999E-4</v>
+      </c>
       <c r="D15">
         <v>0.14674999999999999</v>
       </c>
-      <c r="G15" s="42">
+      <c r="E15">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.143</v>
+      </c>
+      <c r="G15" s="39">
         <v>54.292075376097401</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="39">
         <v>56.383443062948302</v>
       </c>
       <c r="I15" t="str">
@@ -52176,13 +52236,22 @@
       <c r="B16">
         <v>3.2680000000000001E-2</v>
       </c>
+      <c r="C16">
+        <v>1.2700000000000001E-3</v>
+      </c>
       <c r="D16">
         <v>0.12299</v>
       </c>
-      <c r="G16" s="42">
+      <c r="E16">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="G16" s="39">
         <v>17.002634163220598</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="39">
         <v>16.797001747943</v>
       </c>
       <c r="I16" t="str">
@@ -52197,13 +52266,22 @@
       <c r="B17">
         <v>6.5599999999999999E-3</v>
       </c>
+      <c r="C17">
+        <v>6.0000000000000002E-5</v>
+      </c>
       <c r="D17">
         <v>0.10734</v>
       </c>
-      <c r="G17" s="42">
+      <c r="E17">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.044</v>
+      </c>
+      <c r="G17" s="39">
         <v>121.45773504816</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="39">
         <v>150.80864790923201</v>
       </c>
       <c r="I17" t="str">
@@ -52218,13 +52296,22 @@
       <c r="B18">
         <v>4.2220000000000001E-2</v>
       </c>
+      <c r="C18">
+        <v>2.63E-3</v>
+      </c>
       <c r="D18">
         <v>0.21317</v>
       </c>
-      <c r="G18" s="42">
+      <c r="E18">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.117</v>
+      </c>
+      <c r="G18" s="39">
         <v>0.115136699963165</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="39">
         <v>0.14613975650966701</v>
       </c>
       <c r="I18" t="str">
@@ -52239,13 +52326,22 @@
       <c r="B19">
         <v>3.585E-2</v>
       </c>
-      <c r="D19" s="41">
+      <c r="C19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D19" s="38">
         <v>0.23780000000000001</v>
       </c>
-      <c r="G19" s="42">
+      <c r="E19">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.825</v>
+      </c>
+      <c r="G19" s="39">
         <v>961.18161797502898</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="39">
         <v>283.780475659709</v>
       </c>
       <c r="I19" t="str">
@@ -52260,13 +52356,22 @@
       <c r="B20">
         <v>3.2480000000000002E-2</v>
       </c>
+      <c r="C20">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="D20">
         <v>0.10392</v>
       </c>
-      <c r="G20" s="42">
+      <c r="E20">
+        <v>1.06E-2</v>
+      </c>
+      <c r="F20">
+        <v>1.357</v>
+      </c>
+      <c r="G20" s="39">
         <v>410.63338748341903</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="39">
         <v>342.84346492025099</v>
       </c>
       <c r="I20" t="str">
@@ -52293,10 +52398,10 @@
       <c r="F21">
         <v>0.41199999999999998</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="39">
         <v>0.50776019569808395</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="39">
         <v>13.8783016551504</v>
       </c>
       <c r="I21" t="str">
@@ -52323,10 +52428,10 @@
       <c r="F22">
         <v>1.2310000000000001</v>
       </c>
-      <c r="G22" s="42">
+      <c r="G22" s="39">
         <v>4392.3798933539301</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="39">
         <v>5158.9506311365903</v>
       </c>
       <c r="I22" t="str">
@@ -52341,13 +52446,22 @@
       <c r="B23">
         <v>1.9890000000000001E-2</v>
       </c>
+      <c r="C23">
+        <v>5.9000000000000003E-4</v>
+      </c>
       <c r="D23">
         <v>7.843E-2</v>
       </c>
-      <c r="G23" s="42">
+      <c r="E23">
+        <v>7.11E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G23" s="39">
         <v>1.77336259364217</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="39">
         <v>2.1101771224232801</v>
       </c>
       <c r="I23" t="str">
@@ -52359,16 +52473,25 @@
       <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="38">
         <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="C24">
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="D24">
         <v>0.19203000000000001</v>
       </c>
-      <c r="G24" s="42">
+      <c r="E24">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="F24">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G24" s="39">
         <v>157.474984435571</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="39">
         <v>128.57735321132</v>
       </c>
       <c r="I24" t="str">
@@ -52383,13 +52506,22 @@
       <c r="B25">
         <v>3.7069999999999999E-2</v>
       </c>
+      <c r="C25">
+        <v>1.42E-3</v>
+      </c>
       <c r="D25">
         <v>0.13258</v>
       </c>
-      <c r="G25" s="42">
+      <c r="E25">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="F25">
+        <v>1.196</v>
+      </c>
+      <c r="G25" s="39">
         <v>4.9531546096435904E-3</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>4.2633073991456003E-3</v>
       </c>
       <c r="I25" t="str">
@@ -52404,13 +52536,22 @@
       <c r="B26">
         <v>4.1579999999999999E-2</v>
       </c>
+      <c r="C26">
+        <v>2.3800000000000002E-3</v>
+      </c>
       <c r="D26">
         <v>0.19442000000000001</v>
       </c>
-      <c r="G26" s="42">
+      <c r="E26">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="G26" s="39">
         <v>198.18341265452301</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="39">
         <v>205.69183918448999</v>
       </c>
       <c r="I26" t="str">
@@ -52437,10 +52578,10 @@
       <c r="F27">
         <v>1.292</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="39">
         <v>100.864133581781</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="39">
         <v>67.682601827721697</v>
       </c>
       <c r="I27" t="str">
@@ -52452,16 +52593,25 @@
       <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="38">
         <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="C28">
+        <v>8.4999999999999995E-4</v>
       </c>
       <c r="D28">
         <v>8.702E-2</v>
       </c>
-      <c r="G28" s="42">
+      <c r="E28">
+        <v>6.4099999999999999E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="G28" s="39">
         <v>4.0003916123037397E-3</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="39">
         <v>2.7744439613210901E-3</v>
       </c>
       <c r="I28" t="str">
@@ -52479,8 +52629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E20E973-CCA0-474C-B0DE-20B3B996B0BA}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52529,899 +52679,899 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>0.67938481500706605</v>
+        <v>1.1051605273606</v>
       </c>
       <c r="D2">
-        <v>1.06271235257747</v>
+        <v>1.00206679467154</v>
       </c>
       <c r="E2">
-        <v>5.4995394283456803E-2</v>
+        <v>0.116393716187605</v>
       </c>
       <c r="F2">
-        <v>1.4215487384677501E-2</v>
+        <v>1.4827114478253601E-2</v>
       </c>
       <c r="G2">
-        <v>5.2451833794066698E-2</v>
+        <v>0.117294391546134</v>
       </c>
       <c r="H2">
-        <v>-6.8769143325044704</v>
-      </c>
-      <c r="I2" s="37">
-        <v>3.0581432514639299E-12</v>
+        <v>0.87711865185165705</v>
+      </c>
+      <c r="I2">
+        <v>0.80978890261133896</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J28" si="0">_xlfn.NORM.S.DIST(H2,FALSE)</f>
-        <v>2.1458207675962557E-11</v>
+        <v>0.2715505150177584</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>0.48292841215620902</v>
+        <v>3.20688037966086</v>
       </c>
       <c r="D3">
-        <v>0.74043504887491196</v>
+        <v>2.6859172968443499</v>
       </c>
       <c r="E3">
-        <v>4.4819225337217002E-2</v>
+        <v>0.23502672351214299</v>
       </c>
       <c r="F3">
-        <v>1.4056739963466E-2</v>
+        <v>0.122857186453235</v>
       </c>
       <c r="G3">
-        <v>6.1784381490059E-2</v>
+        <v>0.103147667516773</v>
       </c>
       <c r="H3">
-        <v>-5.6288899134655601</v>
-      </c>
-      <c r="I3" s="37">
-        <v>9.0686552593422508E-9</v>
+        <v>1.88042017089317</v>
+      </c>
+      <c r="I3">
+        <v>0.96997458167547701</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>5.2568993817370052E-8</v>
+        <v>6.8089753292104302E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>0.64127254111840704</v>
+        <v>3.6662193843241901</v>
       </c>
       <c r="D4">
-        <v>0.87155107293918899</v>
+        <v>3.2493566551941102</v>
       </c>
       <c r="E4">
-        <v>4.7930236089655097E-2</v>
+        <v>0.23928498310029001</v>
       </c>
       <c r="F4">
-        <v>1.14483738910485E-2</v>
+        <v>9.9135542474297303E-2</v>
       </c>
       <c r="G4">
-        <v>5.5837008570089601E-2</v>
+        <v>8.1289133429396407E-2</v>
       </c>
       <c r="H4">
-        <v>-4.7319316927962003</v>
-      </c>
-      <c r="I4" s="37">
-        <v>1.1119662835616001E-6</v>
+        <v>1.5782041850727599</v>
+      </c>
+      <c r="I4">
+        <v>0.94274064544215597</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>5.4793323090095727E-6</v>
+        <v>0.11482997095935649</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>77.715106541371597</v>
+        <v>0.70840951225236704</v>
       </c>
       <c r="D5">
-        <v>24.116476029064</v>
+        <v>0.65582094884083897</v>
       </c>
       <c r="E5">
-        <v>13.7220837195275</v>
+        <v>3.87413861463166E-2</v>
       </c>
       <c r="F5">
-        <v>1.19047014345254</v>
+        <v>1.2635950956945001E-2</v>
       </c>
       <c r="G5">
-        <v>0.59080976223036197</v>
+        <v>6.26321645884345E-2</v>
       </c>
       <c r="H5">
-        <v>3.76176951635756</v>
+        <v>1.28029072895117</v>
       </c>
       <c r="I5">
-        <v>0.99991564225640905</v>
+        <v>0.89977854647253996</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>3.3734868790930266E-4</v>
+        <v>0.17578199640136394</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>1.3699295286965201</v>
+        <v>0.96445701487930602</v>
       </c>
       <c r="D6">
-        <v>2.0263447156599299</v>
+        <v>0.82971046369540402</v>
       </c>
       <c r="E6">
-        <v>0.17680319101481401</v>
+        <v>0.17743276629204699</v>
       </c>
       <c r="F6">
-        <v>0.171316660420538</v>
+        <v>2.0646011778603399E-2</v>
       </c>
       <c r="G6">
-        <v>0.104306801251694</v>
+        <v>0.21579626637278099</v>
       </c>
       <c r="H6">
-        <v>-3.1056511078839</v>
+        <v>0.75257045555818003</v>
       </c>
       <c r="I6">
-        <v>9.4930292831481799E-4</v>
+        <v>0.77414596150453296</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>3.2100366156686201E-3</v>
+        <v>0.30055645317916035</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>3.20688037966086</v>
+        <v>1.3699295286965201</v>
       </c>
       <c r="D7">
-        <v>2.6859172968443499</v>
+        <v>2.0263447156599299</v>
       </c>
       <c r="E7">
-        <v>0.23502672351214299</v>
+        <v>0.17680319101481401</v>
       </c>
       <c r="F7">
-        <v>0.122857186453235</v>
+        <v>0.171316660420538</v>
       </c>
       <c r="G7">
-        <v>0.103147667516773</v>
+        <v>0.104306801251694</v>
       </c>
       <c r="H7">
-        <v>1.88042017089317</v>
+        <v>-3.1056511078839</v>
       </c>
       <c r="I7">
-        <v>0.96997458167547701</v>
+        <v>9.4930292831481799E-4</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>6.8089753292104302E-2</v>
+        <v>3.2100366156686201E-3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="C8">
-        <v>1.09332427976756</v>
+        <v>0.67938481500706605</v>
       </c>
       <c r="D8">
-        <v>0.874192943768477</v>
+        <v>1.06271235257747</v>
       </c>
       <c r="E8">
-        <v>0.111819742024304</v>
+        <v>5.4995394283456803E-2</v>
       </c>
       <c r="F8">
-        <v>2.6934759002261999E-2</v>
+        <v>1.4215487384677501E-2</v>
       </c>
       <c r="G8">
-        <v>0.133590286332989</v>
+        <v>5.2451833794066698E-2</v>
       </c>
       <c r="H8">
-        <v>1.87638654102308</v>
-      </c>
-      <c r="I8">
-        <v>0.96969888932860604</v>
+        <v>-6.8769143325044704</v>
+      </c>
+      <c r="I8" s="37">
+        <v>3.0581432514639299E-12</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>6.8607614019537702E-2</v>
+        <v>2.1458207675962557E-11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>3.6662193843241901</v>
+        <v>1.41192469875312</v>
       </c>
       <c r="D9">
-        <v>3.2493566551941102</v>
+        <v>1.1410467200332699</v>
       </c>
       <c r="E9">
-        <v>0.23928498310029001</v>
+        <v>0.19316409661908801</v>
       </c>
       <c r="F9">
-        <v>9.9135542474297303E-2</v>
+        <v>4.2071728469378698E-2</v>
       </c>
       <c r="G9">
-        <v>8.1289133429396407E-2</v>
+        <v>0.175327039849273</v>
       </c>
       <c r="H9">
-        <v>1.5782041850727599</v>
+        <v>1.3540084440115401</v>
       </c>
       <c r="I9">
-        <v>0.94274064544215597</v>
+        <v>0.91213315810863604</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0.11482997095935649</v>
+        <v>0.15951649160940537</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C10">
-        <v>0.91149731765821296</v>
+        <v>1.96992600247178</v>
       </c>
       <c r="D10">
-        <v>1.0607258923735501</v>
+        <v>1.9770065997173301</v>
       </c>
       <c r="E10">
-        <v>9.7587847033395902E-2</v>
+        <v>0.137511809493603</v>
       </c>
       <c r="F10">
-        <v>1.94752083675125E-2</v>
+        <v>3.8847757561501599E-2</v>
       </c>
       <c r="G10">
-        <v>9.3344020636939806E-2</v>
+        <v>7.2258770119914106E-2</v>
       </c>
       <c r="H10">
-        <v>-1.50717026547292</v>
+        <v>-4.95645545395983E-2</v>
       </c>
       <c r="I10">
-        <v>6.5883509899199999E-2</v>
+        <v>0.48023469663852703</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0.12812875300558799</v>
+        <v>0.39845255144303954</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>1.11111910090342</v>
+        <v>1.5546680968175199</v>
       </c>
       <c r="D11">
-        <v>1.0139159553867401</v>
+        <v>1.61479334736309</v>
       </c>
       <c r="E11">
-        <v>6.3085227756349699E-2</v>
+        <v>0.17652156324680601</v>
       </c>
       <c r="F11">
-        <v>2.0611329709145899E-2</v>
+        <v>4.9064515632114003E-2</v>
       </c>
       <c r="G11">
-        <v>6.60872937224041E-2</v>
+        <v>0.11316169293001301</v>
       </c>
       <c r="H11">
-        <v>1.45064248942421</v>
+        <v>-0.32903379881832601</v>
       </c>
       <c r="I11">
-        <v>0.92656028133346302</v>
+        <v>0.37106507066330602</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>0.13930070331776206</v>
+        <v>0.37792097971580879</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>1.41192469875312</v>
+        <v>1.1877724972144399</v>
       </c>
       <c r="D12">
-        <v>1.1410467200332699</v>
+        <v>1.1605655774257599</v>
       </c>
       <c r="E12">
-        <v>0.19316409661908801</v>
+        <v>7.7314810571681894E-2</v>
       </c>
       <c r="F12">
-        <v>4.2071728469378698E-2</v>
+        <v>5.86736931856639E-2</v>
       </c>
       <c r="G12">
-        <v>0.175327039849273</v>
+        <v>8.4351341958738293E-2</v>
       </c>
       <c r="H12">
-        <v>1.3540084440115401</v>
+        <v>0.27791865212285399</v>
       </c>
       <c r="I12">
-        <v>0.91213315810863604</v>
+        <v>0.60946259729544705</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>0.15951649160940537</v>
+        <v>0.38382908301143698</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>0.90758585280036896</v>
+        <v>0.54021145791509895</v>
       </c>
       <c r="D13">
-        <v>1.2507807814832199</v>
+        <v>0.53957340172008295</v>
       </c>
       <c r="E13">
-        <v>0.25020169446606</v>
+        <v>3.3252807219150103E-2</v>
       </c>
       <c r="F13">
-        <v>8.6911313324851594E-2</v>
+        <v>9.7173466786302492E-3</v>
       </c>
       <c r="G13">
-        <v>0.20629281779609701</v>
+        <v>6.4211433344865204E-2</v>
       </c>
       <c r="H13">
-        <v>-1.3300732346065001</v>
+        <v>1.8416030783786501E-2</v>
       </c>
       <c r="I13">
-        <v>9.1747071589603296E-2</v>
+        <v>0.50734651805231401</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>0.16472366973062894</v>
+        <v>0.39887463546197877</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>0.70840951225236704</v>
+        <v>1.09332427976756</v>
       </c>
       <c r="D14">
-        <v>0.65582094884083897</v>
+        <v>0.874192943768477</v>
       </c>
       <c r="E14">
-        <v>3.87413861463166E-2</v>
+        <v>0.111819742024304</v>
       </c>
       <c r="F14">
-        <v>1.2635950956945001E-2</v>
+        <v>2.6934759002261999E-2</v>
       </c>
       <c r="G14">
-        <v>6.26321645884345E-2</v>
+        <v>0.133590286332989</v>
       </c>
       <c r="H14">
-        <v>1.28029072895117</v>
+        <v>1.87638654102308</v>
       </c>
       <c r="I14">
-        <v>0.89977854647253996</v>
+        <v>0.96969888932860604</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0.17578199640136394</v>
+        <v>6.8607614019537702E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>0.408117461299288</v>
+        <v>0.91149731765821296</v>
       </c>
       <c r="D15">
-        <v>0.27199083627426701</v>
+        <v>1.0607258923735501</v>
       </c>
       <c r="E15">
-        <v>0.110691294628428</v>
+        <v>9.7587847033395902E-2</v>
       </c>
       <c r="F15">
-        <v>2.0268107100554E-2</v>
+        <v>1.94752083675125E-2</v>
       </c>
       <c r="G15">
-        <v>0.42204756046661501</v>
+        <v>9.3344020636939806E-2</v>
       </c>
       <c r="H15">
-        <v>1.18584359062024</v>
+        <v>-1.50717026547292</v>
       </c>
       <c r="I15">
-        <v>0.882157963311195</v>
+        <v>6.5883509899199999E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0.19749321613543644</v>
+        <v>0.12812875300558799</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>1.06853182840589</v>
+        <v>1.0630641769489699</v>
       </c>
       <c r="D16">
-        <v>1.2040055954741999</v>
+        <v>0.97692282751739501</v>
       </c>
       <c r="E16">
-        <v>0.116002720929009</v>
+        <v>0.11157786155350601</v>
       </c>
       <c r="F16">
-        <v>2.03174338961465E-2</v>
+        <v>1.65427134084641E-2</v>
       </c>
       <c r="G16">
-        <v>9.7504315826355298E-2</v>
+        <v>0.11569046682521</v>
       </c>
       <c r="H16">
-        <v>-1.1539921716706401</v>
+        <v>0.76217349093998599</v>
       </c>
       <c r="I16">
-        <v>0.12425168919584</v>
+        <v>0.77702176729406602</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>0.20499134928513091</v>
+        <v>0.29837841521163394</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>0.81044749746255595</v>
+        <v>1.1563069426632699</v>
       </c>
       <c r="D17">
-        <v>0.87225987577145603</v>
+        <v>1.2568706504079901</v>
       </c>
       <c r="E17">
-        <v>5.2144991272500003E-2</v>
+        <v>0.106531229629745</v>
       </c>
       <c r="F17">
-        <v>1.34786089400312E-2</v>
+        <v>2.0924311314626E-2</v>
       </c>
       <c r="G17">
-        <v>6.1481405423776697E-2</v>
+        <v>8.6131777491188499E-2</v>
       </c>
       <c r="H17">
-        <v>-1.15261899406418</v>
+        <v>-0.92893918402763997</v>
       </c>
       <c r="I17">
-        <v>0.124533401784731</v>
+        <v>0.17646030232385301</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0.20531624993561101</v>
+        <v>0.25913592784535289</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>0.85973616117963603</v>
+        <v>1.16537669207022</v>
       </c>
       <c r="D18">
-        <v>0.80515793207004305</v>
+        <v>1.29570160671755</v>
       </c>
       <c r="E18">
-        <v>4.9532868021731201E-2</v>
+        <v>0.134806579247915</v>
       </c>
       <c r="F18">
-        <v>1.3153665883334499E-2</v>
+        <v>3.6836606343213403E-2</v>
       </c>
       <c r="G18">
-        <v>6.39448228181487E-2</v>
+        <v>0.107137522486487</v>
       </c>
       <c r="H18">
-        <v>1.06006617226866</v>
+        <v>-0.93881679991817901</v>
       </c>
       <c r="I18">
-        <v>0.855442751989823</v>
+        <v>0.173912405940474</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>0.22745367720643403</v>
+        <v>0.25675652283316441</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>1.16537669207022</v>
+        <v>0.408117461299288</v>
       </c>
       <c r="D19">
-        <v>1.29570160671755</v>
+        <v>0.27199083627426701</v>
       </c>
       <c r="E19">
-        <v>0.134806579247915</v>
+        <v>0.110691294628428</v>
       </c>
       <c r="F19">
-        <v>3.6836606343213403E-2</v>
+        <v>2.0268107100554E-2</v>
       </c>
       <c r="G19">
-        <v>0.107137522486487</v>
+        <v>0.42204756046661501</v>
       </c>
       <c r="H19">
-        <v>-0.93881679991817901</v>
+        <v>1.18584359062024</v>
       </c>
       <c r="I19">
-        <v>0.173912405940474</v>
+        <v>0.882157963311195</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0.25675652283316441</v>
+        <v>0.19749321613543644</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C20">
-        <v>1.1563069426632699</v>
+        <v>0.64127254111840704</v>
       </c>
       <c r="D20">
-        <v>1.2568706504079901</v>
+        <v>0.87155107293918899</v>
       </c>
       <c r="E20">
-        <v>0.106531229629745</v>
+        <v>4.7930236089655097E-2</v>
       </c>
       <c r="F20">
-        <v>2.0924311314626E-2</v>
+        <v>1.14483738910485E-2</v>
       </c>
       <c r="G20">
-        <v>8.6131777491188499E-2</v>
+        <v>5.5837008570089601E-2</v>
       </c>
       <c r="H20">
-        <v>-0.92893918402763997</v>
-      </c>
-      <c r="I20">
-        <v>0.17646030232385301</v>
+        <v>-4.7319316927962003</v>
+      </c>
+      <c r="I20" s="37">
+        <v>1.1119662835616001E-6</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>0.25913592784535289</v>
+        <v>5.4793323090095727E-6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>1.1051605273606</v>
+        <v>77.715106541371597</v>
       </c>
       <c r="D21">
-        <v>1.00206679467154</v>
+        <v>24.116476029064</v>
       </c>
       <c r="E21">
-        <v>0.116393716187605</v>
+        <v>13.7220837195275</v>
       </c>
       <c r="F21">
-        <v>1.4827114478253601E-2</v>
+        <v>1.19047014345254</v>
       </c>
       <c r="G21">
-        <v>0.117294391546134</v>
+        <v>0.59080976223036197</v>
       </c>
       <c r="H21">
-        <v>0.87711865185165705</v>
+        <v>3.76176951635756</v>
       </c>
       <c r="I21">
-        <v>0.80978890261133896</v>
+        <v>0.99991564225640905</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0.2715505150177584</v>
+        <v>3.3734868790930266E-4</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>1.0630641769489699</v>
+        <v>0.90758585280036896</v>
       </c>
       <c r="D22">
-        <v>0.97692282751739501</v>
+        <v>1.2507807814832199</v>
       </c>
       <c r="E22">
-        <v>0.11157786155350601</v>
+        <v>0.25020169446606</v>
       </c>
       <c r="F22">
-        <v>1.65427134084641E-2</v>
+        <v>8.6911313324851594E-2</v>
       </c>
       <c r="G22">
-        <v>0.11569046682521</v>
+        <v>0.20629281779609701</v>
       </c>
       <c r="H22">
-        <v>0.76217349093998599</v>
+        <v>-1.3300732346065001</v>
       </c>
       <c r="I22">
-        <v>0.77702176729406602</v>
+        <v>9.1747071589603296E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0.29837841521163394</v>
+        <v>0.16472366973062894</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>0.96445701487930602</v>
+        <v>1.06853182840589</v>
       </c>
       <c r="D23">
-        <v>0.82971046369540402</v>
+        <v>1.2040055954741999</v>
       </c>
       <c r="E23">
-        <v>0.17743276629204699</v>
+        <v>0.116002720929009</v>
       </c>
       <c r="F23">
-        <v>2.0646011778603399E-2</v>
+        <v>2.03174338961465E-2</v>
       </c>
       <c r="G23">
-        <v>0.21579626637278099</v>
+        <v>9.7504315826355298E-2</v>
       </c>
       <c r="H23">
-        <v>0.75257045555818003</v>
+        <v>-1.1539921716706401</v>
       </c>
       <c r="I23">
-        <v>0.77414596150453296</v>
+        <v>0.12425168919584</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0.30055645317916035</v>
+        <v>0.20499134928513091</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>1.5546680968175199</v>
+        <v>0.85973616117963603</v>
       </c>
       <c r="D24">
-        <v>1.61479334736309</v>
+        <v>0.80515793207004305</v>
       </c>
       <c r="E24">
-        <v>0.17652156324680601</v>
+        <v>4.9532868021731201E-2</v>
       </c>
       <c r="F24">
-        <v>4.9064515632114003E-2</v>
+        <v>1.3153665883334499E-2</v>
       </c>
       <c r="G24">
-        <v>0.11316169293001301</v>
+        <v>6.39448228181487E-2</v>
       </c>
       <c r="H24">
-        <v>-0.32903379881832601</v>
+        <v>1.06006617226866</v>
       </c>
       <c r="I24">
-        <v>0.37106507066330602</v>
+        <v>0.855442751989823</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0.37792097971580879</v>
+        <v>0.22745367720643403</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>1.1877724972144399</v>
+        <v>0.81044749746255595</v>
       </c>
       <c r="D25">
-        <v>1.1605655774257599</v>
+        <v>0.87225987577145603</v>
       </c>
       <c r="E25">
-        <v>7.7314810571681894E-2</v>
+        <v>5.2144991272500003E-2</v>
       </c>
       <c r="F25">
-        <v>5.86736931856639E-2</v>
+        <v>1.34786089400312E-2</v>
       </c>
       <c r="G25">
-        <v>8.4351341958738293E-2</v>
+        <v>6.1481405423776697E-2</v>
       </c>
       <c r="H25">
-        <v>0.27791865212285399</v>
+        <v>-1.15261899406418</v>
       </c>
       <c r="I25">
-        <v>0.60946259729544705</v>
+        <v>0.124533401784731</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0.38382908301143698</v>
+        <v>0.20531624993561101</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0.67758378770232197</v>
+        <v>1.11111910090342</v>
       </c>
       <c r="D26">
-        <v>0.66900892121206601</v>
+        <v>1.0139159553867401</v>
       </c>
       <c r="E26">
-        <v>3.6765235519225101E-2</v>
+        <v>6.3085227756349699E-2</v>
       </c>
       <c r="F26">
-        <v>1.19461504746194E-2</v>
+        <v>2.0611329709145899E-2</v>
       </c>
       <c r="G26">
-        <v>5.7854193332968901E-2</v>
+        <v>6.60872937224041E-2</v>
       </c>
       <c r="H26">
-        <v>0.22154431755776399</v>
+        <v>1.45064248942421</v>
       </c>
       <c r="I26">
-        <v>0.58766568332612801</v>
+        <v>0.92656028133346302</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>0.38927101724232016</v>
+        <v>0.13930070331776206</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>1.96992600247178</v>
+        <v>0.67758378770232197</v>
       </c>
       <c r="D27">
-        <v>1.9770065997173301</v>
+        <v>0.66900892121206601</v>
       </c>
       <c r="E27">
-        <v>0.137511809493603</v>
+        <v>3.6765235519225101E-2</v>
       </c>
       <c r="F27">
-        <v>3.8847757561501599E-2</v>
+        <v>1.19461504746194E-2</v>
       </c>
       <c r="G27">
-        <v>7.2258770119914106E-2</v>
+        <v>5.7854193332968901E-2</v>
       </c>
       <c r="H27">
-        <v>-4.95645545395983E-2</v>
+        <v>0.22154431755776399</v>
       </c>
       <c r="I27">
-        <v>0.48023469663852703</v>
+        <v>0.58766568332612801</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
-        <v>0.39845255144303954</v>
+        <v>0.38927101724232016</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="C28">
-        <v>0.54021145791509895</v>
+        <v>0.48292841215620902</v>
       </c>
       <c r="D28">
-        <v>0.53957340172008295</v>
+        <v>0.74043504887491196</v>
       </c>
       <c r="E28">
-        <v>3.3252807219150103E-2</v>
+        <v>4.4819225337217002E-2</v>
       </c>
       <c r="F28">
-        <v>9.7173466786302492E-3</v>
+        <v>1.4056739963466E-2</v>
       </c>
       <c r="G28">
-        <v>6.4211433344865204E-2</v>
+        <v>6.1784381490059E-2</v>
       </c>
       <c r="H28">
-        <v>1.8416030783786501E-2</v>
-      </c>
-      <c r="I28">
-        <v>0.50734651805231401</v>
+        <v>-5.6288899134655601</v>
+      </c>
+      <c r="I28" s="37">
+        <v>9.0686552593422508E-9</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
-        <v>0.39887463546197877</v>
+        <v>5.2568993817370052E-8</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{7E20E973-CCA0-474C-B0DE-20B3B996B0BA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
-      <sortCondition ref="J1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carrie Zhu\Documents\Research\GWAS-frontera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84A866-3E04-4267-B2B5-D2A40C27B74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E55FC-3D54-40D6-9482-13301C9AF7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F530DB7C-5B3A-4D87-B710-1F59E709F530}"/>
   </bookViews>
   <sheets>
     <sheet name="phenotypes" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'equal amplification'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'h2 diff'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ldsc!$B$3:$F$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ldsc!$A$3:$I$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">PGS!$A$3:$N$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'PGS (2)'!$A$3:$N$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'PGS (3)'!$A$3:$N$84</definedName>
@@ -41,6 +41,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phenotypes!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="133">
   <si>
     <t>Phenotype</t>
   </si>
@@ -453,6 +454,12 @@
   <si>
     <t>m or f greater var</t>
   </si>
+  <si>
+    <t>intercept</t>
+  </si>
+  <si>
+    <t>intercept std error</t>
+  </si>
 </sst>
 </file>
 
@@ -16628,7 +16635,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16659,7 +16666,7 @@
         <v>62</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C28" si="0">SUM(D2:E2)</f>
+        <f>SUM(D2:E2)</f>
         <v>294338</v>
       </c>
       <c r="D2">
@@ -16674,7 +16681,7 @@
         <v>63</v>
       </c>
       <c r="C3">
-        <f t="shared" si="0"/>
+        <f>SUM(D3:E3)</f>
         <v>331074</v>
       </c>
       <c r="D3">
@@ -16689,7 +16696,7 @@
         <v>64</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:E4)</f>
         <v>331136</v>
       </c>
       <c r="D4">
@@ -16704,7 +16711,7 @@
         <v>53</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:E5)</f>
         <v>336020</v>
       </c>
       <c r="D5">
@@ -16719,7 +16726,7 @@
         <v>65</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:E6)</f>
         <v>294230</v>
       </c>
       <c r="D6">
@@ -16734,7 +16741,7 @@
         <v>66</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:E7)</f>
         <v>321233</v>
       </c>
       <c r="D7">
@@ -16749,7 +16756,7 @@
         <v>67</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:E8)</f>
         <v>314898</v>
       </c>
       <c r="D8">
@@ -16764,7 +16771,7 @@
         <v>68</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:E9)</f>
         <v>326573</v>
       </c>
       <c r="D9">
@@ -16779,7 +16786,7 @@
         <v>69</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:E10)</f>
         <v>255426</v>
       </c>
       <c r="D10">
@@ -16794,7 +16801,7 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>SUM(D11:E11)</f>
         <v>321268</v>
       </c>
       <c r="D11">
@@ -16809,7 +16816,7 @@
         <v>51</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>SUM(D12:E12)</f>
         <v>336387</v>
       </c>
       <c r="D12">
@@ -16824,7 +16831,7 @@
         <v>70</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>SUM(D13:E13)</f>
         <v>336513</v>
       </c>
       <c r="D13">
@@ -16839,7 +16846,7 @@
         <v>71</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>SUM(D14:E14)</f>
         <v>319672</v>
       </c>
       <c r="D14">
@@ -16854,7 +16861,7 @@
         <v>72</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:E15)</f>
         <v>326573</v>
       </c>
       <c r="D15">
@@ -16869,7 +16876,7 @@
         <v>73</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:E16)</f>
         <v>294012</v>
       </c>
       <c r="D16">
@@ -16884,7 +16891,7 @@
         <v>74</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:E17)</f>
         <v>314898</v>
       </c>
       <c r="D17">
@@ -16899,7 +16906,7 @@
         <v>75</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:E18)</f>
         <v>327136</v>
       </c>
       <c r="D18">
@@ -16914,7 +16921,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:E19)</f>
         <v>291508</v>
       </c>
       <c r="D19">
@@ -16929,7 +16936,7 @@
         <v>76</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:E20)</f>
         <v>314892</v>
       </c>
       <c r="D20">
@@ -16944,7 +16951,7 @@
         <v>52</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:E21)</f>
         <v>291414</v>
       </c>
       <c r="D21">
@@ -16959,7 +16966,7 @@
         <v>77</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:E22)</f>
         <v>320984</v>
       </c>
       <c r="D22">
@@ -16974,7 +16981,7 @@
         <v>78</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:E23)</f>
         <v>321187</v>
       </c>
       <c r="D23">
@@ -16989,7 +16996,7 @@
         <v>79</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:E24)</f>
         <v>336551</v>
       </c>
       <c r="D24">
@@ -17004,7 +17011,7 @@
         <v>82</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:E25)</f>
         <v>336481</v>
       </c>
       <c r="D25">
@@ -17019,7 +17026,7 @@
         <v>80</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:E26)</f>
         <v>336139</v>
       </c>
       <c r="D26">
@@ -17034,7 +17041,7 @@
         <v>81</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:E27)</f>
         <v>330677</v>
       </c>
       <c r="D27">
@@ -17049,7 +17056,7 @@
         <v>83</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:E28)</f>
         <v>335932</v>
       </c>
       <c r="D28">
@@ -17061,15 +17068,16 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <f>AVERAGE(C2:C28)</f>
-        <v>318413.03703703702</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{0E1A7214-04C0-41AD-9983-1B492084134C}"/>
+  <autoFilter ref="A1:E1" xr:uid="{0E1A7214-04C0-41AD-9983-1B492084134C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E29">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20126,36 +20134,11 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A3:N84" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}"/>
   <mergeCells count="3">
@@ -24487,36 +24470,11 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A3:N84" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}"/>
   <mergeCells count="3">
@@ -28806,36 +28764,11 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A3:N84" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}"/>
   <mergeCells count="3">
@@ -33197,36 +33130,11 @@
       <c r="I96"/>
       <c r="J96"/>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E98"/>
-      <c r="F98"/>
-      <c r="I98"/>
-      <c r="J98"/>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="I99"/>
-      <c r="J99"/>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="I100"/>
-      <c r="J100"/>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="I101"/>
-      <c r="J101"/>
-    </row>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A3:N84" xr:uid="{9686D293-1994-48C9-812E-DB0D3E0F57A3}"/>
   <mergeCells count="3">
@@ -41343,11 +41251,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="3" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G84" sqref="F3:G84"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41361,12 +41270,12 @@
     <col min="7" max="7" width="18.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -41383,13 +41292,19 @@
         <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>50</v>
       </c>
@@ -41406,13 +41321,19 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F4">
+        <v>1.1349</v>
+      </c>
+      <c r="G4">
+        <v>1.78E-2</v>
+      </c>
+      <c r="H4">
         <v>0.96619999999999995</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -41429,13 +41350,19 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F5">
+        <v>1.0793999999999999</v>
+      </c>
+      <c r="G5">
+        <v>1.21E-2</v>
+      </c>
+      <c r="H5">
         <v>0.96619999999999995</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>50</v>
       </c>
@@ -41452,13 +41379,19 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="F6">
+        <v>1.0598000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="H6">
         <v>0.96619999999999995</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>30850</v>
       </c>
@@ -41475,13 +41408,19 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F7">
+        <v>1.2203999999999999</v>
+      </c>
+      <c r="G7">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="H7">
         <v>0.93269999999999997</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>30850</v>
       </c>
@@ -41498,13 +41437,19 @@
         <v>1.01E-2</v>
       </c>
       <c r="F8">
+        <v>1.0982000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H8">
         <v>0.93269999999999997</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30850</v>
       </c>
@@ -41521,13 +41466,19 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F9">
+        <v>1.1249</v>
+      </c>
+      <c r="G9">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H9">
         <v>0.93269999999999997</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>5.21E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21001</v>
       </c>
@@ -41544,13 +41495,19 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="F10">
+        <v>1.2245999999999999</v>
+      </c>
+      <c r="G10">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="H10">
         <v>0.9466</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>21001</v>
       </c>
@@ -41567,13 +41524,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F11">
+        <v>1.1155999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="H11">
         <v>0.9466</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21001</v>
       </c>
@@ -41590,13 +41553,19 @@
         <v>1.24E-2</v>
       </c>
       <c r="F12">
+        <v>1.1188</v>
+      </c>
+      <c r="G12">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H12">
         <v>0.9466</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30010</v>
       </c>
@@ -41613,13 +41582,19 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F13">
+        <v>1.1513</v>
+      </c>
+      <c r="G13">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H13">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30010</v>
       </c>
@@ -41636,13 +41611,19 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="F14">
+        <v>1.0704</v>
+      </c>
+      <c r="G14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H14">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>30010</v>
       </c>
@@ -41659,13 +41640,19 @@
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="F15">
+        <v>1.0508</v>
+      </c>
+      <c r="G15">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="H15">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>30770</v>
       </c>
@@ -41682,13 +41669,19 @@
         <v>1.11E-2</v>
       </c>
       <c r="F16">
+        <v>1.1115999999999999</v>
+      </c>
+      <c r="G16">
+        <v>1.55E-2</v>
+      </c>
+      <c r="H16">
         <v>0.96630000000000005</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>30770</v>
       </c>
@@ -41705,13 +41698,19 @@
         <v>1.43E-2</v>
       </c>
       <c r="F17">
+        <v>1.0674999999999999</v>
+      </c>
+      <c r="G17">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H17">
         <v>0.96630000000000005</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>30770</v>
       </c>
@@ -41728,13 +41727,19 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="F18">
+        <v>1.0478000000000001</v>
+      </c>
+      <c r="G18">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="H18">
         <v>0.96630000000000005</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1.9199999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>30700</v>
       </c>
@@ -41751,13 +41756,19 @@
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="F19">
+        <v>1.089</v>
+      </c>
+      <c r="G19">
+        <v>1.41E-2</v>
+      </c>
+      <c r="H19">
         <v>0.88980000000000004</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30700</v>
       </c>
@@ -41774,13 +41785,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F20">
+        <v>1.0438000000000001</v>
+      </c>
+      <c r="G20">
+        <v>1.21E-2</v>
+      </c>
+      <c r="H20">
         <v>0.88980000000000004</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>30700</v>
       </c>
@@ -41797,13 +41814,19 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="F21">
+        <v>1.0450999999999999</v>
+      </c>
+      <c r="G21">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="H21">
         <v>0.88980000000000004</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>2.9600000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21002</v>
       </c>
@@ -41820,13 +41843,19 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="F22">
+        <v>1.0774999999999999</v>
+      </c>
+      <c r="G22">
+        <v>1.47E-2</v>
+      </c>
+      <c r="H22">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21002</v>
       </c>
@@ -41843,13 +41872,19 @@
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="F23">
+        <v>1.0354000000000001</v>
+      </c>
+      <c r="G23">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H23">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21002</v>
       </c>
@@ -41866,13 +41901,19 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="F24">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="G24">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="H24">
         <v>0.92410000000000003</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>30680</v>
       </c>
@@ -41889,13 +41930,19 @@
         <v>1.09E-2</v>
       </c>
       <c r="F25">
+        <v>1.1431</v>
+      </c>
+      <c r="G25">
+        <v>1.95E-2</v>
+      </c>
+      <c r="H25">
         <v>0.96589999999999998</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>30680</v>
       </c>
@@ -41912,13 +41959,19 @@
         <v>1.26E-2</v>
       </c>
       <c r="F26">
+        <v>1.0772999999999999</v>
+      </c>
+      <c r="G26">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="H26">
         <v>0.96589999999999998</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>30680</v>
       </c>
@@ -41935,13 +41988,19 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="F27">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="G27">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H27">
         <v>0.96589999999999998</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>30860</v>
       </c>
@@ -41958,13 +42017,19 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="F28">
+        <v>1.1377999999999999</v>
+      </c>
+      <c r="G28">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H28">
         <v>0.9728</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>30860</v>
       </c>
@@ -41981,13 +42046,19 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="F29">
+        <v>1.075</v>
+      </c>
+      <c r="G29">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H29">
         <v>0.9728</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>30860</v>
       </c>
@@ -42004,13 +42075,19 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="F30">
+        <v>1.0631999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.06E-2</v>
+      </c>
+      <c r="H30">
         <v>0.9728</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30670</v>
       </c>
@@ -42027,13 +42104,19 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="F31">
+        <v>1.1166</v>
+      </c>
+      <c r="G31">
+        <v>1.49E-2</v>
+      </c>
+      <c r="H31">
         <v>0.98</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30670</v>
       </c>
@@ -42050,13 +42133,19 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="F32">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="G32">
+        <v>1.14E-2</v>
+      </c>
+      <c r="H32">
         <v>0.98</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30670</v>
       </c>
@@ -42073,496 +42162,622 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="F33">
+        <v>1.0638000000000001</v>
+      </c>
+      <c r="G33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H33">
         <v>0.98</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>3.3599999999999998E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>30830</v>
+        <v>23121</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0.1951</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="E34">
-        <v>7.1000000000000004E-3</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="F34">
-        <v>0.89290000000000003</v>
+        <v>1.4915</v>
       </c>
       <c r="G34">
-        <v>2.9499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H34">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="I34">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>30830</v>
+        <v>23121</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>34</v>
       </c>
       <c r="D35">
-        <v>0.2157</v>
+        <v>0.43380000000000002</v>
       </c>
       <c r="E35">
-        <v>8.3999999999999995E-3</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="F35">
-        <v>0.89290000000000003</v>
+        <v>1.2648999999999999</v>
       </c>
       <c r="G35">
-        <v>2.9499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="I35">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>30830</v>
+        <v>23121</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.21590000000000001</v>
+        <v>0.4395</v>
       </c>
       <c r="E36">
-        <v>1.0200000000000001E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>0.89290000000000003</v>
+        <v>1.2196</v>
       </c>
       <c r="G36">
-        <v>2.9499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="I36">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>23100</v>
+        <v>30830</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37">
-        <v>0.2049</v>
+        <v>0.1951</v>
       </c>
       <c r="E37">
-        <v>1.43E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="F37">
-        <v>0.89090000000000003</v>
+        <v>1.1575</v>
       </c>
       <c r="G37">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="I37">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>23100</v>
+        <v>30830</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
       <c r="D38">
-        <v>0.20610000000000001</v>
+        <v>0.2157</v>
       </c>
       <c r="E38">
-        <v>1.54E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="F38">
-        <v>0.89090000000000003</v>
+        <v>1.079</v>
       </c>
       <c r="G38">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H38">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="I38">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>23100</v>
+        <v>30830</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
       </c>
       <c r="D39">
-        <v>0.24510000000000001</v>
+        <v>0.21590000000000001</v>
       </c>
       <c r="E39">
-        <v>1.7000000000000001E-2</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>0.89090000000000003</v>
+        <v>1.0625</v>
       </c>
       <c r="G39">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="I39">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>20151</v>
+        <v>23100</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>33</v>
       </c>
       <c r="D40">
-        <v>0.1313</v>
+        <v>0.2049</v>
       </c>
       <c r="E40">
-        <v>9.5999999999999992E-3</v>
+        <v>1.43E-2</v>
       </c>
       <c r="F40">
-        <v>0.94220000000000004</v>
+        <v>1.1986000000000001</v>
       </c>
       <c r="G40">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="I40">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>20151</v>
+        <v>23100</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
         <v>34</v>
       </c>
       <c r="D41">
-        <v>0.14879999999999999</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="E41">
-        <v>1.11E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="F41">
-        <v>0.94220000000000004</v>
+        <v>1.123</v>
       </c>
       <c r="G41">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.61E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="I41">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>20151</v>
+        <v>23100</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
       </c>
       <c r="D42">
-        <v>0.13059999999999999</v>
+        <v>0.24510000000000001</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F42">
-        <v>0.94220000000000004</v>
+        <v>1.0795999999999999</v>
       </c>
       <c r="G42">
-        <v>2.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="I42">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>30750</v>
+        <v>20151</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
       <c r="D43">
-        <v>0.13619999999999999</v>
+        <v>0.1313</v>
       </c>
       <c r="E43">
-        <v>8.2000000000000007E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F43">
-        <v>0.89559999999999995</v>
+        <v>1.1766000000000001</v>
       </c>
       <c r="G43">
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="I43">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>30750</v>
+        <v>20151</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44">
-        <v>0.15129999999999999</v>
+        <v>0.14879999999999999</v>
       </c>
       <c r="E44">
-        <v>9.7999999999999997E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="F44">
-        <v>0.89559999999999995</v>
+        <v>1.0793999999999999</v>
       </c>
       <c r="G44">
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.47E-2</v>
+      </c>
+      <c r="H44">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="I44">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>30750</v>
+        <v>20151</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
       <c r="D45">
-        <v>0.1409</v>
+        <v>0.13059999999999999</v>
       </c>
       <c r="E45">
-        <v>9.1999999999999998E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>0.89559999999999995</v>
+        <v>1.0871999999999999</v>
       </c>
       <c r="G45">
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="I45">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>30880</v>
+        <v>30750</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46">
-        <v>0.1857</v>
+        <v>0.13619999999999999</v>
       </c>
       <c r="E46">
-        <v>1.38E-2</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F46">
-        <v>0.95509999999999995</v>
+        <v>1.0839000000000001</v>
       </c>
       <c r="G46">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.41E-2</v>
+      </c>
+      <c r="H46">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="I46">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>30880</v>
+        <v>30750</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47">
-        <v>0.20280000000000001</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="E47">
-        <v>1.5900000000000001E-2</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="F47">
-        <v>0.95509999999999995</v>
+        <v>1.0431999999999999</v>
       </c>
       <c r="G47">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H47">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="I47">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>30880</v>
+        <v>30750</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
       </c>
       <c r="D48">
-        <v>0.1862</v>
+        <v>0.1409</v>
       </c>
       <c r="E48">
-        <v>1.5800000000000002E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="F48">
-        <v>0.95509999999999995</v>
+        <v>1.0324</v>
       </c>
       <c r="G48">
-        <v>3.1099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="I48">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>23125</v>
+        <v>30880</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49">
-        <v>0.157</v>
+        <v>0.1857</v>
       </c>
       <c r="E49">
-        <v>2.69E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="F49">
-        <v>0.86709999999999998</v>
+        <v>1.2317</v>
       </c>
       <c r="G49">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.35E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="I49">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>23125</v>
+        <v>30880</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50">
-        <v>0.17080000000000001</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="E50">
-        <v>2.9000000000000001E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="F50">
-        <v>0.86709999999999998</v>
+        <v>1.1293</v>
       </c>
       <c r="G50">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="I50">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>23125</v>
+        <v>30880</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>35</v>
       </c>
       <c r="D51">
-        <v>0.2361</v>
+        <v>0.1862</v>
       </c>
       <c r="E51">
-        <v>4.99E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F51">
-        <v>0.86709999999999998</v>
+        <v>1.1245000000000001</v>
       </c>
       <c r="G51">
-        <v>1.44E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="I51">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>23121</v>
+        <v>23125</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52">
-        <v>0.42020000000000002</v>
+        <v>0.157</v>
       </c>
       <c r="E52">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="F52">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="G52">
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+        <v>2.69E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="I52">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>23121</v>
+        <v>23125</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>34</v>
       </c>
       <c r="D53">
-        <v>0.43380000000000002</v>
+        <v>0.17080000000000001</v>
       </c>
       <c r="E53">
-        <v>1.9599999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F53">
-        <v>0.97230000000000005</v>
+        <v>1.0739000000000001</v>
       </c>
       <c r="G53">
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="I53">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>23121</v>
+        <v>23125</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
       </c>
       <c r="D54">
-        <v>0.4395</v>
+        <v>0.2361</v>
       </c>
       <c r="E54">
-        <v>2.0500000000000001E-2</v>
+        <v>4.99E-2</v>
       </c>
       <c r="F54">
-        <v>0.97230000000000005</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="G54">
-        <v>1.38E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1.47E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="I54">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>30210</v>
       </c>
@@ -42579,13 +42794,19 @@
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="F55">
+        <v>1.0844</v>
+      </c>
+      <c r="G55">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H55">
         <v>0.93730000000000002</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>30210</v>
       </c>
@@ -42602,13 +42823,19 @@
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="F56">
+        <v>1.0555000000000001</v>
+      </c>
+      <c r="G56">
+        <v>1.21E-2</v>
+      </c>
+      <c r="H56">
         <v>0.93730000000000002</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>30210</v>
       </c>
@@ -42625,13 +42852,19 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="F57">
+        <v>1.0246999999999999</v>
+      </c>
+      <c r="G57">
+        <v>1.03E-2</v>
+      </c>
+      <c r="H57">
         <v>0.93730000000000002</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>30180</v>
       </c>
@@ -42648,13 +42881,19 @@
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="F58">
+        <v>1.0537000000000001</v>
+      </c>
+      <c r="G58">
+        <v>1.29E-2</v>
+      </c>
+      <c r="H58">
         <v>1.12E-2</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>30180</v>
       </c>
@@ -42671,13 +42910,19 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="F59">
+        <v>1.0263</v>
+      </c>
+      <c r="G59">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H59">
         <v>1.12E-2</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>30180</v>
       </c>
@@ -42694,13 +42939,19 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="F60">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="G60">
+        <v>1.29E-2</v>
+      </c>
+      <c r="H60">
         <v>1.12E-2</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>48</v>
       </c>
@@ -42717,13 +42968,19 @@
         <v>8.2000000000000007E-3</v>
       </c>
       <c r="F61">
+        <v>1.1592</v>
+      </c>
+      <c r="G61">
+        <v>1.95E-2</v>
+      </c>
+      <c r="H61">
         <v>0.94979999999999998</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>48</v>
       </c>
@@ -42740,13 +42997,19 @@
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="F62">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="G62">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H62">
         <v>0.94979999999999998</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>48</v>
       </c>
@@ -42763,13 +43026,19 @@
         <v>1.11E-2</v>
       </c>
       <c r="F63">
+        <v>1.0681</v>
+      </c>
+      <c r="G63">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H63">
         <v>0.94979999999999998</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>49</v>
       </c>
@@ -42785,14 +43054,14 @@
       <c r="E64">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>0.87</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>49</v>
       </c>
@@ -42809,13 +43078,19 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="F65">
+        <v>1.0602</v>
+      </c>
+      <c r="G65">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H65">
         <v>0.87</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>49</v>
       </c>
@@ -42832,13 +43107,19 @@
         <v>3.2599999999999997E-2</v>
       </c>
       <c r="F66">
+        <v>1.0462</v>
+      </c>
+      <c r="G66">
+        <v>1.17E-2</v>
+      </c>
+      <c r="H66">
         <v>0.87</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -42855,13 +43136,19 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="F67">
+        <v>1.0802</v>
+      </c>
+      <c r="G67">
+        <v>1.29E-2</v>
+      </c>
+      <c r="H67">
         <v>0.91080000000000005</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -42878,13 +43165,19 @@
         <v>6.7999999999999996E-3</v>
       </c>
       <c r="F68">
+        <v>1.0219</v>
+      </c>
+      <c r="G68">
+        <v>1.01E-2</v>
+      </c>
+      <c r="H68">
         <v>0.91080000000000005</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -42901,13 +43194,19 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="F69">
+        <v>1.0505</v>
+      </c>
+      <c r="G69">
+        <v>1.06E-2</v>
+      </c>
+      <c r="H69">
         <v>0.91080000000000005</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -42924,13 +43223,19 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="F70">
+        <v>1.1268</v>
+      </c>
+      <c r="G70">
+        <v>1.66E-2</v>
+      </c>
+      <c r="H70">
         <v>0.89629999999999999</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -42947,13 +43252,19 @@
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="F71">
+        <v>1.0699000000000001</v>
+      </c>
+      <c r="G71">
+        <v>1.23E-2</v>
+      </c>
+      <c r="H71">
         <v>0.89629999999999999</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -42970,13 +43281,19 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="F72">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="G72">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="H72">
         <v>0.89629999999999999</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>2.69E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4079</v>
       </c>
@@ -42993,13 +43310,19 @@
         <v>5.3E-3</v>
       </c>
       <c r="F73">
+        <v>1.1247</v>
+      </c>
+      <c r="G73">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H73">
         <v>0.75170000000000003</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4079</v>
       </c>
@@ -43016,13 +43339,19 @@
         <v>9.1000000000000004E-3</v>
       </c>
       <c r="F74">
+        <v>1.0975999999999999</v>
+      </c>
+      <c r="G74">
+        <v>1.29E-2</v>
+      </c>
+      <c r="H74">
         <v>0.75170000000000003</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4079</v>
       </c>
@@ -43039,13 +43368,19 @@
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="F75">
+        <v>1.0468</v>
+      </c>
+      <c r="G75">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="H75">
         <v>0.75170000000000003</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4080</v>
       </c>
@@ -43062,13 +43397,19 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="F76">
+        <v>1.1434</v>
+      </c>
+      <c r="G76">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="H76">
         <v>0.63219999999999998</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4080</v>
       </c>
@@ -43085,13 +43426,19 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="F77">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="G77">
+        <v>1.54E-2</v>
+      </c>
+      <c r="H77">
         <v>0.63219999999999998</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4080</v>
       </c>
@@ -43108,13 +43455,19 @@
         <v>7.4000000000000003E-3</v>
       </c>
       <c r="F78">
+        <v>1.0508</v>
+      </c>
+      <c r="G78">
+        <v>1.06E-2</v>
+      </c>
+      <c r="H78">
         <v>0.63219999999999998</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>23479</v>
       </c>
@@ -43131,13 +43484,19 @@
         <v>8.6E-3</v>
       </c>
       <c r="F79">
+        <v>1.1891</v>
+      </c>
+      <c r="G79">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="H79">
         <v>0.9365</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>23479</v>
       </c>
@@ -43154,13 +43513,19 @@
         <v>9.2999999999999992E-3</v>
       </c>
       <c r="F80">
+        <v>1.0838000000000001</v>
+      </c>
+      <c r="G80">
+        <v>1.43E-2</v>
+      </c>
+      <c r="H80">
         <v>0.9365</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23479</v>
       </c>
@@ -43177,13 +43542,19 @@
         <v>1.11E-2</v>
       </c>
       <c r="F81">
+        <v>1.0844</v>
+      </c>
+      <c r="G81">
+        <v>1.47E-2</v>
+      </c>
+      <c r="H81">
         <v>0.9365</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>102</v>
       </c>
@@ -43200,13 +43571,19 @@
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="F82">
+        <v>1.1524000000000001</v>
+      </c>
+      <c r="G82">
+        <v>1.77E-2</v>
+      </c>
+      <c r="H82">
         <v>0.91349999999999998</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>102</v>
       </c>
@@ -43223,13 +43600,19 @@
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="F83">
+        <v>1.0755999999999999</v>
+      </c>
+      <c r="G83">
+        <v>1.37E-2</v>
+      </c>
+      <c r="H83">
         <v>0.91349999999999998</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>102</v>
       </c>
@@ -43246,15 +43629,21 @@
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="F84">
+        <v>1.0525</v>
+      </c>
+      <c r="G84">
+        <v>1.29E-2</v>
+      </c>
+      <c r="H84">
         <v>0.91349999999999998</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:F84" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:F84">
+  <autoFilter ref="A3:I84" xr:uid="{0523F347-AC39-4ED0-9D70-1D8EC2DA6663}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I84">
       <sortCondition ref="B3:B84"/>
     </sortState>
   </autoFilter>
@@ -46443,7 +46832,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
